--- a/AnnualBudget/AnnualBudget/bin/Release/Templates/Templates_4.xlsx
+++ b/AnnualBudget/AnnualBudget/bin/Release/Templates/Templates_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="6945" tabRatio="740" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="6945" tabRatio="740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表8 組織編制" sheetId="41" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <definedName name="PDCA" hidden="1">#REF!</definedName>
     <definedName name="xcvbvvv" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1024,31 +1024,6 @@
     <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>模具費(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>未滿8萬元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>)及治具費</t>
-    </r>
-    <phoneticPr fontId="59" type="noConversion"/>
-  </si>
-  <si>
     <t>治具費(未滿8萬元)</t>
     <phoneticPr fontId="59" type="noConversion"/>
   </si>
@@ -1889,6 +1864,31 @@
     <t>計畫人數
 ( 2021年)</t>
     <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>模具費(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>未滿8萬元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6012,6 +6012,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="152" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="55" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="47" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="57" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="51" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="77" fillId="35" borderId="100" xfId="156" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6060,6 +6090,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6079,16 +6121,30 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6099,31 +6155,28 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="151" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="151" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="32" borderId="25" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="32" borderId="26" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="32" borderId="27" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" xfId="151" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="33" borderId="33" xfId="151" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -6137,29 +6190,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="151" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="151" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="32" borderId="25" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="32" borderId="26" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="32" borderId="27" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" xfId="151" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="27" borderId="44" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6190,69 +6220,69 @@
     <xf numFmtId="0" fontId="4" fillId="34" borderId="2" xfId="152" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="57" fillId="0" borderId="0" xfId="150" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="56" fillId="36" borderId="18" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="56" fillId="36" borderId="2" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="56" fillId="33" borderId="13" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="56" fillId="35" borderId="38" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="56" fillId="35" borderId="62" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="56" fillId="35" borderId="40" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="56" fillId="33" borderId="16" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="56" fillId="35" borderId="28" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="56" fillId="35" borderId="40" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="56" fillId="35" borderId="41" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="56" fillId="35" borderId="44" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="56" fillId="35" borderId="45" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="56" fillId="33" borderId="28" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="177" fontId="56" fillId="37" borderId="69" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="56" fillId="37" borderId="36" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="56" fillId="37" borderId="70" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="56" fillId="33" borderId="29" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="56" fillId="33" borderId="27" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="177" fontId="56" fillId="33" borderId="49" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="56" fillId="33" borderId="29" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="57" fillId="0" borderId="0" xfId="150" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="56" fillId="33" borderId="27" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="177" fontId="56" fillId="35" borderId="38" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="56" fillId="35" borderId="62" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="56" fillId="35" borderId="40" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="56" fillId="36" borderId="18" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="56" fillId="36" borderId="2" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="56" fillId="33" borderId="13" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="177" fontId="56" fillId="35" borderId="28" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="56" fillId="33" borderId="16" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="56" fillId="37" borderId="69" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="56" fillId="37" borderId="36" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="56" fillId="37" borderId="70" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="177" fontId="56" fillId="35" borderId="40" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="56" fillId="35" borderId="41" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="56" fillId="35" borderId="44" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="56" fillId="35" borderId="45" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="56" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6277,36 +6307,6 @@
     </xf>
     <xf numFmtId="0" fontId="65" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="152" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="55" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="47" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="57" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="51" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="152" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="157">
@@ -6804,62 +6804,62 @@
     <row r="1" spans="1:9" ht="29.25" customHeight="1" thickBot="1">
       <c r="A1" s="493"/>
       <c r="B1" s="493" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C1" s="493"/>
       <c r="D1" s="493"/>
       <c r="E1" s="493"/>
       <c r="F1" s="505" t="s">
+        <v>389</v>
+      </c>
+      <c r="G1" s="505" t="s">
         <v>390</v>
-      </c>
-      <c r="G1" s="505" t="s">
-        <v>391</v>
       </c>
       <c r="H1" s="506"/>
       <c r="I1" s="505" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="507" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" s="508"/>
-      <c r="C2" s="508"/>
-      <c r="D2" s="508"/>
-      <c r="E2" s="508"/>
-      <c r="F2" s="508"/>
-      <c r="G2" s="508"/>
-      <c r="H2" s="508"/>
-      <c r="I2" s="509"/>
+      <c r="A2" s="517" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" s="518"/>
+      <c r="C2" s="518"/>
+      <c r="D2" s="518"/>
+      <c r="E2" s="518"/>
+      <c r="F2" s="518"/>
+      <c r="G2" s="518"/>
+      <c r="H2" s="518"/>
+      <c r="I2" s="519"/>
     </row>
     <row r="3" spans="1:9" s="499" customFormat="1" ht="32.25" thickTop="1">
       <c r="A3" s="495" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" s="495" t="s">
         <v>379</v>
       </c>
-      <c r="B3" s="495" t="s">
+      <c r="C3" s="495" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="495" t="s">
+      <c r="D3" s="496" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="496" t="s">
+      <c r="E3" s="495" t="s">
         <v>382</v>
       </c>
-      <c r="E3" s="495" t="s">
+      <c r="F3" s="497" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" s="497" t="s">
         <v>383</v>
       </c>
-      <c r="F3" s="497" t="s">
-        <v>393</v>
-      </c>
-      <c r="G3" s="497" t="s">
+      <c r="H3" s="496" t="s">
         <v>384</v>
       </c>
-      <c r="H3" s="496" t="s">
+      <c r="I3" s="498" t="s">
         <v>385</v>
-      </c>
-      <c r="I3" s="498" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.25" customHeight="1">
@@ -7577,11 +7577,11 @@
       <c r="I54" s="502"/>
     </row>
     <row r="55" spans="1:9" ht="18" customHeight="1">
-      <c r="A55" s="510" t="s">
-        <v>387</v>
-      </c>
-      <c r="B55" s="511"/>
-      <c r="C55" s="512"/>
+      <c r="A55" s="520" t="s">
+        <v>386</v>
+      </c>
+      <c r="B55" s="521"/>
+      <c r="C55" s="522"/>
       <c r="D55" s="500">
         <f>SUM(D4:D54)</f>
         <v>0</v>
@@ -7599,32 +7599,32 @@
       <c r="I55" s="503"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A56" s="513" t="s">
-        <v>388</v>
-      </c>
-      <c r="B56" s="514"/>
-      <c r="C56" s="514"/>
-      <c r="D56" s="514"/>
-      <c r="E56" s="514"/>
-      <c r="F56" s="514"/>
-      <c r="G56" s="514"/>
-      <c r="H56" s="514"/>
-      <c r="I56" s="515"/>
+      <c r="A56" s="523" t="s">
+        <v>387</v>
+      </c>
+      <c r="B56" s="524"/>
+      <c r="C56" s="524"/>
+      <c r="D56" s="524"/>
+      <c r="E56" s="524"/>
+      <c r="F56" s="524"/>
+      <c r="G56" s="524"/>
+      <c r="H56" s="524"/>
+      <c r="I56" s="525"/>
     </row>
     <row r="57" spans="1:9" ht="40.15" customHeight="1" thickBot="1">
-      <c r="A57" s="516"/>
-      <c r="B57" s="517"/>
-      <c r="C57" s="517"/>
-      <c r="D57" s="517"/>
-      <c r="E57" s="517"/>
-      <c r="F57" s="517"/>
-      <c r="G57" s="517"/>
-      <c r="H57" s="517"/>
-      <c r="I57" s="518"/>
+      <c r="A57" s="526"/>
+      <c r="B57" s="527"/>
+      <c r="C57" s="527"/>
+      <c r="D57" s="527"/>
+      <c r="E57" s="527"/>
+      <c r="F57" s="527"/>
+      <c r="G57" s="527"/>
+      <c r="H57" s="527"/>
+      <c r="I57" s="528"/>
     </row>
     <row r="58" spans="1:9" ht="27" customHeight="1">
       <c r="A58" s="504" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B58" s="504"/>
       <c r="C58" s="504"/>
@@ -7682,22 +7682,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30">
-      <c r="A1" s="523" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="523"/>
-      <c r="C1" s="523"/>
-      <c r="D1" s="523"/>
-      <c r="E1" s="523"/>
-      <c r="F1" s="523"/>
-      <c r="G1" s="523"/>
-      <c r="H1" s="523"/>
-      <c r="I1" s="523"/>
-      <c r="J1" s="523"/>
-      <c r="K1" s="523"/>
-      <c r="L1" s="523"/>
-      <c r="M1" s="523"/>
-      <c r="N1" s="523"/>
+      <c r="A1" s="536" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="536"/>
+      <c r="C1" s="536"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
+      <c r="L1" s="536"/>
+      <c r="M1" s="536"/>
+      <c r="N1" s="536"/>
       <c r="R1" s="51"/>
       <c r="S1" s="52"/>
       <c r="T1" s="53"/>
@@ -7713,22 +7713,22 @@
       <c r="AD1" s="52"/>
     </row>
     <row r="2" spans="1:30" ht="25.5">
-      <c r="A2" s="522" t="s">
+      <c r="A2" s="535" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="522"/>
-      <c r="C2" s="522"/>
-      <c r="D2" s="522"/>
-      <c r="E2" s="522"/>
-      <c r="F2" s="522"/>
-      <c r="G2" s="522"/>
-      <c r="H2" s="522"/>
-      <c r="I2" s="522"/>
-      <c r="J2" s="522"/>
-      <c r="K2" s="522"/>
-      <c r="L2" s="522"/>
-      <c r="M2" s="522"/>
-      <c r="N2" s="522"/>
+      <c r="B2" s="535"/>
+      <c r="C2" s="535"/>
+      <c r="D2" s="535"/>
+      <c r="E2" s="535"/>
+      <c r="F2" s="535"/>
+      <c r="G2" s="535"/>
+      <c r="H2" s="535"/>
+      <c r="I2" s="535"/>
+      <c r="J2" s="535"/>
+      <c r="K2" s="535"/>
+      <c r="L2" s="535"/>
+      <c r="M2" s="535"/>
+      <c r="N2" s="535"/>
     </row>
     <row r="3" spans="1:30" s="61" customFormat="1" ht="40.5" customHeight="1">
       <c r="A3" s="60" t="s">
@@ -7746,12 +7746,12 @@
       <c r="H3" s="62"/>
       <c r="I3" s="63"/>
       <c r="J3" s="63"/>
-      <c r="K3" s="527" t="s">
-        <v>351</v>
-      </c>
-      <c r="L3" s="527"/>
-      <c r="M3" s="527"/>
-      <c r="N3" s="527"/>
+      <c r="K3" s="540" t="s">
+        <v>350</v>
+      </c>
+      <c r="L3" s="540"/>
+      <c r="M3" s="540"/>
+      <c r="N3" s="540"/>
     </row>
     <row r="4" spans="1:30" s="67" customFormat="1" ht="51.75">
       <c r="A4" s="77" t="s">
@@ -7766,16 +7766,16 @@
       <c r="D4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="524" t="s">
+      <c r="E4" s="537" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="525"/>
-      <c r="G4" s="526"/>
+      <c r="F4" s="538"/>
+      <c r="G4" s="539"/>
       <c r="H4" s="79" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="79" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J4" s="79" t="s">
         <v>10</v>
@@ -7798,9 +7798,9 @@
       <c r="B5" s="68"/>
       <c r="C5" s="83"/>
       <c r="D5" s="83"/>
-      <c r="E5" s="519"/>
-      <c r="F5" s="520"/>
-      <c r="G5" s="521"/>
+      <c r="E5" s="529"/>
+      <c r="F5" s="530"/>
+      <c r="G5" s="531"/>
       <c r="H5" s="82"/>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -7814,9 +7814,9 @@
       <c r="B6" s="68"/>
       <c r="C6" s="83"/>
       <c r="D6" s="83"/>
-      <c r="E6" s="519"/>
-      <c r="F6" s="520"/>
-      <c r="G6" s="521"/>
+      <c r="E6" s="529"/>
+      <c r="F6" s="530"/>
+      <c r="G6" s="531"/>
       <c r="H6" s="82"/>
       <c r="I6" s="86"/>
       <c r="J6" s="86"/>
@@ -7830,9 +7830,9 @@
       <c r="B7" s="68"/>
       <c r="C7" s="83"/>
       <c r="D7" s="83"/>
-      <c r="E7" s="519"/>
-      <c r="F7" s="520"/>
-      <c r="G7" s="521"/>
+      <c r="E7" s="529"/>
+      <c r="F7" s="530"/>
+      <c r="G7" s="531"/>
       <c r="H7" s="82"/>
       <c r="I7" s="86"/>
       <c r="J7" s="86"/>
@@ -7846,9 +7846,9 @@
       <c r="B8" s="68"/>
       <c r="C8" s="83"/>
       <c r="D8" s="83"/>
-      <c r="E8" s="519"/>
-      <c r="F8" s="520"/>
-      <c r="G8" s="521"/>
+      <c r="E8" s="529"/>
+      <c r="F8" s="530"/>
+      <c r="G8" s="531"/>
       <c r="H8" s="82"/>
       <c r="I8" s="86"/>
       <c r="J8" s="86"/>
@@ -7862,9 +7862,9 @@
       <c r="B9" s="68"/>
       <c r="C9" s="83"/>
       <c r="D9" s="83"/>
-      <c r="E9" s="519"/>
-      <c r="F9" s="520"/>
-      <c r="G9" s="521"/>
+      <c r="E9" s="529"/>
+      <c r="F9" s="530"/>
+      <c r="G9" s="531"/>
       <c r="H9" s="82"/>
       <c r="I9" s="86"/>
       <c r="J9" s="86"/>
@@ -7878,9 +7878,9 @@
       <c r="B10" s="68"/>
       <c r="C10" s="83"/>
       <c r="D10" s="83"/>
-      <c r="E10" s="519"/>
-      <c r="F10" s="520"/>
-      <c r="G10" s="521"/>
+      <c r="E10" s="529"/>
+      <c r="F10" s="530"/>
+      <c r="G10" s="531"/>
       <c r="H10" s="82"/>
       <c r="I10" s="86"/>
       <c r="J10" s="86"/>
@@ -7894,9 +7894,9 @@
       <c r="B11" s="68"/>
       <c r="C11" s="83"/>
       <c r="D11" s="83"/>
-      <c r="E11" s="519"/>
-      <c r="F11" s="520"/>
-      <c r="G11" s="521"/>
+      <c r="E11" s="529"/>
+      <c r="F11" s="530"/>
+      <c r="G11" s="531"/>
       <c r="H11" s="82"/>
       <c r="I11" s="86"/>
       <c r="J11" s="86"/>
@@ -7910,9 +7910,9 @@
       <c r="B12" s="68"/>
       <c r="C12" s="83"/>
       <c r="D12" s="83"/>
-      <c r="E12" s="519"/>
-      <c r="F12" s="520"/>
-      <c r="G12" s="521"/>
+      <c r="E12" s="529"/>
+      <c r="F12" s="530"/>
+      <c r="G12" s="531"/>
       <c r="H12" s="82"/>
       <c r="I12" s="86"/>
       <c r="J12" s="86"/>
@@ -7926,9 +7926,9 @@
       <c r="B13" s="68"/>
       <c r="C13" s="83"/>
       <c r="D13" s="83"/>
-      <c r="E13" s="519"/>
-      <c r="F13" s="520"/>
-      <c r="G13" s="521"/>
+      <c r="E13" s="529"/>
+      <c r="F13" s="530"/>
+      <c r="G13" s="531"/>
       <c r="H13" s="82"/>
       <c r="I13" s="86"/>
       <c r="J13" s="86"/>
@@ -7942,9 +7942,9 @@
       <c r="B14" s="68"/>
       <c r="C14" s="83"/>
       <c r="D14" s="83"/>
-      <c r="E14" s="519"/>
-      <c r="F14" s="520"/>
-      <c r="G14" s="521"/>
+      <c r="E14" s="529"/>
+      <c r="F14" s="530"/>
+      <c r="G14" s="531"/>
       <c r="H14" s="82"/>
       <c r="I14" s="86"/>
       <c r="J14" s="86"/>
@@ -7958,9 +7958,9 @@
       <c r="B15" s="68"/>
       <c r="C15" s="83"/>
       <c r="D15" s="83"/>
-      <c r="E15" s="519"/>
-      <c r="F15" s="520"/>
-      <c r="G15" s="521"/>
+      <c r="E15" s="529"/>
+      <c r="F15" s="530"/>
+      <c r="G15" s="531"/>
       <c r="H15" s="82"/>
       <c r="I15" s="86"/>
       <c r="J15" s="86"/>
@@ -7974,9 +7974,9 @@
       <c r="B16" s="68"/>
       <c r="C16" s="83"/>
       <c r="D16" s="83"/>
-      <c r="E16" s="519"/>
-      <c r="F16" s="520"/>
-      <c r="G16" s="521"/>
+      <c r="E16" s="529"/>
+      <c r="F16" s="530"/>
+      <c r="G16" s="531"/>
       <c r="H16" s="82"/>
       <c r="I16" s="86"/>
       <c r="J16" s="86"/>
@@ -7990,9 +7990,9 @@
       <c r="B17" s="68"/>
       <c r="C17" s="83"/>
       <c r="D17" s="83"/>
-      <c r="E17" s="519"/>
-      <c r="F17" s="520"/>
-      <c r="G17" s="521"/>
+      <c r="E17" s="529"/>
+      <c r="F17" s="530"/>
+      <c r="G17" s="531"/>
       <c r="H17" s="82"/>
       <c r="I17" s="86"/>
       <c r="J17" s="86"/>
@@ -8006,9 +8006,9 @@
       <c r="B18" s="68"/>
       <c r="C18" s="83"/>
       <c r="D18" s="83"/>
-      <c r="E18" s="519"/>
-      <c r="F18" s="520"/>
-      <c r="G18" s="521"/>
+      <c r="E18" s="529"/>
+      <c r="F18" s="530"/>
+      <c r="G18" s="531"/>
       <c r="H18" s="82"/>
       <c r="I18" s="86"/>
       <c r="J18" s="86"/>
@@ -8022,9 +8022,9 @@
       <c r="B19" s="68"/>
       <c r="C19" s="83"/>
       <c r="D19" s="83"/>
-      <c r="E19" s="519"/>
-      <c r="F19" s="520"/>
-      <c r="G19" s="521"/>
+      <c r="E19" s="529"/>
+      <c r="F19" s="530"/>
+      <c r="G19" s="531"/>
       <c r="H19" s="82"/>
       <c r="I19" s="86"/>
       <c r="J19" s="86"/>
@@ -8038,9 +8038,9 @@
       <c r="B20" s="68"/>
       <c r="C20" s="83"/>
       <c r="D20" s="83"/>
-      <c r="E20" s="519"/>
-      <c r="F20" s="520"/>
-      <c r="G20" s="521"/>
+      <c r="E20" s="529"/>
+      <c r="F20" s="530"/>
+      <c r="G20" s="531"/>
       <c r="H20" s="82"/>
       <c r="I20" s="86"/>
       <c r="J20" s="86"/>
@@ -8054,9 +8054,9 @@
       <c r="B21" s="68"/>
       <c r="C21" s="83"/>
       <c r="D21" s="83"/>
-      <c r="E21" s="519"/>
-      <c r="F21" s="520"/>
-      <c r="G21" s="521"/>
+      <c r="E21" s="529"/>
+      <c r="F21" s="530"/>
+      <c r="G21" s="531"/>
       <c r="H21" s="82"/>
       <c r="I21" s="86"/>
       <c r="J21" s="86"/>
@@ -8070,9 +8070,9 @@
       <c r="B22" s="68"/>
       <c r="C22" s="83"/>
       <c r="D22" s="83"/>
-      <c r="E22" s="519"/>
-      <c r="F22" s="520"/>
-      <c r="G22" s="521"/>
+      <c r="E22" s="529"/>
+      <c r="F22" s="530"/>
+      <c r="G22" s="531"/>
       <c r="H22" s="82"/>
       <c r="I22" s="86"/>
       <c r="J22" s="86"/>
@@ -8086,9 +8086,9 @@
       <c r="B23" s="68"/>
       <c r="C23" s="83"/>
       <c r="D23" s="83"/>
-      <c r="E23" s="519"/>
-      <c r="F23" s="520"/>
-      <c r="G23" s="521"/>
+      <c r="E23" s="529"/>
+      <c r="F23" s="530"/>
+      <c r="G23" s="531"/>
       <c r="H23" s="82"/>
       <c r="I23" s="86"/>
       <c r="J23" s="86"/>
@@ -8102,9 +8102,9 @@
       <c r="B24" s="68"/>
       <c r="C24" s="83"/>
       <c r="D24" s="83"/>
-      <c r="E24" s="519"/>
-      <c r="F24" s="520"/>
-      <c r="G24" s="521"/>
+      <c r="E24" s="529"/>
+      <c r="F24" s="530"/>
+      <c r="G24" s="531"/>
       <c r="H24" s="82"/>
       <c r="I24" s="86"/>
       <c r="J24" s="86"/>
@@ -8118,9 +8118,9 @@
       <c r="B25" s="68"/>
       <c r="C25" s="83"/>
       <c r="D25" s="83"/>
-      <c r="E25" s="519"/>
-      <c r="F25" s="520"/>
-      <c r="G25" s="521"/>
+      <c r="E25" s="529"/>
+      <c r="F25" s="530"/>
+      <c r="G25" s="531"/>
       <c r="H25" s="82"/>
       <c r="I25" s="86"/>
       <c r="J25" s="86"/>
@@ -8134,9 +8134,9 @@
       <c r="B26" s="68"/>
       <c r="C26" s="83"/>
       <c r="D26" s="83"/>
-      <c r="E26" s="519"/>
-      <c r="F26" s="520"/>
-      <c r="G26" s="521"/>
+      <c r="E26" s="529"/>
+      <c r="F26" s="530"/>
+      <c r="G26" s="531"/>
       <c r="H26" s="82"/>
       <c r="I26" s="86"/>
       <c r="J26" s="86"/>
@@ -8150,9 +8150,9 @@
       <c r="B27" s="68"/>
       <c r="C27" s="83"/>
       <c r="D27" s="83"/>
-      <c r="E27" s="519"/>
-      <c r="F27" s="520"/>
-      <c r="G27" s="521"/>
+      <c r="E27" s="529"/>
+      <c r="F27" s="530"/>
+      <c r="G27" s="531"/>
       <c r="H27" s="82"/>
       <c r="I27" s="86"/>
       <c r="J27" s="86"/>
@@ -8166,9 +8166,9 @@
       <c r="B28" s="68"/>
       <c r="C28" s="83"/>
       <c r="D28" s="83"/>
-      <c r="E28" s="519"/>
-      <c r="F28" s="520"/>
-      <c r="G28" s="521"/>
+      <c r="E28" s="529"/>
+      <c r="F28" s="530"/>
+      <c r="G28" s="531"/>
       <c r="H28" s="82"/>
       <c r="I28" s="86"/>
       <c r="J28" s="86"/>
@@ -8182,9 +8182,9 @@
       <c r="B29" s="68"/>
       <c r="C29" s="83"/>
       <c r="D29" s="83"/>
-      <c r="E29" s="519"/>
-      <c r="F29" s="520"/>
-      <c r="G29" s="521"/>
+      <c r="E29" s="529"/>
+      <c r="F29" s="530"/>
+      <c r="G29" s="531"/>
       <c r="H29" s="82"/>
       <c r="I29" s="86"/>
       <c r="J29" s="86"/>
@@ -8198,9 +8198,9 @@
       <c r="B30" s="68"/>
       <c r="C30" s="83"/>
       <c r="D30" s="83"/>
-      <c r="E30" s="519"/>
-      <c r="F30" s="520"/>
-      <c r="G30" s="521"/>
+      <c r="E30" s="529"/>
+      <c r="F30" s="530"/>
+      <c r="G30" s="531"/>
       <c r="H30" s="82"/>
       <c r="I30" s="86"/>
       <c r="J30" s="86"/>
@@ -8214,9 +8214,9 @@
       <c r="B31" s="68"/>
       <c r="C31" s="83"/>
       <c r="D31" s="83"/>
-      <c r="E31" s="519"/>
-      <c r="F31" s="520"/>
-      <c r="G31" s="521"/>
+      <c r="E31" s="529"/>
+      <c r="F31" s="530"/>
+      <c r="G31" s="531"/>
       <c r="H31" s="82"/>
       <c r="I31" s="86"/>
       <c r="J31" s="86"/>
@@ -8230,9 +8230,9 @@
       <c r="B32" s="68"/>
       <c r="C32" s="83"/>
       <c r="D32" s="83"/>
-      <c r="E32" s="519"/>
-      <c r="F32" s="520"/>
-      <c r="G32" s="521"/>
+      <c r="E32" s="529"/>
+      <c r="F32" s="530"/>
+      <c r="G32" s="531"/>
       <c r="H32" s="82"/>
       <c r="I32" s="86"/>
       <c r="J32" s="86"/>
@@ -8246,9 +8246,9 @@
       <c r="B33" s="68"/>
       <c r="C33" s="83"/>
       <c r="D33" s="83"/>
-      <c r="E33" s="519"/>
-      <c r="F33" s="520"/>
-      <c r="G33" s="521"/>
+      <c r="E33" s="529"/>
+      <c r="F33" s="530"/>
+      <c r="G33" s="531"/>
       <c r="H33" s="82"/>
       <c r="I33" s="86"/>
       <c r="J33" s="86"/>
@@ -8262,9 +8262,9 @@
       <c r="B34" s="68"/>
       <c r="C34" s="83"/>
       <c r="D34" s="83"/>
-      <c r="E34" s="519"/>
-      <c r="F34" s="520"/>
-      <c r="G34" s="521"/>
+      <c r="E34" s="529"/>
+      <c r="F34" s="530"/>
+      <c r="G34" s="531"/>
       <c r="H34" s="82"/>
       <c r="I34" s="86"/>
       <c r="J34" s="86"/>
@@ -8278,9 +8278,9 @@
       <c r="B35" s="68"/>
       <c r="C35" s="83"/>
       <c r="D35" s="83"/>
-      <c r="E35" s="519"/>
-      <c r="F35" s="520"/>
-      <c r="G35" s="521"/>
+      <c r="E35" s="529"/>
+      <c r="F35" s="530"/>
+      <c r="G35" s="531"/>
       <c r="H35" s="82"/>
       <c r="I35" s="86"/>
       <c r="J35" s="86"/>
@@ -8294,9 +8294,9 @@
       <c r="B36" s="68"/>
       <c r="C36" s="83"/>
       <c r="D36" s="83"/>
-      <c r="E36" s="519"/>
-      <c r="F36" s="520"/>
-      <c r="G36" s="521"/>
+      <c r="E36" s="529"/>
+      <c r="F36" s="530"/>
+      <c r="G36" s="531"/>
       <c r="H36" s="82"/>
       <c r="I36" s="86"/>
       <c r="J36" s="86"/>
@@ -8310,9 +8310,9 @@
       <c r="B37" s="68"/>
       <c r="C37" s="83"/>
       <c r="D37" s="83"/>
-      <c r="E37" s="519"/>
-      <c r="F37" s="520"/>
-      <c r="G37" s="521"/>
+      <c r="E37" s="529"/>
+      <c r="F37" s="530"/>
+      <c r="G37" s="531"/>
       <c r="H37" s="82"/>
       <c r="I37" s="86"/>
       <c r="J37" s="86"/>
@@ -8326,9 +8326,9 @@
       <c r="B38" s="68"/>
       <c r="C38" s="83"/>
       <c r="D38" s="83"/>
-      <c r="E38" s="519"/>
-      <c r="F38" s="520"/>
-      <c r="G38" s="521"/>
+      <c r="E38" s="529"/>
+      <c r="F38" s="530"/>
+      <c r="G38" s="531"/>
       <c r="H38" s="82"/>
       <c r="I38" s="86"/>
       <c r="J38" s="86"/>
@@ -8342,9 +8342,9 @@
       <c r="B39" s="68"/>
       <c r="C39" s="83"/>
       <c r="D39" s="83"/>
-      <c r="E39" s="519"/>
-      <c r="F39" s="520"/>
-      <c r="G39" s="521"/>
+      <c r="E39" s="529"/>
+      <c r="F39" s="530"/>
+      <c r="G39" s="531"/>
       <c r="H39" s="82"/>
       <c r="I39" s="86"/>
       <c r="J39" s="86"/>
@@ -8358,9 +8358,9 @@
       <c r="B40" s="68"/>
       <c r="C40" s="83"/>
       <c r="D40" s="83"/>
-      <c r="E40" s="519"/>
-      <c r="F40" s="520"/>
-      <c r="G40" s="521"/>
+      <c r="E40" s="529"/>
+      <c r="F40" s="530"/>
+      <c r="G40" s="531"/>
       <c r="H40" s="82"/>
       <c r="I40" s="86"/>
       <c r="J40" s="86"/>
@@ -8374,9 +8374,9 @@
       <c r="B41" s="68"/>
       <c r="C41" s="83"/>
       <c r="D41" s="83"/>
-      <c r="E41" s="519"/>
-      <c r="F41" s="520"/>
-      <c r="G41" s="521"/>
+      <c r="E41" s="529"/>
+      <c r="F41" s="530"/>
+      <c r="G41" s="531"/>
       <c r="H41" s="82"/>
       <c r="I41" s="86"/>
       <c r="J41" s="86"/>
@@ -8390,9 +8390,9 @@
       <c r="B42" s="68"/>
       <c r="C42" s="83"/>
       <c r="D42" s="83"/>
-      <c r="E42" s="519"/>
-      <c r="F42" s="520"/>
-      <c r="G42" s="521"/>
+      <c r="E42" s="529"/>
+      <c r="F42" s="530"/>
+      <c r="G42" s="531"/>
       <c r="H42" s="82"/>
       <c r="I42" s="86"/>
       <c r="J42" s="86"/>
@@ -8406,9 +8406,9 @@
       <c r="B43" s="68"/>
       <c r="C43" s="83"/>
       <c r="D43" s="84"/>
-      <c r="E43" s="519"/>
-      <c r="F43" s="520"/>
-      <c r="G43" s="521"/>
+      <c r="E43" s="529"/>
+      <c r="F43" s="530"/>
+      <c r="G43" s="531"/>
       <c r="H43" s="82"/>
       <c r="I43" s="86"/>
       <c r="J43" s="86"/>
@@ -8422,9 +8422,9 @@
       <c r="B44" s="68"/>
       <c r="C44" s="83"/>
       <c r="D44" s="84"/>
-      <c r="E44" s="519"/>
-      <c r="F44" s="520"/>
-      <c r="G44" s="521"/>
+      <c r="E44" s="529"/>
+      <c r="F44" s="530"/>
+      <c r="G44" s="531"/>
       <c r="H44" s="82"/>
       <c r="I44" s="86"/>
       <c r="J44" s="86"/>
@@ -8438,9 +8438,9 @@
       <c r="B45" s="68"/>
       <c r="C45" s="68"/>
       <c r="D45" s="69"/>
-      <c r="E45" s="519"/>
-      <c r="F45" s="520"/>
-      <c r="G45" s="521"/>
+      <c r="E45" s="529"/>
+      <c r="F45" s="530"/>
+      <c r="G45" s="531"/>
       <c r="H45" s="82"/>
       <c r="I45" s="86"/>
       <c r="J45" s="86"/>
@@ -8454,9 +8454,9 @@
       <c r="B46" s="68"/>
       <c r="C46" s="68"/>
       <c r="D46" s="69"/>
-      <c r="E46" s="519"/>
-      <c r="F46" s="520"/>
-      <c r="G46" s="521"/>
+      <c r="E46" s="529"/>
+      <c r="F46" s="530"/>
+      <c r="G46" s="531"/>
       <c r="H46" s="82"/>
       <c r="I46" s="86"/>
       <c r="J46" s="86"/>
@@ -8470,9 +8470,9 @@
       <c r="B47" s="68"/>
       <c r="C47" s="68"/>
       <c r="D47" s="69"/>
-      <c r="E47" s="519"/>
-      <c r="F47" s="520"/>
-      <c r="G47" s="521"/>
+      <c r="E47" s="529"/>
+      <c r="F47" s="530"/>
+      <c r="G47" s="531"/>
       <c r="H47" s="82"/>
       <c r="I47" s="86"/>
       <c r="J47" s="86"/>
@@ -8486,9 +8486,9 @@
       <c r="B48" s="68"/>
       <c r="C48" s="68"/>
       <c r="D48" s="69"/>
-      <c r="E48" s="519"/>
-      <c r="F48" s="520"/>
-      <c r="G48" s="521"/>
+      <c r="E48" s="529"/>
+      <c r="F48" s="530"/>
+      <c r="G48" s="531"/>
       <c r="H48" s="82"/>
       <c r="I48" s="86"/>
       <c r="J48" s="86"/>
@@ -8502,9 +8502,9 @@
       <c r="B49" s="68"/>
       <c r="C49" s="68"/>
       <c r="D49" s="69"/>
-      <c r="E49" s="519"/>
-      <c r="F49" s="520"/>
-      <c r="G49" s="521"/>
+      <c r="E49" s="529"/>
+      <c r="F49" s="530"/>
+      <c r="G49" s="531"/>
       <c r="H49" s="82"/>
       <c r="I49" s="86"/>
       <c r="J49" s="86"/>
@@ -8518,9 +8518,9 @@
       <c r="B50" s="68"/>
       <c r="C50" s="68"/>
       <c r="D50" s="69"/>
-      <c r="E50" s="519"/>
-      <c r="F50" s="520"/>
-      <c r="G50" s="521"/>
+      <c r="E50" s="529"/>
+      <c r="F50" s="530"/>
+      <c r="G50" s="531"/>
       <c r="H50" s="82"/>
       <c r="I50" s="86"/>
       <c r="J50" s="86"/>
@@ -8534,9 +8534,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="68"/>
       <c r="D51" s="68"/>
-      <c r="E51" s="519"/>
-      <c r="F51" s="520"/>
-      <c r="G51" s="521"/>
+      <c r="E51" s="529"/>
+      <c r="F51" s="530"/>
+      <c r="G51" s="531"/>
       <c r="H51" s="82"/>
       <c r="I51" s="86"/>
       <c r="J51" s="86"/>
@@ -8550,9 +8550,9 @@
       <c r="B52" s="68"/>
       <c r="C52" s="68"/>
       <c r="D52" s="68"/>
-      <c r="E52" s="519"/>
-      <c r="F52" s="520"/>
-      <c r="G52" s="521"/>
+      <c r="E52" s="529"/>
+      <c r="F52" s="530"/>
+      <c r="G52" s="531"/>
       <c r="H52" s="82"/>
       <c r="I52" s="86"/>
       <c r="J52" s="86"/>
@@ -8562,15 +8562,15 @@
       <c r="N52" s="85"/>
     </row>
     <row r="53" spans="1:14" s="67" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A53" s="528" t="s">
+      <c r="A53" s="532" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="529"/>
-      <c r="C53" s="529"/>
-      <c r="D53" s="529"/>
-      <c r="E53" s="529"/>
-      <c r="F53" s="529"/>
-      <c r="G53" s="530"/>
+      <c r="B53" s="533"/>
+      <c r="C53" s="533"/>
+      <c r="D53" s="533"/>
+      <c r="E53" s="533"/>
+      <c r="F53" s="533"/>
+      <c r="G53" s="534"/>
       <c r="H53" s="80">
         <f>SUM(H5:H52)</f>
         <v>0</v>
@@ -9418,15 +9418,34 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="53">
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="A53:G53"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E37:G37"/>
@@ -9443,34 +9462,15 @@
     <mergeCell ref="E45:G45"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -9512,20 +9512,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="30">
-      <c r="A1" s="523" t="s">
+      <c r="A1" s="536" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="523"/>
-      <c r="C1" s="523"/>
-      <c r="D1" s="523"/>
-      <c r="E1" s="523"/>
-      <c r="F1" s="523"/>
-      <c r="G1" s="523"/>
-      <c r="H1" s="523"/>
-      <c r="I1" s="523"/>
-      <c r="J1" s="523"/>
-      <c r="K1" s="523"/>
-      <c r="L1" s="523"/>
+      <c r="B1" s="536"/>
+      <c r="C1" s="536"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
+      <c r="L1" s="536"/>
       <c r="M1" s="43"/>
       <c r="N1" s="42"/>
       <c r="P1" s="41"/>
@@ -9536,20 +9536,20 @@
       <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="25.5">
-      <c r="A2" s="522" t="s">
+      <c r="A2" s="535" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="522"/>
-      <c r="C2" s="522"/>
-      <c r="D2" s="522"/>
-      <c r="E2" s="522"/>
-      <c r="F2" s="522"/>
-      <c r="G2" s="522"/>
-      <c r="H2" s="522"/>
-      <c r="I2" s="522"/>
-      <c r="J2" s="522"/>
-      <c r="K2" s="522"/>
-      <c r="L2" s="522"/>
+      <c r="B2" s="535"/>
+      <c r="C2" s="535"/>
+      <c r="D2" s="535"/>
+      <c r="E2" s="535"/>
+      <c r="F2" s="535"/>
+      <c r="G2" s="535"/>
+      <c r="H2" s="535"/>
+      <c r="I2" s="535"/>
+      <c r="J2" s="535"/>
+      <c r="K2" s="535"/>
+      <c r="L2" s="535"/>
       <c r="M2" s="39"/>
       <c r="N2" s="42"/>
     </row>
@@ -9580,30 +9580,30 @@
       <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="535" t="s">
+      <c r="A4" s="541" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="535" t="s">
+      <c r="B4" s="541" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="535"/>
-      <c r="D4" s="536" t="s">
+      <c r="C4" s="541"/>
+      <c r="D4" s="542" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="536" t="s">
+      <c r="E4" s="542" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="536" t="s">
+      <c r="F4" s="542" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="537" t="s">
+      <c r="G4" s="543" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="538"/>
-      <c r="I4" s="538"/>
-      <c r="J4" s="538"/>
-      <c r="K4" s="539"/>
-      <c r="L4" s="540" t="s">
+      <c r="H4" s="544"/>
+      <c r="I4" s="544"/>
+      <c r="J4" s="544"/>
+      <c r="K4" s="545"/>
+      <c r="L4" s="546" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="32"/>
@@ -9615,12 +9615,12 @@
       <c r="AA4" s="44"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="535"/>
-      <c r="B5" s="535"/>
-      <c r="C5" s="535"/>
-      <c r="D5" s="536"/>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
+      <c r="A5" s="541"/>
+      <c r="B5" s="541"/>
+      <c r="C5" s="541"/>
+      <c r="D5" s="542"/>
+      <c r="E5" s="542"/>
+      <c r="F5" s="542"/>
       <c r="G5" s="31" t="s">
         <v>33</v>
       </c>
@@ -9636,14 +9636,14 @@
       <c r="K5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="540"/>
+      <c r="L5" s="546"/>
       <c r="M5" s="42"/>
       <c r="N5" s="42"/>
     </row>
     <row r="6" spans="1:27" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="29"/>
-      <c r="B6" s="533"/>
-      <c r="C6" s="534"/>
+      <c r="B6" s="547"/>
+      <c r="C6" s="548"/>
       <c r="D6" s="28"/>
       <c r="E6" s="27"/>
       <c r="F6" s="26"/>
@@ -9656,8 +9656,8 @@
     </row>
     <row r="7" spans="1:27" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="29"/>
-      <c r="B7" s="533"/>
-      <c r="C7" s="534"/>
+      <c r="B7" s="547"/>
+      <c r="C7" s="548"/>
       <c r="D7" s="28"/>
       <c r="E7" s="27"/>
       <c r="F7" s="26"/>
@@ -9670,8 +9670,8 @@
     </row>
     <row r="8" spans="1:27" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="29"/>
-      <c r="B8" s="533"/>
-      <c r="C8" s="533"/>
+      <c r="B8" s="547"/>
+      <c r="C8" s="547"/>
       <c r="D8" s="28"/>
       <c r="E8" s="27"/>
       <c r="F8" s="26"/>
@@ -9684,8 +9684,8 @@
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="29"/>
-      <c r="B9" s="533"/>
-      <c r="C9" s="534"/>
+      <c r="B9" s="547"/>
+      <c r="C9" s="548"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -9698,8 +9698,8 @@
     </row>
     <row r="10" spans="1:27" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="29"/>
-      <c r="B10" s="533"/>
-      <c r="C10" s="534"/>
+      <c r="B10" s="547"/>
+      <c r="C10" s="548"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
@@ -9712,8 +9712,8 @@
     </row>
     <row r="11" spans="1:27" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="29"/>
-      <c r="B11" s="533"/>
-      <c r="C11" s="534"/>
+      <c r="B11" s="547"/>
+      <c r="C11" s="548"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
@@ -9726,8 +9726,8 @@
     </row>
     <row r="12" spans="1:27" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="29"/>
-      <c r="B12" s="533"/>
-      <c r="C12" s="533"/>
+      <c r="B12" s="547"/>
+      <c r="C12" s="547"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -9740,8 +9740,8 @@
     </row>
     <row r="13" spans="1:27" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="29"/>
-      <c r="B13" s="533"/>
-      <c r="C13" s="533"/>
+      <c r="B13" s="547"/>
+      <c r="C13" s="547"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -9754,8 +9754,8 @@
     </row>
     <row r="14" spans="1:27" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="531"/>
-      <c r="C14" s="532"/>
+      <c r="B14" s="549"/>
+      <c r="C14" s="550"/>
       <c r="D14" s="14"/>
       <c r="E14" s="18"/>
       <c r="F14" s="12"/>
@@ -9768,8 +9768,8 @@
     </row>
     <row r="15" spans="1:27" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="13"/>
-      <c r="B15" s="531"/>
-      <c r="C15" s="532"/>
+      <c r="B15" s="549"/>
+      <c r="C15" s="550"/>
       <c r="D15" s="14"/>
       <c r="E15" s="18"/>
       <c r="F15" s="12"/>
@@ -9782,8 +9782,8 @@
     </row>
     <row r="16" spans="1:27" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="533"/>
-      <c r="C16" s="533"/>
+      <c r="B16" s="547"/>
+      <c r="C16" s="547"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -9796,8 +9796,8 @@
     </row>
     <row r="17" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="533"/>
-      <c r="C17" s="534"/>
+      <c r="B17" s="547"/>
+      <c r="C17" s="548"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -9810,8 +9810,8 @@
     </row>
     <row r="18" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="531"/>
-      <c r="C18" s="532"/>
+      <c r="B18" s="549"/>
+      <c r="C18" s="550"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -9824,8 +9824,8 @@
     </row>
     <row r="19" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="533"/>
-      <c r="C19" s="534"/>
+      <c r="B19" s="547"/>
+      <c r="C19" s="548"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -9838,8 +9838,8 @@
     </row>
     <row r="20" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="533"/>
-      <c r="C20" s="534"/>
+      <c r="B20" s="547"/>
+      <c r="C20" s="548"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -9852,8 +9852,8 @@
     </row>
     <row r="21" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="533"/>
-      <c r="C21" s="534"/>
+      <c r="B21" s="547"/>
+      <c r="C21" s="548"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -9866,8 +9866,8 @@
     </row>
     <row r="22" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="533"/>
-      <c r="C22" s="534"/>
+      <c r="B22" s="547"/>
+      <c r="C22" s="548"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
@@ -9880,8 +9880,8 @@
     </row>
     <row r="23" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="29"/>
-      <c r="B23" s="533"/>
-      <c r="C23" s="534"/>
+      <c r="B23" s="547"/>
+      <c r="C23" s="548"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -9894,8 +9894,8 @@
     </row>
     <row r="24" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="29"/>
-      <c r="B24" s="533"/>
-      <c r="C24" s="534"/>
+      <c r="B24" s="547"/>
+      <c r="C24" s="548"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -9908,8 +9908,8 @@
     </row>
     <row r="25" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="29"/>
-      <c r="B25" s="531"/>
-      <c r="C25" s="532"/>
+      <c r="B25" s="549"/>
+      <c r="C25" s="550"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -9922,8 +9922,8 @@
     </row>
     <row r="26" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="29"/>
-      <c r="B26" s="533"/>
-      <c r="C26" s="534"/>
+      <c r="B26" s="547"/>
+      <c r="C26" s="548"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -9936,8 +9936,8 @@
     </row>
     <row r="27" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="29"/>
-      <c r="B27" s="533"/>
-      <c r="C27" s="534"/>
+      <c r="B27" s="547"/>
+      <c r="C27" s="548"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
@@ -9950,8 +9950,8 @@
     </row>
     <row r="28" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="29"/>
-      <c r="B28" s="533"/>
-      <c r="C28" s="534"/>
+      <c r="B28" s="547"/>
+      <c r="C28" s="548"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
@@ -9964,8 +9964,8 @@
     </row>
     <row r="29" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="29"/>
-      <c r="B29" s="533"/>
-      <c r="C29" s="534"/>
+      <c r="B29" s="547"/>
+      <c r="C29" s="548"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
@@ -9978,8 +9978,8 @@
     </row>
     <row r="30" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="29"/>
-      <c r="B30" s="533"/>
-      <c r="C30" s="534"/>
+      <c r="B30" s="547"/>
+      <c r="C30" s="548"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
@@ -9992,8 +9992,8 @@
     </row>
     <row r="31" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="29"/>
-      <c r="B31" s="533"/>
-      <c r="C31" s="533"/>
+      <c r="B31" s="547"/>
+      <c r="C31" s="547"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
@@ -10006,8 +10006,8 @@
     </row>
     <row r="32" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="15"/>
-      <c r="B32" s="531"/>
-      <c r="C32" s="532"/>
+      <c r="B32" s="549"/>
+      <c r="C32" s="550"/>
       <c r="D32" s="14"/>
       <c r="E32" s="18"/>
       <c r="F32" s="12"/>
@@ -10020,8 +10020,8 @@
     </row>
     <row r="33" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="13"/>
-      <c r="B33" s="531"/>
-      <c r="C33" s="532"/>
+      <c r="B33" s="549"/>
+      <c r="C33" s="550"/>
       <c r="D33" s="14"/>
       <c r="E33" s="18"/>
       <c r="F33" s="12"/>
@@ -10034,8 +10034,8 @@
     </row>
     <row r="34" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="13"/>
-      <c r="B34" s="531"/>
-      <c r="C34" s="532"/>
+      <c r="B34" s="549"/>
+      <c r="C34" s="550"/>
       <c r="D34" s="14"/>
       <c r="E34" s="18"/>
       <c r="F34" s="12"/>
@@ -10048,8 +10048,8 @@
     </row>
     <row r="35" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="13"/>
-      <c r="B35" s="531"/>
-      <c r="C35" s="532"/>
+      <c r="B35" s="549"/>
+      <c r="C35" s="550"/>
       <c r="D35" s="14"/>
       <c r="E35" s="18"/>
       <c r="F35" s="12"/>
@@ -10263,15 +10263,24 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -10284,24 +10293,15 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1" gridLinesSet="0"/>
@@ -10341,55 +10341,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="88" customFormat="1" ht="30">
-      <c r="A1" s="523" t="s">
+      <c r="A1" s="536" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="536"/>
+      <c r="C1" s="536"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
+      <c r="L1" s="536"/>
+      <c r="M1" s="536"/>
+      <c r="N1" s="536"/>
+      <c r="O1" s="536"/>
+    </row>
+    <row r="2" spans="1:15" ht="21">
+      <c r="A2" s="556" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="523"/>
-      <c r="C1" s="523"/>
-      <c r="D1" s="523"/>
-      <c r="E1" s="523"/>
-      <c r="F1" s="523"/>
-      <c r="G1" s="523"/>
-      <c r="H1" s="523"/>
-      <c r="I1" s="523"/>
-      <c r="J1" s="523"/>
-      <c r="K1" s="523"/>
-      <c r="L1" s="523"/>
-      <c r="M1" s="523"/>
-      <c r="N1" s="523"/>
-      <c r="O1" s="523"/>
-    </row>
-    <row r="2" spans="1:15" ht="21">
-      <c r="A2" s="549" t="s">
-        <v>353</v>
-      </c>
-      <c r="B2" s="549"/>
-      <c r="C2" s="549"/>
-      <c r="D2" s="549"/>
-      <c r="E2" s="549"/>
-      <c r="F2" s="549"/>
-      <c r="G2" s="549"/>
-      <c r="H2" s="549"/>
-      <c r="I2" s="549"/>
-      <c r="J2" s="549"/>
-      <c r="K2" s="549"/>
-      <c r="L2" s="549"/>
-      <c r="M2" s="549"/>
-      <c r="N2" s="549"/>
-      <c r="O2" s="549"/>
+      <c r="B2" s="556"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="556"/>
+      <c r="E2" s="556"/>
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="556"/>
+      <c r="I2" s="556"/>
+      <c r="J2" s="556"/>
+      <c r="K2" s="556"/>
+      <c r="L2" s="556"/>
+      <c r="M2" s="556"/>
+      <c r="N2" s="556"/>
+      <c r="O2" s="556"/>
     </row>
     <row r="4" spans="1:15" ht="18" thickBot="1">
       <c r="A4" s="88" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>354</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="C4" s="91" t="s">
         <v>355</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="D4" s="88" t="s">
         <v>356</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>357</v>
       </c>
       <c r="E4" s="92"/>
       <c r="F4" s="93"/>
@@ -10401,13 +10401,13 @@
       <c r="L4" s="94"/>
       <c r="M4" s="94"/>
       <c r="N4" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O4" s="91"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickBot="1">
       <c r="A5" s="96" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B5" s="97" t="s">
         <v>46</v>
@@ -10445,10 +10445,10 @@
       <c r="M5" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="550" t="s">
+      <c r="N5" s="557" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="550"/>
+      <c r="O5" s="557"/>
     </row>
     <row r="6" spans="1:15" s="105" customFormat="1">
       <c r="A6" s="102" t="s">
@@ -10488,8 +10488,8 @@
       </c>
       <c r="L7" s="108"/>
       <c r="M7" s="110"/>
-      <c r="N7" s="544"/>
-      <c r="O7" s="545"/>
+      <c r="N7" s="551"/>
+      <c r="O7" s="552"/>
     </row>
     <row r="8" spans="1:15" s="111" customFormat="1">
       <c r="A8" s="106">
@@ -10510,8 +10510,8 @@
       </c>
       <c r="L8" s="108"/>
       <c r="M8" s="110"/>
-      <c r="N8" s="544"/>
-      <c r="O8" s="545"/>
+      <c r="N8" s="551"/>
+      <c r="O8" s="552"/>
     </row>
     <row r="9" spans="1:15" s="111" customFormat="1">
       <c r="A9" s="106">
@@ -10532,8 +10532,8 @@
       </c>
       <c r="L9" s="108"/>
       <c r="M9" s="110"/>
-      <c r="N9" s="544"/>
-      <c r="O9" s="545"/>
+      <c r="N9" s="551"/>
+      <c r="O9" s="552"/>
     </row>
     <row r="10" spans="1:15" s="111" customFormat="1">
       <c r="A10" s="106">
@@ -10554,8 +10554,8 @@
       </c>
       <c r="L10" s="108"/>
       <c r="M10" s="110"/>
-      <c r="N10" s="544"/>
-      <c r="O10" s="545"/>
+      <c r="N10" s="551"/>
+      <c r="O10" s="552"/>
     </row>
     <row r="11" spans="1:15" s="111" customFormat="1">
       <c r="A11" s="106">
@@ -10576,8 +10576,8 @@
       </c>
       <c r="L11" s="108"/>
       <c r="M11" s="110"/>
-      <c r="N11" s="544"/>
-      <c r="O11" s="545"/>
+      <c r="N11" s="551"/>
+      <c r="O11" s="552"/>
     </row>
     <row r="12" spans="1:15" s="115" customFormat="1">
       <c r="A12" s="106">
@@ -10598,8 +10598,8 @@
       </c>
       <c r="L12" s="108"/>
       <c r="M12" s="110"/>
-      <c r="N12" s="544"/>
-      <c r="O12" s="545"/>
+      <c r="N12" s="551"/>
+      <c r="O12" s="552"/>
     </row>
     <row r="13" spans="1:15" s="105" customFormat="1">
       <c r="A13" s="106">
@@ -10620,8 +10620,8 @@
       </c>
       <c r="L13" s="108"/>
       <c r="M13" s="110"/>
-      <c r="N13" s="544"/>
-      <c r="O13" s="545"/>
+      <c r="N13" s="551"/>
+      <c r="O13" s="552"/>
     </row>
     <row r="14" spans="1:15" s="111" customFormat="1">
       <c r="A14" s="106">
@@ -10642,8 +10642,8 @@
       </c>
       <c r="L14" s="108"/>
       <c r="M14" s="110"/>
-      <c r="N14" s="544"/>
-      <c r="O14" s="545"/>
+      <c r="N14" s="551"/>
+      <c r="O14" s="552"/>
     </row>
     <row r="15" spans="1:15" s="111" customFormat="1">
       <c r="A15" s="106">
@@ -10664,8 +10664,8 @@
       </c>
       <c r="L15" s="108"/>
       <c r="M15" s="110"/>
-      <c r="N15" s="544"/>
-      <c r="O15" s="545"/>
+      <c r="N15" s="551"/>
+      <c r="O15" s="552"/>
     </row>
     <row r="16" spans="1:15" s="111" customFormat="1">
       <c r="A16" s="106">
@@ -10686,8 +10686,8 @@
       </c>
       <c r="L16" s="108"/>
       <c r="M16" s="110"/>
-      <c r="N16" s="544"/>
-      <c r="O16" s="545"/>
+      <c r="N16" s="551"/>
+      <c r="O16" s="552"/>
     </row>
     <row r="17" spans="1:15" s="111" customFormat="1" ht="17.25" thickBot="1">
       <c r="A17" s="479" t="s">
@@ -10755,8 +10755,8 @@
       </c>
       <c r="L19" s="108"/>
       <c r="M19" s="110"/>
-      <c r="N19" s="544"/>
-      <c r="O19" s="545"/>
+      <c r="N19" s="551"/>
+      <c r="O19" s="552"/>
     </row>
     <row r="20" spans="1:15" s="105" customFormat="1">
       <c r="A20" s="106">
@@ -10777,8 +10777,8 @@
       </c>
       <c r="L20" s="108"/>
       <c r="M20" s="110"/>
-      <c r="N20" s="544"/>
-      <c r="O20" s="545"/>
+      <c r="N20" s="551"/>
+      <c r="O20" s="552"/>
     </row>
     <row r="21" spans="1:15" s="111" customFormat="1">
       <c r="A21" s="106">
@@ -10799,8 +10799,8 @@
       </c>
       <c r="L21" s="108"/>
       <c r="M21" s="110"/>
-      <c r="N21" s="544"/>
-      <c r="O21" s="545"/>
+      <c r="N21" s="551"/>
+      <c r="O21" s="552"/>
     </row>
     <row r="22" spans="1:15" s="111" customFormat="1">
       <c r="A22" s="106">
@@ -10821,8 +10821,8 @@
       </c>
       <c r="L22" s="108"/>
       <c r="M22" s="110"/>
-      <c r="N22" s="544"/>
-      <c r="O22" s="545"/>
+      <c r="N22" s="551"/>
+      <c r="O22" s="552"/>
     </row>
     <row r="23" spans="1:15" s="111" customFormat="1">
       <c r="A23" s="106">
@@ -10843,8 +10843,8 @@
       </c>
       <c r="L23" s="108"/>
       <c r="M23" s="110"/>
-      <c r="N23" s="544"/>
-      <c r="O23" s="545"/>
+      <c r="N23" s="551"/>
+      <c r="O23" s="552"/>
     </row>
     <row r="24" spans="1:15" s="111" customFormat="1">
       <c r="A24" s="106">
@@ -10865,8 +10865,8 @@
       </c>
       <c r="L24" s="108"/>
       <c r="M24" s="110"/>
-      <c r="N24" s="544"/>
-      <c r="O24" s="545"/>
+      <c r="N24" s="551"/>
+      <c r="O24" s="552"/>
     </row>
     <row r="25" spans="1:15" s="111" customFormat="1">
       <c r="A25" s="106">
@@ -10887,8 +10887,8 @@
       </c>
       <c r="L25" s="108"/>
       <c r="M25" s="110"/>
-      <c r="N25" s="544"/>
-      <c r="O25" s="545"/>
+      <c r="N25" s="551"/>
+      <c r="O25" s="552"/>
     </row>
     <row r="26" spans="1:15" s="115" customFormat="1">
       <c r="A26" s="106">
@@ -10909,8 +10909,8 @@
       </c>
       <c r="L26" s="108"/>
       <c r="M26" s="110"/>
-      <c r="N26" s="544"/>
-      <c r="O26" s="545"/>
+      <c r="N26" s="551"/>
+      <c r="O26" s="552"/>
     </row>
     <row r="27" spans="1:15" s="105" customFormat="1">
       <c r="A27" s="106">
@@ -10931,8 +10931,8 @@
       </c>
       <c r="L27" s="108"/>
       <c r="M27" s="110"/>
-      <c r="N27" s="544"/>
-      <c r="O27" s="545"/>
+      <c r="N27" s="551"/>
+      <c r="O27" s="552"/>
     </row>
     <row r="28" spans="1:15" s="111" customFormat="1">
       <c r="A28" s="106">
@@ -10953,8 +10953,8 @@
       </c>
       <c r="L28" s="108"/>
       <c r="M28" s="110"/>
-      <c r="N28" s="544"/>
-      <c r="O28" s="545"/>
+      <c r="N28" s="551"/>
+      <c r="O28" s="552"/>
     </row>
     <row r="29" spans="1:15" s="111" customFormat="1" ht="17.25" thickBot="1">
       <c r="A29" s="479" t="s">
@@ -11022,8 +11022,8 @@
       </c>
       <c r="L31" s="108"/>
       <c r="M31" s="110"/>
-      <c r="N31" s="544"/>
-      <c r="O31" s="545"/>
+      <c r="N31" s="551"/>
+      <c r="O31" s="552"/>
     </row>
     <row r="32" spans="1:15" s="111" customFormat="1">
       <c r="A32" s="106">
@@ -11044,8 +11044,8 @@
       </c>
       <c r="L32" s="108"/>
       <c r="M32" s="110"/>
-      <c r="N32" s="544"/>
-      <c r="O32" s="545"/>
+      <c r="N32" s="551"/>
+      <c r="O32" s="552"/>
     </row>
     <row r="33" spans="1:15" s="115" customFormat="1">
       <c r="A33" s="106">
@@ -11066,8 +11066,8 @@
       </c>
       <c r="L33" s="108"/>
       <c r="M33" s="110"/>
-      <c r="N33" s="544"/>
-      <c r="O33" s="545"/>
+      <c r="N33" s="551"/>
+      <c r="O33" s="552"/>
     </row>
     <row r="34" spans="1:15" s="105" customFormat="1">
       <c r="A34" s="106">
@@ -11088,8 +11088,8 @@
       </c>
       <c r="L34" s="108"/>
       <c r="M34" s="110"/>
-      <c r="N34" s="544"/>
-      <c r="O34" s="545"/>
+      <c r="N34" s="551"/>
+      <c r="O34" s="552"/>
     </row>
     <row r="35" spans="1:15" s="111" customFormat="1">
       <c r="A35" s="106">
@@ -11110,8 +11110,8 @@
       </c>
       <c r="L35" s="108"/>
       <c r="M35" s="110"/>
-      <c r="N35" s="544"/>
-      <c r="O35" s="545"/>
+      <c r="N35" s="551"/>
+      <c r="O35" s="552"/>
     </row>
     <row r="36" spans="1:15" s="111" customFormat="1">
       <c r="A36" s="106">
@@ -11132,8 +11132,8 @@
       </c>
       <c r="L36" s="108"/>
       <c r="M36" s="110"/>
-      <c r="N36" s="544"/>
-      <c r="O36" s="545"/>
+      <c r="N36" s="551"/>
+      <c r="O36" s="552"/>
     </row>
     <row r="37" spans="1:15" s="111" customFormat="1">
       <c r="A37" s="106">
@@ -11154,8 +11154,8 @@
       </c>
       <c r="L37" s="108"/>
       <c r="M37" s="110"/>
-      <c r="N37" s="544"/>
-      <c r="O37" s="545"/>
+      <c r="N37" s="551"/>
+      <c r="O37" s="552"/>
     </row>
     <row r="38" spans="1:15" s="111" customFormat="1">
       <c r="A38" s="106">
@@ -11176,8 +11176,8 @@
       </c>
       <c r="L38" s="108"/>
       <c r="M38" s="110"/>
-      <c r="N38" s="544"/>
-      <c r="O38" s="545"/>
+      <c r="N38" s="551"/>
+      <c r="O38" s="552"/>
     </row>
     <row r="39" spans="1:15" s="111" customFormat="1">
       <c r="A39" s="106">
@@ -11198,8 +11198,8 @@
       </c>
       <c r="L39" s="108"/>
       <c r="M39" s="110"/>
-      <c r="N39" s="544"/>
-      <c r="O39" s="545"/>
+      <c r="N39" s="551"/>
+      <c r="O39" s="552"/>
     </row>
     <row r="40" spans="1:15" s="119" customFormat="1">
       <c r="A40" s="106">
@@ -11220,22 +11220,22 @@
       </c>
       <c r="L40" s="108"/>
       <c r="M40" s="110"/>
-      <c r="N40" s="544"/>
-      <c r="O40" s="545"/>
+      <c r="N40" s="551"/>
+      <c r="O40" s="552"/>
     </row>
     <row r="41" spans="1:15" s="105" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A41" s="546" t="s">
+      <c r="A41" s="553" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="547"/>
-      <c r="C41" s="547"/>
-      <c r="D41" s="547"/>
-      <c r="E41" s="547"/>
-      <c r="F41" s="547"/>
-      <c r="G41" s="547"/>
-      <c r="H41" s="547"/>
-      <c r="I41" s="547"/>
-      <c r="J41" s="548"/>
+      <c r="B41" s="554"/>
+      <c r="C41" s="554"/>
+      <c r="D41" s="554"/>
+      <c r="E41" s="554"/>
+      <c r="F41" s="554"/>
+      <c r="G41" s="554"/>
+      <c r="H41" s="554"/>
+      <c r="I41" s="554"/>
+      <c r="J41" s="555"/>
       <c r="K41" s="112">
         <f>SUM(K31:K40)</f>
         <v>0</v>
@@ -11289,8 +11289,8 @@
       </c>
       <c r="L43" s="108"/>
       <c r="M43" s="110"/>
-      <c r="N43" s="544"/>
-      <c r="O43" s="545"/>
+      <c r="N43" s="551"/>
+      <c r="O43" s="552"/>
     </row>
     <row r="44" spans="1:15" s="111" customFormat="1">
       <c r="A44" s="106">
@@ -11311,8 +11311,8 @@
       </c>
       <c r="L44" s="108"/>
       <c r="M44" s="110"/>
-      <c r="N44" s="544"/>
-      <c r="O44" s="545"/>
+      <c r="N44" s="551"/>
+      <c r="O44" s="552"/>
     </row>
     <row r="45" spans="1:15" s="111" customFormat="1">
       <c r="A45" s="106">
@@ -11333,8 +11333,8 @@
       </c>
       <c r="L45" s="108"/>
       <c r="M45" s="110"/>
-      <c r="N45" s="544"/>
-      <c r="O45" s="545"/>
+      <c r="N45" s="551"/>
+      <c r="O45" s="552"/>
     </row>
     <row r="46" spans="1:15" s="111" customFormat="1">
       <c r="A46" s="106">
@@ -11355,8 +11355,8 @@
       </c>
       <c r="L46" s="108"/>
       <c r="M46" s="110"/>
-      <c r="N46" s="544"/>
-      <c r="O46" s="545"/>
+      <c r="N46" s="551"/>
+      <c r="O46" s="552"/>
     </row>
     <row r="47" spans="1:15" s="115" customFormat="1">
       <c r="A47" s="106">
@@ -11377,8 +11377,8 @@
       </c>
       <c r="L47" s="108"/>
       <c r="M47" s="110"/>
-      <c r="N47" s="544"/>
-      <c r="O47" s="545"/>
+      <c r="N47" s="551"/>
+      <c r="O47" s="552"/>
     </row>
     <row r="48" spans="1:15" s="105" customFormat="1">
       <c r="A48" s="106">
@@ -11399,8 +11399,8 @@
       </c>
       <c r="L48" s="108"/>
       <c r="M48" s="110"/>
-      <c r="N48" s="544"/>
-      <c r="O48" s="545"/>
+      <c r="N48" s="551"/>
+      <c r="O48" s="552"/>
     </row>
     <row r="49" spans="1:15" s="111" customFormat="1">
       <c r="A49" s="106">
@@ -11421,8 +11421,8 @@
       </c>
       <c r="L49" s="108"/>
       <c r="M49" s="110"/>
-      <c r="N49" s="544"/>
-      <c r="O49" s="545"/>
+      <c r="N49" s="551"/>
+      <c r="O49" s="552"/>
     </row>
     <row r="50" spans="1:15" s="111" customFormat="1">
       <c r="A50" s="106">
@@ -11443,8 +11443,8 @@
       </c>
       <c r="L50" s="108"/>
       <c r="M50" s="110"/>
-      <c r="N50" s="544"/>
-      <c r="O50" s="545"/>
+      <c r="N50" s="551"/>
+      <c r="O50" s="552"/>
     </row>
     <row r="51" spans="1:15" s="111" customFormat="1">
       <c r="A51" s="106">
@@ -11465,8 +11465,8 @@
       </c>
       <c r="L51" s="108"/>
       <c r="M51" s="110"/>
-      <c r="N51" s="544"/>
-      <c r="O51" s="545"/>
+      <c r="N51" s="551"/>
+      <c r="O51" s="552"/>
     </row>
     <row r="52" spans="1:15" s="111" customFormat="1">
       <c r="A52" s="106">
@@ -11487,22 +11487,22 @@
       </c>
       <c r="L52" s="108"/>
       <c r="M52" s="110"/>
-      <c r="N52" s="544"/>
-      <c r="O52" s="545"/>
+      <c r="N52" s="551"/>
+      <c r="O52" s="552"/>
     </row>
     <row r="53" spans="1:15" s="111" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A53" s="546" t="s">
+      <c r="A53" s="553" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="547"/>
-      <c r="C53" s="547"/>
-      <c r="D53" s="547"/>
-      <c r="E53" s="547"/>
-      <c r="F53" s="547"/>
-      <c r="G53" s="547"/>
-      <c r="H53" s="547"/>
-      <c r="I53" s="547"/>
-      <c r="J53" s="548"/>
+      <c r="B53" s="554"/>
+      <c r="C53" s="554"/>
+      <c r="D53" s="554"/>
+      <c r="E53" s="554"/>
+      <c r="F53" s="554"/>
+      <c r="G53" s="554"/>
+      <c r="H53" s="554"/>
+      <c r="I53" s="554"/>
+      <c r="J53" s="555"/>
       <c r="K53" s="112">
         <f>SUM(K43:K52)</f>
         <v>0</v>
@@ -11556,8 +11556,8 @@
       </c>
       <c r="L55" s="108"/>
       <c r="M55" s="110"/>
-      <c r="N55" s="544"/>
-      <c r="O55" s="545"/>
+      <c r="N55" s="551"/>
+      <c r="O55" s="552"/>
     </row>
     <row r="56" spans="1:15" s="111" customFormat="1">
       <c r="A56" s="106">
@@ -11578,8 +11578,8 @@
       </c>
       <c r="L56" s="108"/>
       <c r="M56" s="110"/>
-      <c r="N56" s="544"/>
-      <c r="O56" s="545"/>
+      <c r="N56" s="551"/>
+      <c r="O56" s="552"/>
     </row>
     <row r="57" spans="1:15" s="111" customFormat="1">
       <c r="A57" s="106">
@@ -11600,8 +11600,8 @@
       </c>
       <c r="L57" s="108"/>
       <c r="M57" s="110"/>
-      <c r="N57" s="544"/>
-      <c r="O57" s="545"/>
+      <c r="N57" s="551"/>
+      <c r="O57" s="552"/>
     </row>
     <row r="58" spans="1:15" s="111" customFormat="1">
       <c r="A58" s="106">
@@ -11622,8 +11622,8 @@
       </c>
       <c r="L58" s="108"/>
       <c r="M58" s="110"/>
-      <c r="N58" s="544"/>
-      <c r="O58" s="545"/>
+      <c r="N58" s="551"/>
+      <c r="O58" s="552"/>
     </row>
     <row r="59" spans="1:15" s="111" customFormat="1">
       <c r="A59" s="106">
@@ -11644,8 +11644,8 @@
       </c>
       <c r="L59" s="108"/>
       <c r="M59" s="110"/>
-      <c r="N59" s="544"/>
-      <c r="O59" s="545"/>
+      <c r="N59" s="551"/>
+      <c r="O59" s="552"/>
     </row>
     <row r="60" spans="1:15" s="111" customFormat="1">
       <c r="A60" s="106">
@@ -11666,8 +11666,8 @@
       </c>
       <c r="L60" s="108"/>
       <c r="M60" s="110"/>
-      <c r="N60" s="544"/>
-      <c r="O60" s="545"/>
+      <c r="N60" s="551"/>
+      <c r="O60" s="552"/>
     </row>
     <row r="61" spans="1:15" s="115" customFormat="1">
       <c r="A61" s="106">
@@ -11688,8 +11688,8 @@
       </c>
       <c r="L61" s="108"/>
       <c r="M61" s="110"/>
-      <c r="N61" s="544"/>
-      <c r="O61" s="545"/>
+      <c r="N61" s="551"/>
+      <c r="O61" s="552"/>
     </row>
     <row r="62" spans="1:15" s="105" customFormat="1">
       <c r="A62" s="106">
@@ -11710,8 +11710,8 @@
       </c>
       <c r="L62" s="108"/>
       <c r="M62" s="110"/>
-      <c r="N62" s="544"/>
-      <c r="O62" s="545"/>
+      <c r="N62" s="551"/>
+      <c r="O62" s="552"/>
     </row>
     <row r="63" spans="1:15" s="111" customFormat="1">
       <c r="A63" s="106">
@@ -11732,8 +11732,8 @@
       </c>
       <c r="L63" s="108"/>
       <c r="M63" s="110"/>
-      <c r="N63" s="544"/>
-      <c r="O63" s="545"/>
+      <c r="N63" s="551"/>
+      <c r="O63" s="552"/>
     </row>
     <row r="64" spans="1:15" s="111" customFormat="1">
       <c r="A64" s="106">
@@ -11754,22 +11754,22 @@
       </c>
       <c r="L64" s="108"/>
       <c r="M64" s="110"/>
-      <c r="N64" s="544"/>
-      <c r="O64" s="545"/>
+      <c r="N64" s="551"/>
+      <c r="O64" s="552"/>
     </row>
     <row r="65" spans="1:15" s="111" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A65" s="546" t="s">
+      <c r="A65" s="553" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="547"/>
-      <c r="C65" s="547"/>
-      <c r="D65" s="547"/>
-      <c r="E65" s="547"/>
-      <c r="F65" s="547"/>
-      <c r="G65" s="547"/>
-      <c r="H65" s="547"/>
-      <c r="I65" s="547"/>
-      <c r="J65" s="548"/>
+      <c r="B65" s="554"/>
+      <c r="C65" s="554"/>
+      <c r="D65" s="554"/>
+      <c r="E65" s="554"/>
+      <c r="F65" s="554"/>
+      <c r="G65" s="554"/>
+      <c r="H65" s="554"/>
+      <c r="I65" s="554"/>
+      <c r="J65" s="555"/>
       <c r="K65" s="116">
         <f>SUM(K55:K64)</f>
         <v>0</v>
@@ -11823,8 +11823,8 @@
       </c>
       <c r="L67" s="108"/>
       <c r="M67" s="110"/>
-      <c r="N67" s="544"/>
-      <c r="O67" s="545"/>
+      <c r="N67" s="551"/>
+      <c r="O67" s="552"/>
     </row>
     <row r="68" spans="1:15" s="115" customFormat="1">
       <c r="A68" s="106">
@@ -11845,8 +11845,8 @@
       </c>
       <c r="L68" s="108"/>
       <c r="M68" s="110"/>
-      <c r="N68" s="544"/>
-      <c r="O68" s="545"/>
+      <c r="N68" s="551"/>
+      <c r="O68" s="552"/>
     </row>
     <row r="69" spans="1:15" s="105" customFormat="1">
       <c r="A69" s="106">
@@ -11867,8 +11867,8 @@
       </c>
       <c r="L69" s="108"/>
       <c r="M69" s="110"/>
-      <c r="N69" s="544"/>
-      <c r="O69" s="545"/>
+      <c r="N69" s="551"/>
+      <c r="O69" s="552"/>
     </row>
     <row r="70" spans="1:15" s="111" customFormat="1">
       <c r="A70" s="106">
@@ -11889,8 +11889,8 @@
       </c>
       <c r="L70" s="108"/>
       <c r="M70" s="110"/>
-      <c r="N70" s="544"/>
-      <c r="O70" s="545"/>
+      <c r="N70" s="551"/>
+      <c r="O70" s="552"/>
     </row>
     <row r="71" spans="1:15" s="111" customFormat="1">
       <c r="A71" s="106">
@@ -11911,8 +11911,8 @@
       </c>
       <c r="L71" s="108"/>
       <c r="M71" s="110"/>
-      <c r="N71" s="544"/>
-      <c r="O71" s="545"/>
+      <c r="N71" s="551"/>
+      <c r="O71" s="552"/>
     </row>
     <row r="72" spans="1:15" s="111" customFormat="1">
       <c r="A72" s="106">
@@ -11933,8 +11933,8 @@
       </c>
       <c r="L72" s="108"/>
       <c r="M72" s="110"/>
-      <c r="N72" s="544"/>
-      <c r="O72" s="545"/>
+      <c r="N72" s="551"/>
+      <c r="O72" s="552"/>
     </row>
     <row r="73" spans="1:15" s="111" customFormat="1">
       <c r="A73" s="106">
@@ -11955,8 +11955,8 @@
       </c>
       <c r="L73" s="108"/>
       <c r="M73" s="110"/>
-      <c r="N73" s="544"/>
-      <c r="O73" s="545"/>
+      <c r="N73" s="551"/>
+      <c r="O73" s="552"/>
     </row>
     <row r="74" spans="1:15" s="111" customFormat="1">
       <c r="A74" s="106">
@@ -11977,8 +11977,8 @@
       </c>
       <c r="L74" s="108"/>
       <c r="M74" s="110"/>
-      <c r="N74" s="544"/>
-      <c r="O74" s="545"/>
+      <c r="N74" s="551"/>
+      <c r="O74" s="552"/>
     </row>
     <row r="75" spans="1:15" s="115" customFormat="1">
       <c r="A75" s="106">
@@ -11999,8 +11999,8 @@
       </c>
       <c r="L75" s="108"/>
       <c r="M75" s="110"/>
-      <c r="N75" s="544"/>
-      <c r="O75" s="545"/>
+      <c r="N75" s="551"/>
+      <c r="O75" s="552"/>
     </row>
     <row r="76" spans="1:15" s="105" customFormat="1">
       <c r="A76" s="106">
@@ -12021,22 +12021,22 @@
       </c>
       <c r="L76" s="108"/>
       <c r="M76" s="110"/>
-      <c r="N76" s="544"/>
-      <c r="O76" s="545"/>
+      <c r="N76" s="551"/>
+      <c r="O76" s="552"/>
     </row>
     <row r="77" spans="1:15" s="111" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A77" s="546" t="s">
+      <c r="A77" s="553" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="547"/>
-      <c r="C77" s="547"/>
-      <c r="D77" s="547"/>
-      <c r="E77" s="547"/>
-      <c r="F77" s="547"/>
-      <c r="G77" s="547"/>
-      <c r="H77" s="547"/>
-      <c r="I77" s="547"/>
-      <c r="J77" s="548"/>
+      <c r="B77" s="554"/>
+      <c r="C77" s="554"/>
+      <c r="D77" s="554"/>
+      <c r="E77" s="554"/>
+      <c r="F77" s="554"/>
+      <c r="G77" s="554"/>
+      <c r="H77" s="554"/>
+      <c r="I77" s="554"/>
+      <c r="J77" s="555"/>
       <c r="K77" s="112">
         <f>SUM(K67:K76)</f>
         <v>0</v>
@@ -12090,8 +12090,8 @@
       </c>
       <c r="L79" s="108"/>
       <c r="M79" s="110"/>
-      <c r="N79" s="544"/>
-      <c r="O79" s="545"/>
+      <c r="N79" s="551"/>
+      <c r="O79" s="552"/>
     </row>
     <row r="80" spans="1:15" s="111" customFormat="1">
       <c r="A80" s="106">
@@ -12112,8 +12112,8 @@
       </c>
       <c r="L80" s="108"/>
       <c r="M80" s="110"/>
-      <c r="N80" s="544"/>
-      <c r="O80" s="545"/>
+      <c r="N80" s="551"/>
+      <c r="O80" s="552"/>
     </row>
     <row r="81" spans="1:15" s="111" customFormat="1">
       <c r="A81" s="106">
@@ -12134,8 +12134,8 @@
       </c>
       <c r="L81" s="108"/>
       <c r="M81" s="110"/>
-      <c r="N81" s="544"/>
-      <c r="O81" s="545"/>
+      <c r="N81" s="551"/>
+      <c r="O81" s="552"/>
     </row>
     <row r="82" spans="1:15" s="115" customFormat="1">
       <c r="A82" s="106">
@@ -12156,8 +12156,8 @@
       </c>
       <c r="L82" s="108"/>
       <c r="M82" s="110"/>
-      <c r="N82" s="544"/>
-      <c r="O82" s="545"/>
+      <c r="N82" s="551"/>
+      <c r="O82" s="552"/>
     </row>
     <row r="83" spans="1:15" s="105" customFormat="1">
       <c r="A83" s="106">
@@ -12178,8 +12178,8 @@
       </c>
       <c r="L83" s="108"/>
       <c r="M83" s="110"/>
-      <c r="N83" s="544"/>
-      <c r="O83" s="545"/>
+      <c r="N83" s="551"/>
+      <c r="O83" s="552"/>
     </row>
     <row r="84" spans="1:15" s="111" customFormat="1">
       <c r="A84" s="106">
@@ -12200,8 +12200,8 @@
       </c>
       <c r="L84" s="108"/>
       <c r="M84" s="110"/>
-      <c r="N84" s="544"/>
-      <c r="O84" s="545"/>
+      <c r="N84" s="551"/>
+      <c r="O84" s="552"/>
     </row>
     <row r="85" spans="1:15" s="111" customFormat="1">
       <c r="A85" s="106">
@@ -12222,8 +12222,8 @@
       </c>
       <c r="L85" s="108"/>
       <c r="M85" s="110"/>
-      <c r="N85" s="544"/>
-      <c r="O85" s="545"/>
+      <c r="N85" s="551"/>
+      <c r="O85" s="552"/>
     </row>
     <row r="86" spans="1:15" s="111" customFormat="1">
       <c r="A86" s="106">
@@ -12244,8 +12244,8 @@
       </c>
       <c r="L86" s="108"/>
       <c r="M86" s="110"/>
-      <c r="N86" s="544"/>
-      <c r="O86" s="545"/>
+      <c r="N86" s="551"/>
+      <c r="O86" s="552"/>
     </row>
     <row r="87" spans="1:15" s="111" customFormat="1">
       <c r="A87" s="106">
@@ -12266,8 +12266,8 @@
       </c>
       <c r="L87" s="108"/>
       <c r="M87" s="110"/>
-      <c r="N87" s="544"/>
-      <c r="O87" s="545"/>
+      <c r="N87" s="551"/>
+      <c r="O87" s="552"/>
     </row>
     <row r="88" spans="1:15" s="111" customFormat="1">
       <c r="A88" s="106">
@@ -12288,22 +12288,22 @@
       </c>
       <c r="L88" s="108"/>
       <c r="M88" s="110"/>
-      <c r="N88" s="544"/>
-      <c r="O88" s="545"/>
+      <c r="N88" s="551"/>
+      <c r="O88" s="552"/>
     </row>
     <row r="89" spans="1:15" s="115" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A89" s="546" t="s">
+      <c r="A89" s="553" t="s">
         <v>60</v>
       </c>
-      <c r="B89" s="547"/>
-      <c r="C89" s="547"/>
-      <c r="D89" s="547"/>
-      <c r="E89" s="547"/>
-      <c r="F89" s="547"/>
-      <c r="G89" s="547"/>
-      <c r="H89" s="547"/>
-      <c r="I89" s="547"/>
-      <c r="J89" s="548"/>
+      <c r="B89" s="554"/>
+      <c r="C89" s="554"/>
+      <c r="D89" s="554"/>
+      <c r="E89" s="554"/>
+      <c r="F89" s="554"/>
+      <c r="G89" s="554"/>
+      <c r="H89" s="554"/>
+      <c r="I89" s="554"/>
+      <c r="J89" s="555"/>
       <c r="K89" s="112">
         <f>SUM(K79:K88)</f>
         <v>0</v>
@@ -12357,8 +12357,8 @@
       </c>
       <c r="L91" s="108"/>
       <c r="M91" s="110"/>
-      <c r="N91" s="544"/>
-      <c r="O91" s="545"/>
+      <c r="N91" s="551"/>
+      <c r="O91" s="552"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="106">
@@ -12379,8 +12379,8 @@
       </c>
       <c r="L92" s="108"/>
       <c r="M92" s="110"/>
-      <c r="N92" s="544"/>
-      <c r="O92" s="545"/>
+      <c r="N92" s="551"/>
+      <c r="O92" s="552"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="106">
@@ -12401,8 +12401,8 @@
       </c>
       <c r="L93" s="108"/>
       <c r="M93" s="110"/>
-      <c r="N93" s="544"/>
-      <c r="O93" s="545"/>
+      <c r="N93" s="551"/>
+      <c r="O93" s="552"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="106">
@@ -12423,8 +12423,8 @@
       </c>
       <c r="L94" s="108"/>
       <c r="M94" s="110"/>
-      <c r="N94" s="544"/>
-      <c r="O94" s="545"/>
+      <c r="N94" s="551"/>
+      <c r="O94" s="552"/>
     </row>
     <row r="95" spans="1:15" s="20" customFormat="1">
       <c r="A95" s="106">
@@ -12445,8 +12445,8 @@
       </c>
       <c r="L95" s="108"/>
       <c r="M95" s="110"/>
-      <c r="N95" s="544"/>
-      <c r="O95" s="545"/>
+      <c r="N95" s="551"/>
+      <c r="O95" s="552"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="106">
@@ -12467,8 +12467,8 @@
       </c>
       <c r="L96" s="108"/>
       <c r="M96" s="110"/>
-      <c r="N96" s="544"/>
-      <c r="O96" s="545"/>
+      <c r="N96" s="551"/>
+      <c r="O96" s="552"/>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="106">
@@ -12489,8 +12489,8 @@
       </c>
       <c r="L97" s="108"/>
       <c r="M97" s="110"/>
-      <c r="N97" s="544"/>
-      <c r="O97" s="545"/>
+      <c r="N97" s="551"/>
+      <c r="O97" s="552"/>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="106">
@@ -12511,8 +12511,8 @@
       </c>
       <c r="L98" s="108"/>
       <c r="M98" s="110"/>
-      <c r="N98" s="544"/>
-      <c r="O98" s="545"/>
+      <c r="N98" s="551"/>
+      <c r="O98" s="552"/>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="106">
@@ -12533,8 +12533,8 @@
       </c>
       <c r="L99" s="108"/>
       <c r="M99" s="110"/>
-      <c r="N99" s="544"/>
-      <c r="O99" s="545"/>
+      <c r="N99" s="551"/>
+      <c r="O99" s="552"/>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="106">
@@ -12555,22 +12555,22 @@
       </c>
       <c r="L100" s="108"/>
       <c r="M100" s="110"/>
-      <c r="N100" s="544"/>
-      <c r="O100" s="545"/>
+      <c r="N100" s="551"/>
+      <c r="O100" s="552"/>
     </row>
     <row r="101" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A101" s="546" t="s">
+      <c r="A101" s="553" t="s">
         <v>60</v>
       </c>
-      <c r="B101" s="547"/>
-      <c r="C101" s="547"/>
-      <c r="D101" s="547"/>
-      <c r="E101" s="547"/>
-      <c r="F101" s="547"/>
-      <c r="G101" s="547"/>
-      <c r="H101" s="547"/>
-      <c r="I101" s="547"/>
-      <c r="J101" s="548"/>
+      <c r="B101" s="554"/>
+      <c r="C101" s="554"/>
+      <c r="D101" s="554"/>
+      <c r="E101" s="554"/>
+      <c r="F101" s="554"/>
+      <c r="G101" s="554"/>
+      <c r="H101" s="554"/>
+      <c r="I101" s="554"/>
+      <c r="J101" s="555"/>
       <c r="K101" s="112">
         <f>SUM(K91:K100)</f>
         <v>0</v>
@@ -12624,8 +12624,8 @@
       </c>
       <c r="L103" s="108"/>
       <c r="M103" s="110"/>
-      <c r="N103" s="544"/>
-      <c r="O103" s="545"/>
+      <c r="N103" s="551"/>
+      <c r="O103" s="552"/>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="106">
@@ -12646,8 +12646,8 @@
       </c>
       <c r="L104" s="108"/>
       <c r="M104" s="110"/>
-      <c r="N104" s="544"/>
-      <c r="O104" s="545"/>
+      <c r="N104" s="551"/>
+      <c r="O104" s="552"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="106">
@@ -12668,8 +12668,8 @@
       </c>
       <c r="L105" s="108"/>
       <c r="M105" s="110"/>
-      <c r="N105" s="544"/>
-      <c r="O105" s="545"/>
+      <c r="N105" s="551"/>
+      <c r="O105" s="552"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="106">
@@ -12690,8 +12690,8 @@
       </c>
       <c r="L106" s="108"/>
       <c r="M106" s="110"/>
-      <c r="N106" s="544"/>
-      <c r="O106" s="545"/>
+      <c r="N106" s="551"/>
+      <c r="O106" s="552"/>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="106">
@@ -12712,8 +12712,8 @@
       </c>
       <c r="L107" s="108"/>
       <c r="M107" s="110"/>
-      <c r="N107" s="544"/>
-      <c r="O107" s="545"/>
+      <c r="N107" s="551"/>
+      <c r="O107" s="552"/>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="106">
@@ -12734,8 +12734,8 @@
       </c>
       <c r="L108" s="108"/>
       <c r="M108" s="110"/>
-      <c r="N108" s="544"/>
-      <c r="O108" s="545"/>
+      <c r="N108" s="551"/>
+      <c r="O108" s="552"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="106">
@@ -12756,8 +12756,8 @@
       </c>
       <c r="L109" s="108"/>
       <c r="M109" s="110"/>
-      <c r="N109" s="544"/>
-      <c r="O109" s="545"/>
+      <c r="N109" s="551"/>
+      <c r="O109" s="552"/>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="106">
@@ -12778,8 +12778,8 @@
       </c>
       <c r="L110" s="108"/>
       <c r="M110" s="110"/>
-      <c r="N110" s="544"/>
-      <c r="O110" s="545"/>
+      <c r="N110" s="551"/>
+      <c r="O110" s="552"/>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="106">
@@ -12800,8 +12800,8 @@
       </c>
       <c r="L111" s="108"/>
       <c r="M111" s="110"/>
-      <c r="N111" s="544"/>
-      <c r="O111" s="545"/>
+      <c r="N111" s="551"/>
+      <c r="O111" s="552"/>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="106">
@@ -12822,22 +12822,22 @@
       </c>
       <c r="L112" s="108"/>
       <c r="M112" s="110"/>
-      <c r="N112" s="544"/>
-      <c r="O112" s="545"/>
+      <c r="N112" s="551"/>
+      <c r="O112" s="552"/>
     </row>
     <row r="113" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A113" s="546" t="s">
+      <c r="A113" s="553" t="s">
         <v>60</v>
       </c>
-      <c r="B113" s="547"/>
-      <c r="C113" s="547"/>
-      <c r="D113" s="547"/>
-      <c r="E113" s="547"/>
-      <c r="F113" s="547"/>
-      <c r="G113" s="547"/>
-      <c r="H113" s="547"/>
-      <c r="I113" s="547"/>
-      <c r="J113" s="548"/>
+      <c r="B113" s="554"/>
+      <c r="C113" s="554"/>
+      <c r="D113" s="554"/>
+      <c r="E113" s="554"/>
+      <c r="F113" s="554"/>
+      <c r="G113" s="554"/>
+      <c r="H113" s="554"/>
+      <c r="I113" s="554"/>
+      <c r="J113" s="555"/>
       <c r="K113" s="112">
         <f>SUM(K103:K112)</f>
         <v>0</v>
@@ -12891,8 +12891,8 @@
       </c>
       <c r="L115" s="122"/>
       <c r="M115" s="124"/>
-      <c r="N115" s="544"/>
-      <c r="O115" s="545"/>
+      <c r="N115" s="551"/>
+      <c r="O115" s="552"/>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="120">
@@ -12913,8 +12913,8 @@
       </c>
       <c r="L116" s="122"/>
       <c r="M116" s="124"/>
-      <c r="N116" s="544"/>
-      <c r="O116" s="545"/>
+      <c r="N116" s="551"/>
+      <c r="O116" s="552"/>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="120">
@@ -12935,8 +12935,8 @@
       </c>
       <c r="L117" s="122"/>
       <c r="M117" s="124"/>
-      <c r="N117" s="544"/>
-      <c r="O117" s="545"/>
+      <c r="N117" s="551"/>
+      <c r="O117" s="552"/>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="120">
@@ -12957,8 +12957,8 @@
       </c>
       <c r="L118" s="122"/>
       <c r="M118" s="124"/>
-      <c r="N118" s="544"/>
-      <c r="O118" s="545"/>
+      <c r="N118" s="551"/>
+      <c r="O118" s="552"/>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="120">
@@ -12979,8 +12979,8 @@
       </c>
       <c r="L119" s="122"/>
       <c r="M119" s="124"/>
-      <c r="N119" s="544"/>
-      <c r="O119" s="545"/>
+      <c r="N119" s="551"/>
+      <c r="O119" s="552"/>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="120">
@@ -13001,8 +13001,8 @@
       </c>
       <c r="L120" s="122"/>
       <c r="M120" s="124"/>
-      <c r="N120" s="544"/>
-      <c r="O120" s="545"/>
+      <c r="N120" s="551"/>
+      <c r="O120" s="552"/>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="120">
@@ -13023,8 +13023,8 @@
       </c>
       <c r="L121" s="108"/>
       <c r="M121" s="110"/>
-      <c r="N121" s="544"/>
-      <c r="O121" s="545"/>
+      <c r="N121" s="551"/>
+      <c r="O121" s="552"/>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="120">
@@ -13045,8 +13045,8 @@
       </c>
       <c r="L122" s="108"/>
       <c r="M122" s="110"/>
-      <c r="N122" s="544"/>
-      <c r="O122" s="545"/>
+      <c r="N122" s="551"/>
+      <c r="O122" s="552"/>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="120">
@@ -13067,8 +13067,8 @@
       </c>
       <c r="L123" s="108"/>
       <c r="M123" s="110"/>
-      <c r="N123" s="544"/>
-      <c r="O123" s="545"/>
+      <c r="N123" s="551"/>
+      <c r="O123" s="552"/>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="120">
@@ -13089,22 +13089,22 @@
       </c>
       <c r="L124" s="108"/>
       <c r="M124" s="110"/>
-      <c r="N124" s="544"/>
-      <c r="O124" s="545"/>
+      <c r="N124" s="551"/>
+      <c r="O124" s="552"/>
     </row>
     <row r="125" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A125" s="546" t="s">
+      <c r="A125" s="553" t="s">
         <v>60</v>
       </c>
-      <c r="B125" s="547"/>
-      <c r="C125" s="547"/>
-      <c r="D125" s="547"/>
-      <c r="E125" s="547"/>
-      <c r="F125" s="547"/>
-      <c r="G125" s="547"/>
-      <c r="H125" s="547"/>
-      <c r="I125" s="547"/>
-      <c r="J125" s="548"/>
+      <c r="B125" s="554"/>
+      <c r="C125" s="554"/>
+      <c r="D125" s="554"/>
+      <c r="E125" s="554"/>
+      <c r="F125" s="554"/>
+      <c r="G125" s="554"/>
+      <c r="H125" s="554"/>
+      <c r="I125" s="554"/>
+      <c r="J125" s="555"/>
       <c r="K125" s="112">
         <f>SUM(K115:K124)</f>
         <v>0</v>
@@ -13158,8 +13158,8 @@
       </c>
       <c r="L127" s="122"/>
       <c r="M127" s="124"/>
-      <c r="N127" s="544"/>
-      <c r="O127" s="545"/>
+      <c r="N127" s="551"/>
+      <c r="O127" s="552"/>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="120">
@@ -13180,8 +13180,8 @@
       </c>
       <c r="L128" s="122"/>
       <c r="M128" s="124"/>
-      <c r="N128" s="544"/>
-      <c r="O128" s="545"/>
+      <c r="N128" s="551"/>
+      <c r="O128" s="552"/>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="120">
@@ -13202,8 +13202,8 @@
       </c>
       <c r="L129" s="122"/>
       <c r="M129" s="124"/>
-      <c r="N129" s="544"/>
-      <c r="O129" s="545"/>
+      <c r="N129" s="551"/>
+      <c r="O129" s="552"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="120">
@@ -13224,8 +13224,8 @@
       </c>
       <c r="L130" s="122"/>
       <c r="M130" s="124"/>
-      <c r="N130" s="544"/>
-      <c r="O130" s="545"/>
+      <c r="N130" s="551"/>
+      <c r="O130" s="552"/>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="120">
@@ -13246,8 +13246,8 @@
       </c>
       <c r="L131" s="122"/>
       <c r="M131" s="124"/>
-      <c r="N131" s="544"/>
-      <c r="O131" s="545"/>
+      <c r="N131" s="551"/>
+      <c r="O131" s="552"/>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="120">
@@ -13268,8 +13268,8 @@
       </c>
       <c r="L132" s="122"/>
       <c r="M132" s="124"/>
-      <c r="N132" s="544"/>
-      <c r="O132" s="545"/>
+      <c r="N132" s="551"/>
+      <c r="O132" s="552"/>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="120">
@@ -13290,8 +13290,8 @@
       </c>
       <c r="L133" s="108"/>
       <c r="M133" s="110"/>
-      <c r="N133" s="544"/>
-      <c r="O133" s="545"/>
+      <c r="N133" s="551"/>
+      <c r="O133" s="552"/>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="120">
@@ -13312,8 +13312,8 @@
       </c>
       <c r="L134" s="108"/>
       <c r="M134" s="110"/>
-      <c r="N134" s="544"/>
-      <c r="O134" s="545"/>
+      <c r="N134" s="551"/>
+      <c r="O134" s="552"/>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="120">
@@ -13334,8 +13334,8 @@
       </c>
       <c r="L135" s="108"/>
       <c r="M135" s="110"/>
-      <c r="N135" s="544"/>
-      <c r="O135" s="545"/>
+      <c r="N135" s="551"/>
+      <c r="O135" s="552"/>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="120">
@@ -13356,22 +13356,22 @@
       </c>
       <c r="L136" s="108"/>
       <c r="M136" s="110"/>
-      <c r="N136" s="544"/>
-      <c r="O136" s="545"/>
+      <c r="N136" s="551"/>
+      <c r="O136" s="552"/>
     </row>
     <row r="137" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A137" s="546" t="s">
+      <c r="A137" s="553" t="s">
         <v>60</v>
       </c>
-      <c r="B137" s="547"/>
-      <c r="C137" s="547"/>
-      <c r="D137" s="547"/>
-      <c r="E137" s="547"/>
-      <c r="F137" s="547"/>
-      <c r="G137" s="547"/>
-      <c r="H137" s="547"/>
-      <c r="I137" s="547"/>
-      <c r="J137" s="548"/>
+      <c r="B137" s="554"/>
+      <c r="C137" s="554"/>
+      <c r="D137" s="554"/>
+      <c r="E137" s="554"/>
+      <c r="F137" s="554"/>
+      <c r="G137" s="554"/>
+      <c r="H137" s="554"/>
+      <c r="I137" s="554"/>
+      <c r="J137" s="555"/>
       <c r="K137" s="112">
         <f>SUM(K127:K136)</f>
         <v>0</v>
@@ -13425,8 +13425,8 @@
       </c>
       <c r="L139" s="108"/>
       <c r="M139" s="110"/>
-      <c r="N139" s="544"/>
-      <c r="O139" s="545"/>
+      <c r="N139" s="551"/>
+      <c r="O139" s="552"/>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="106">
@@ -13447,8 +13447,8 @@
       </c>
       <c r="L140" s="108"/>
       <c r="M140" s="110"/>
-      <c r="N140" s="544"/>
-      <c r="O140" s="545"/>
+      <c r="N140" s="551"/>
+      <c r="O140" s="552"/>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="106">
@@ -13469,8 +13469,8 @@
       </c>
       <c r="L141" s="108"/>
       <c r="M141" s="110"/>
-      <c r="N141" s="544"/>
-      <c r="O141" s="545"/>
+      <c r="N141" s="551"/>
+      <c r="O141" s="552"/>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="106">
@@ -13491,8 +13491,8 @@
       </c>
       <c r="L142" s="108"/>
       <c r="M142" s="110"/>
-      <c r="N142" s="544"/>
-      <c r="O142" s="545"/>
+      <c r="N142" s="551"/>
+      <c r="O142" s="552"/>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="106">
@@ -13513,8 +13513,8 @@
       </c>
       <c r="L143" s="108"/>
       <c r="M143" s="110"/>
-      <c r="N143" s="544"/>
-      <c r="O143" s="545"/>
+      <c r="N143" s="551"/>
+      <c r="O143" s="552"/>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="106">
@@ -13535,8 +13535,8 @@
       </c>
       <c r="L144" s="108"/>
       <c r="M144" s="110"/>
-      <c r="N144" s="544"/>
-      <c r="O144" s="545"/>
+      <c r="N144" s="551"/>
+      <c r="O144" s="552"/>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="106">
@@ -13557,8 +13557,8 @@
       </c>
       <c r="L145" s="108"/>
       <c r="M145" s="110"/>
-      <c r="N145" s="544"/>
-      <c r="O145" s="545"/>
+      <c r="N145" s="551"/>
+      <c r="O145" s="552"/>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="106">
@@ -13579,8 +13579,8 @@
       </c>
       <c r="L146" s="108"/>
       <c r="M146" s="110"/>
-      <c r="N146" s="544"/>
-      <c r="O146" s="545"/>
+      <c r="N146" s="551"/>
+      <c r="O146" s="552"/>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="106">
@@ -13601,8 +13601,8 @@
       </c>
       <c r="L147" s="108"/>
       <c r="M147" s="110"/>
-      <c r="N147" s="544"/>
-      <c r="O147" s="545"/>
+      <c r="N147" s="551"/>
+      <c r="O147" s="552"/>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="106">
@@ -13623,22 +13623,22 @@
       </c>
       <c r="L148" s="108"/>
       <c r="M148" s="110"/>
-      <c r="N148" s="544"/>
-      <c r="O148" s="545"/>
+      <c r="N148" s="551"/>
+      <c r="O148" s="552"/>
     </row>
     <row r="149" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A149" s="546" t="s">
+      <c r="A149" s="553" t="s">
         <v>60</v>
       </c>
-      <c r="B149" s="547"/>
-      <c r="C149" s="547"/>
-      <c r="D149" s="547"/>
-      <c r="E149" s="547"/>
-      <c r="F149" s="547"/>
-      <c r="G149" s="547"/>
-      <c r="H149" s="547"/>
-      <c r="I149" s="547"/>
-      <c r="J149" s="548"/>
+      <c r="B149" s="554"/>
+      <c r="C149" s="554"/>
+      <c r="D149" s="554"/>
+      <c r="E149" s="554"/>
+      <c r="F149" s="554"/>
+      <c r="G149" s="554"/>
+      <c r="H149" s="554"/>
+      <c r="I149" s="554"/>
+      <c r="J149" s="555"/>
       <c r="K149" s="112">
         <f>SUM(K139:K148)</f>
         <v>0</v>
@@ -13655,12 +13655,12 @@
       <c r="O149" s="114"/>
     </row>
     <row r="150" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A150" s="541" t="s">
+      <c r="A150" s="558" t="s">
         <v>72</v>
       </c>
-      <c r="B150" s="542"/>
-      <c r="C150" s="542"/>
-      <c r="D150" s="543"/>
+      <c r="B150" s="559"/>
+      <c r="C150" s="559"/>
+      <c r="D150" s="560"/>
       <c r="E150" s="125">
         <f t="shared" ref="E150:J150" si="12">SUM(E7:E149)</f>
         <v>0</v>
@@ -13961,65 +13961,57 @@
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:J137"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:J113"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A101:J101"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="N100:O100"/>
     <mergeCell ref="N91:O91"/>
     <mergeCell ref="N92:O92"/>
     <mergeCell ref="N93:O93"/>
@@ -14044,57 +14036,65 @@
     <mergeCell ref="N80:O80"/>
     <mergeCell ref="N81:O81"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="A101:J101"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="N104:O104"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="A113:J113"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="N124:O124"/>
-    <mergeCell ref="A125:J125"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="N119:O119"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="N134:O134"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="N136:O136"/>
-    <mergeCell ref="A137:J137"/>
-    <mergeCell ref="N139:O139"/>
-    <mergeCell ref="N129:O129"/>
-    <mergeCell ref="N130:O130"/>
-    <mergeCell ref="N131:O131"/>
-    <mergeCell ref="N132:O132"/>
-    <mergeCell ref="N133:O133"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="N145:O145"/>
-    <mergeCell ref="N146:O146"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="N140:O140"/>
-    <mergeCell ref="N141:O141"/>
-    <mergeCell ref="N142:O142"/>
-    <mergeCell ref="N143:O143"/>
-    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:J89"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -14110,7 +14110,7 @@
   </sheetPr>
   <dimension ref="A1:AR64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -14146,78 +14146,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="30">
-      <c r="A1" s="523" t="s">
+      <c r="A1" s="536" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="536"/>
+      <c r="C1" s="536"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
+      <c r="L1" s="536"/>
+      <c r="M1" s="536"/>
+      <c r="N1" s="536"/>
+      <c r="O1" s="536"/>
+      <c r="P1" s="536"/>
+      <c r="Q1" s="536"/>
+      <c r="R1" s="536"/>
+      <c r="S1" s="536"/>
+      <c r="T1" s="536"/>
+      <c r="U1" s="536"/>
+      <c r="V1" s="536"/>
+      <c r="W1" s="536"/>
+      <c r="X1" s="536"/>
+      <c r="Y1" s="536"/>
+      <c r="Z1" s="536"/>
+      <c r="AA1" s="536"/>
+      <c r="AB1" s="536"/>
+    </row>
+    <row r="2" spans="1:44" ht="21">
+      <c r="A2" s="556" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="523"/>
-      <c r="C1" s="523"/>
-      <c r="D1" s="523"/>
-      <c r="E1" s="523"/>
-      <c r="F1" s="523"/>
-      <c r="G1" s="523"/>
-      <c r="H1" s="523"/>
-      <c r="I1" s="523"/>
-      <c r="J1" s="523"/>
-      <c r="K1" s="523"/>
-      <c r="L1" s="523"/>
-      <c r="M1" s="523"/>
-      <c r="N1" s="523"/>
-      <c r="O1" s="523"/>
-      <c r="P1" s="523"/>
-      <c r="Q1" s="523"/>
-      <c r="R1" s="523"/>
-      <c r="S1" s="523"/>
-      <c r="T1" s="523"/>
-      <c r="U1" s="523"/>
-      <c r="V1" s="523"/>
-      <c r="W1" s="523"/>
-      <c r="X1" s="523"/>
-      <c r="Y1" s="523"/>
-      <c r="Z1" s="523"/>
-      <c r="AA1" s="523"/>
-      <c r="AB1" s="523"/>
-    </row>
-    <row r="2" spans="1:44" ht="21">
-      <c r="A2" s="549" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" s="549"/>
-      <c r="C2" s="549"/>
-      <c r="D2" s="549"/>
-      <c r="E2" s="549"/>
-      <c r="F2" s="549"/>
-      <c r="G2" s="549"/>
-      <c r="H2" s="549"/>
-      <c r="I2" s="549"/>
-      <c r="J2" s="549"/>
-      <c r="K2" s="549"/>
-      <c r="L2" s="549"/>
-      <c r="M2" s="549"/>
-      <c r="N2" s="549"/>
-      <c r="O2" s="549"/>
-      <c r="P2" s="549"/>
-      <c r="Q2" s="549"/>
-      <c r="R2" s="549"/>
-      <c r="S2" s="549"/>
-      <c r="T2" s="549"/>
-      <c r="U2" s="549"/>
-      <c r="V2" s="549"/>
-      <c r="W2" s="549"/>
-      <c r="X2" s="549"/>
-      <c r="Y2" s="549"/>
-      <c r="Z2" s="549"/>
-      <c r="AA2" s="549"/>
-      <c r="AB2" s="549"/>
+      <c r="B2" s="556"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="556"/>
+      <c r="E2" s="556"/>
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="556"/>
+      <c r="I2" s="556"/>
+      <c r="J2" s="556"/>
+      <c r="K2" s="556"/>
+      <c r="L2" s="556"/>
+      <c r="M2" s="556"/>
+      <c r="N2" s="556"/>
+      <c r="O2" s="556"/>
+      <c r="P2" s="556"/>
+      <c r="Q2" s="556"/>
+      <c r="R2" s="556"/>
+      <c r="S2" s="556"/>
+      <c r="T2" s="556"/>
+      <c r="U2" s="556"/>
+      <c r="V2" s="556"/>
+      <c r="W2" s="556"/>
+      <c r="X2" s="556"/>
+      <c r="Y2" s="556"/>
+      <c r="Z2" s="556"/>
+      <c r="AA2" s="556"/>
+      <c r="AB2" s="556"/>
     </row>
     <row r="4" spans="1:44" s="145" customFormat="1" ht="18" thickBot="1">
       <c r="A4" s="140" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="C4" s="91" t="s">
         <v>363</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>364</v>
       </c>
       <c r="D4" s="142"/>
       <c r="E4" s="142"/>
@@ -14228,7 +14228,7 @@
       <c r="J4" s="142"/>
       <c r="K4" s="142"/>
       <c r="L4" s="143" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M4" s="144"/>
       <c r="N4" s="141"/>
@@ -14241,7 +14241,7 @@
       <c r="X4" s="146"/>
       <c r="Y4" s="146"/>
       <c r="Z4" s="35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF4" s="147"/>
       <c r="AG4" s="148"/>
@@ -14267,15 +14267,15 @@
         <v>78</v>
       </c>
       <c r="G5" s="157" t="s">
+        <v>366</v>
+      </c>
+      <c r="H5" s="561" t="s">
         <v>367</v>
       </c>
-      <c r="H5" s="551" t="s">
+      <c r="I5" s="562"/>
+      <c r="J5" s="563"/>
+      <c r="K5" s="158" t="s">
         <v>368</v>
-      </c>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
-      <c r="K5" s="158" t="s">
-        <v>369</v>
       </c>
       <c r="L5" s="159"/>
       <c r="M5" s="160"/>
@@ -14289,15 +14289,15 @@
         <v>78</v>
       </c>
       <c r="U5" s="168" t="s">
+        <v>366</v>
+      </c>
+      <c r="V5" s="564" t="s">
         <v>367</v>
       </c>
-      <c r="V5" s="554" t="s">
+      <c r="W5" s="565"/>
+      <c r="X5" s="566"/>
+      <c r="Y5" s="169" t="s">
         <v>368</v>
-      </c>
-      <c r="W5" s="555"/>
-      <c r="X5" s="556"/>
-      <c r="Y5" s="169" t="s">
-        <v>369</v>
       </c>
       <c r="Z5" s="170"/>
       <c r="AA5" s="171"/>
@@ -14323,7 +14323,7 @@
         <v>84</v>
       </c>
       <c r="G6" s="179" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H6" s="180" t="s">
         <v>86</v>
@@ -14335,7 +14335,7 @@
         <v>88</v>
       </c>
       <c r="K6" s="183" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L6" s="184" t="s">
         <v>90</v>
@@ -14390,38 +14390,38 @@
       </c>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="557" t="s">
+      <c r="A7" s="567" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="558"/>
-      <c r="C7" s="558"/>
-      <c r="D7" s="558"/>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="558"/>
-      <c r="J7" s="558"/>
-      <c r="K7" s="558"/>
-      <c r="L7" s="558"/>
-      <c r="M7" s="558"/>
-      <c r="N7" s="558"/>
-      <c r="O7" s="559" t="s">
+      <c r="B7" s="568"/>
+      <c r="C7" s="568"/>
+      <c r="D7" s="568"/>
+      <c r="E7" s="568"/>
+      <c r="F7" s="568"/>
+      <c r="G7" s="568"/>
+      <c r="H7" s="568"/>
+      <c r="I7" s="568"/>
+      <c r="J7" s="568"/>
+      <c r="K7" s="568"/>
+      <c r="L7" s="568"/>
+      <c r="M7" s="568"/>
+      <c r="N7" s="568"/>
+      <c r="O7" s="569" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="560"/>
-      <c r="Q7" s="560"/>
-      <c r="R7" s="560"/>
-      <c r="S7" s="560"/>
-      <c r="T7" s="560"/>
-      <c r="U7" s="560"/>
-      <c r="V7" s="560"/>
-      <c r="W7" s="560"/>
-      <c r="X7" s="560"/>
-      <c r="Y7" s="560"/>
-      <c r="Z7" s="560"/>
-      <c r="AA7" s="560"/>
-      <c r="AB7" s="560"/>
+      <c r="P7" s="570"/>
+      <c r="Q7" s="570"/>
+      <c r="R7" s="570"/>
+      <c r="S7" s="570"/>
+      <c r="T7" s="570"/>
+      <c r="U7" s="570"/>
+      <c r="V7" s="570"/>
+      <c r="W7" s="570"/>
+      <c r="X7" s="570"/>
+      <c r="Y7" s="570"/>
+      <c r="Z7" s="570"/>
+      <c r="AA7" s="570"/>
+      <c r="AB7" s="570"/>
     </row>
     <row r="8" spans="1:44" s="214" customFormat="1">
       <c r="A8" s="201"/>
@@ -14431,9 +14431,9 @@
       <c r="E8" s="204"/>
       <c r="F8" s="205"/>
       <c r="G8" s="206"/>
-      <c r="H8" s="589"/>
-      <c r="I8" s="590"/>
-      <c r="J8" s="591"/>
+      <c r="H8" s="507"/>
+      <c r="I8" s="508"/>
+      <c r="J8" s="509"/>
       <c r="K8" s="207">
         <f t="shared" ref="K8:K57" si="0">IFERROR(ROUND(F8/G8/12,0),0)</f>
         <v>0</v>
@@ -14448,9 +14448,9 @@
       <c r="S8" s="204"/>
       <c r="T8" s="205"/>
       <c r="U8" s="206"/>
-      <c r="V8" s="589"/>
-      <c r="W8" s="590"/>
-      <c r="X8" s="591"/>
+      <c r="V8" s="507"/>
+      <c r="W8" s="508"/>
+      <c r="X8" s="509"/>
       <c r="Y8" s="212">
         <f t="shared" ref="Y8:Y57" si="1">IFERROR(ROUND(T8/U8/12,0),0)</f>
         <v>0</v>
@@ -14467,9 +14467,9 @@
       <c r="E9" s="218"/>
       <c r="F9" s="219"/>
       <c r="G9" s="220"/>
-      <c r="H9" s="592"/>
-      <c r="I9" s="593"/>
-      <c r="J9" s="594"/>
+      <c r="H9" s="510"/>
+      <c r="I9" s="511"/>
+      <c r="J9" s="512"/>
       <c r="K9" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14484,9 +14484,9 @@
       <c r="S9" s="218"/>
       <c r="T9" s="219"/>
       <c r="U9" s="220"/>
-      <c r="V9" s="592"/>
-      <c r="W9" s="593"/>
-      <c r="X9" s="594"/>
+      <c r="V9" s="510"/>
+      <c r="W9" s="511"/>
+      <c r="X9" s="512"/>
       <c r="Y9" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14503,9 +14503,9 @@
       <c r="E10" s="228"/>
       <c r="F10" s="229"/>
       <c r="G10" s="230"/>
-      <c r="H10" s="595"/>
-      <c r="I10" s="596"/>
-      <c r="J10" s="597"/>
+      <c r="H10" s="513"/>
+      <c r="I10" s="514"/>
+      <c r="J10" s="515"/>
       <c r="K10" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14520,9 +14520,9 @@
       <c r="S10" s="228"/>
       <c r="T10" s="229"/>
       <c r="U10" s="230"/>
-      <c r="V10" s="595"/>
-      <c r="W10" s="596"/>
-      <c r="X10" s="597"/>
+      <c r="V10" s="513"/>
+      <c r="W10" s="514"/>
+      <c r="X10" s="515"/>
       <c r="Y10" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14539,9 +14539,9 @@
       <c r="E11" s="228"/>
       <c r="F11" s="229"/>
       <c r="G11" s="230"/>
-      <c r="H11" s="595"/>
-      <c r="I11" s="596"/>
-      <c r="J11" s="597"/>
+      <c r="H11" s="513"/>
+      <c r="I11" s="514"/>
+      <c r="J11" s="515"/>
       <c r="K11" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14556,9 +14556,9 @@
       <c r="S11" s="228"/>
       <c r="T11" s="229"/>
       <c r="U11" s="230"/>
-      <c r="V11" s="595"/>
-      <c r="W11" s="596"/>
-      <c r="X11" s="597"/>
+      <c r="V11" s="513"/>
+      <c r="W11" s="514"/>
+      <c r="X11" s="515"/>
       <c r="Y11" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14575,9 +14575,9 @@
       <c r="E12" s="204"/>
       <c r="F12" s="205"/>
       <c r="G12" s="206"/>
-      <c r="H12" s="598"/>
-      <c r="I12" s="590"/>
-      <c r="J12" s="591"/>
+      <c r="H12" s="516"/>
+      <c r="I12" s="508"/>
+      <c r="J12" s="509"/>
       <c r="K12" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14592,9 +14592,9 @@
       <c r="S12" s="204"/>
       <c r="T12" s="205"/>
       <c r="U12" s="206"/>
-      <c r="V12" s="598"/>
-      <c r="W12" s="590"/>
-      <c r="X12" s="591"/>
+      <c r="V12" s="516"/>
+      <c r="W12" s="508"/>
+      <c r="X12" s="509"/>
       <c r="Y12" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14611,9 +14611,9 @@
       <c r="E13" s="204"/>
       <c r="F13" s="205"/>
       <c r="G13" s="206"/>
-      <c r="H13" s="598"/>
-      <c r="I13" s="590"/>
-      <c r="J13" s="591"/>
+      <c r="H13" s="516"/>
+      <c r="I13" s="508"/>
+      <c r="J13" s="509"/>
       <c r="K13" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14628,9 +14628,9 @@
       <c r="S13" s="204"/>
       <c r="T13" s="205"/>
       <c r="U13" s="206"/>
-      <c r="V13" s="598"/>
-      <c r="W13" s="590"/>
-      <c r="X13" s="591"/>
+      <c r="V13" s="516"/>
+      <c r="W13" s="508"/>
+      <c r="X13" s="509"/>
       <c r="Y13" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14647,9 +14647,9 @@
       <c r="E14" s="204"/>
       <c r="F14" s="205"/>
       <c r="G14" s="206"/>
-      <c r="H14" s="598"/>
-      <c r="I14" s="590"/>
-      <c r="J14" s="591"/>
+      <c r="H14" s="516"/>
+      <c r="I14" s="508"/>
+      <c r="J14" s="509"/>
       <c r="K14" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14664,9 +14664,9 @@
       <c r="S14" s="204"/>
       <c r="T14" s="205"/>
       <c r="U14" s="206"/>
-      <c r="V14" s="598"/>
-      <c r="W14" s="590"/>
-      <c r="X14" s="591"/>
+      <c r="V14" s="516"/>
+      <c r="W14" s="508"/>
+      <c r="X14" s="509"/>
       <c r="Y14" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14683,9 +14683,9 @@
       <c r="E15" s="204"/>
       <c r="F15" s="205"/>
       <c r="G15" s="206"/>
-      <c r="H15" s="598"/>
-      <c r="I15" s="590"/>
-      <c r="J15" s="591"/>
+      <c r="H15" s="516"/>
+      <c r="I15" s="508"/>
+      <c r="J15" s="509"/>
       <c r="K15" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14700,9 +14700,9 @@
       <c r="S15" s="204"/>
       <c r="T15" s="205"/>
       <c r="U15" s="206"/>
-      <c r="V15" s="598"/>
-      <c r="W15" s="590"/>
-      <c r="X15" s="591"/>
+      <c r="V15" s="516"/>
+      <c r="W15" s="508"/>
+      <c r="X15" s="509"/>
       <c r="Y15" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14719,9 +14719,9 @@
       <c r="E16" s="204"/>
       <c r="F16" s="205"/>
       <c r="G16" s="206"/>
-      <c r="H16" s="598"/>
-      <c r="I16" s="590"/>
-      <c r="J16" s="591"/>
+      <c r="H16" s="516"/>
+      <c r="I16" s="508"/>
+      <c r="J16" s="509"/>
       <c r="K16" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14736,9 +14736,9 @@
       <c r="S16" s="204"/>
       <c r="T16" s="205"/>
       <c r="U16" s="206"/>
-      <c r="V16" s="598"/>
-      <c r="W16" s="590"/>
-      <c r="X16" s="591"/>
+      <c r="V16" s="516"/>
+      <c r="W16" s="508"/>
+      <c r="X16" s="509"/>
       <c r="Y16" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14755,9 +14755,9 @@
       <c r="E17" s="204"/>
       <c r="F17" s="205"/>
       <c r="G17" s="206"/>
-      <c r="H17" s="598"/>
-      <c r="I17" s="590"/>
-      <c r="J17" s="591"/>
+      <c r="H17" s="516"/>
+      <c r="I17" s="508"/>
+      <c r="J17" s="509"/>
       <c r="K17" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14772,9 +14772,9 @@
       <c r="S17" s="204"/>
       <c r="T17" s="205"/>
       <c r="U17" s="206"/>
-      <c r="V17" s="598"/>
-      <c r="W17" s="590"/>
-      <c r="X17" s="591"/>
+      <c r="V17" s="516"/>
+      <c r="W17" s="508"/>
+      <c r="X17" s="509"/>
       <c r="Y17" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14791,9 +14791,9 @@
       <c r="E18" s="204"/>
       <c r="F18" s="205"/>
       <c r="G18" s="206"/>
-      <c r="H18" s="598"/>
-      <c r="I18" s="590"/>
-      <c r="J18" s="591"/>
+      <c r="H18" s="516"/>
+      <c r="I18" s="508"/>
+      <c r="J18" s="509"/>
       <c r="K18" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14808,9 +14808,9 @@
       <c r="S18" s="204"/>
       <c r="T18" s="205"/>
       <c r="U18" s="206"/>
-      <c r="V18" s="598"/>
-      <c r="W18" s="590"/>
-      <c r="X18" s="591"/>
+      <c r="V18" s="516"/>
+      <c r="W18" s="508"/>
+      <c r="X18" s="509"/>
       <c r="Y18" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14827,9 +14827,9 @@
       <c r="E19" s="204"/>
       <c r="F19" s="205"/>
       <c r="G19" s="206"/>
-      <c r="H19" s="598"/>
-      <c r="I19" s="590"/>
-      <c r="J19" s="591"/>
+      <c r="H19" s="516"/>
+      <c r="I19" s="508"/>
+      <c r="J19" s="509"/>
       <c r="K19" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14844,9 +14844,9 @@
       <c r="S19" s="204"/>
       <c r="T19" s="205"/>
       <c r="U19" s="206"/>
-      <c r="V19" s="598"/>
-      <c r="W19" s="590"/>
-      <c r="X19" s="591"/>
+      <c r="V19" s="516"/>
+      <c r="W19" s="508"/>
+      <c r="X19" s="509"/>
       <c r="Y19" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14863,9 +14863,9 @@
       <c r="E20" s="204"/>
       <c r="F20" s="205"/>
       <c r="G20" s="206"/>
-      <c r="H20" s="598"/>
-      <c r="I20" s="590"/>
-      <c r="J20" s="591"/>
+      <c r="H20" s="516"/>
+      <c r="I20" s="508"/>
+      <c r="J20" s="509"/>
       <c r="K20" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14880,9 +14880,9 @@
       <c r="S20" s="204"/>
       <c r="T20" s="205"/>
       <c r="U20" s="206"/>
-      <c r="V20" s="598"/>
-      <c r="W20" s="590"/>
-      <c r="X20" s="591"/>
+      <c r="V20" s="516"/>
+      <c r="W20" s="508"/>
+      <c r="X20" s="509"/>
       <c r="Y20" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14899,9 +14899,9 @@
       <c r="E21" s="204"/>
       <c r="F21" s="205"/>
       <c r="G21" s="206"/>
-      <c r="H21" s="598"/>
-      <c r="I21" s="590"/>
-      <c r="J21" s="591"/>
+      <c r="H21" s="516"/>
+      <c r="I21" s="508"/>
+      <c r="J21" s="509"/>
       <c r="K21" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14916,9 +14916,9 @@
       <c r="S21" s="204"/>
       <c r="T21" s="205"/>
       <c r="U21" s="206"/>
-      <c r="V21" s="598"/>
-      <c r="W21" s="590"/>
-      <c r="X21" s="591"/>
+      <c r="V21" s="516"/>
+      <c r="W21" s="508"/>
+      <c r="X21" s="509"/>
       <c r="Y21" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14935,9 +14935,9 @@
       <c r="E22" s="204"/>
       <c r="F22" s="205"/>
       <c r="G22" s="206"/>
-      <c r="H22" s="598"/>
-      <c r="I22" s="590"/>
-      <c r="J22" s="591"/>
+      <c r="H22" s="516"/>
+      <c r="I22" s="508"/>
+      <c r="J22" s="509"/>
       <c r="K22" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14952,9 +14952,9 @@
       <c r="S22" s="204"/>
       <c r="T22" s="205"/>
       <c r="U22" s="206"/>
-      <c r="V22" s="598"/>
-      <c r="W22" s="590"/>
-      <c r="X22" s="591"/>
+      <c r="V22" s="516"/>
+      <c r="W22" s="508"/>
+      <c r="X22" s="509"/>
       <c r="Y22" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14971,9 +14971,9 @@
       <c r="E23" s="204"/>
       <c r="F23" s="205"/>
       <c r="G23" s="206"/>
-      <c r="H23" s="598"/>
-      <c r="I23" s="590"/>
-      <c r="J23" s="591"/>
+      <c r="H23" s="516"/>
+      <c r="I23" s="508"/>
+      <c r="J23" s="509"/>
       <c r="K23" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14988,9 +14988,9 @@
       <c r="S23" s="204"/>
       <c r="T23" s="205"/>
       <c r="U23" s="206"/>
-      <c r="V23" s="598"/>
-      <c r="W23" s="590"/>
-      <c r="X23" s="591"/>
+      <c r="V23" s="516"/>
+      <c r="W23" s="508"/>
+      <c r="X23" s="509"/>
       <c r="Y23" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15007,9 +15007,9 @@
       <c r="E24" s="204"/>
       <c r="F24" s="205"/>
       <c r="G24" s="206"/>
-      <c r="H24" s="598"/>
-      <c r="I24" s="590"/>
-      <c r="J24" s="591"/>
+      <c r="H24" s="516"/>
+      <c r="I24" s="508"/>
+      <c r="J24" s="509"/>
       <c r="K24" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15024,9 +15024,9 @@
       <c r="S24" s="204"/>
       <c r="T24" s="205"/>
       <c r="U24" s="206"/>
-      <c r="V24" s="598"/>
-      <c r="W24" s="590"/>
-      <c r="X24" s="591"/>
+      <c r="V24" s="516"/>
+      <c r="W24" s="508"/>
+      <c r="X24" s="509"/>
       <c r="Y24" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15043,9 +15043,9 @@
       <c r="E25" s="204"/>
       <c r="F25" s="205"/>
       <c r="G25" s="206"/>
-      <c r="H25" s="598"/>
-      <c r="I25" s="590"/>
-      <c r="J25" s="591"/>
+      <c r="H25" s="516"/>
+      <c r="I25" s="508"/>
+      <c r="J25" s="509"/>
       <c r="K25" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15060,9 +15060,9 @@
       <c r="S25" s="204"/>
       <c r="T25" s="205"/>
       <c r="U25" s="206"/>
-      <c r="V25" s="598"/>
-      <c r="W25" s="590"/>
-      <c r="X25" s="591"/>
+      <c r="V25" s="516"/>
+      <c r="W25" s="508"/>
+      <c r="X25" s="509"/>
       <c r="Y25" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15079,9 +15079,9 @@
       <c r="E26" s="204"/>
       <c r="F26" s="205"/>
       <c r="G26" s="206"/>
-      <c r="H26" s="598"/>
-      <c r="I26" s="590"/>
-      <c r="J26" s="591"/>
+      <c r="H26" s="516"/>
+      <c r="I26" s="508"/>
+      <c r="J26" s="509"/>
       <c r="K26" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15096,9 +15096,9 @@
       <c r="S26" s="204"/>
       <c r="T26" s="205"/>
       <c r="U26" s="206"/>
-      <c r="V26" s="598"/>
-      <c r="W26" s="590"/>
-      <c r="X26" s="591"/>
+      <c r="V26" s="516"/>
+      <c r="W26" s="508"/>
+      <c r="X26" s="509"/>
       <c r="Y26" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15115,9 +15115,9 @@
       <c r="E27" s="204"/>
       <c r="F27" s="205"/>
       <c r="G27" s="206"/>
-      <c r="H27" s="598"/>
-      <c r="I27" s="590"/>
-      <c r="J27" s="591"/>
+      <c r="H27" s="516"/>
+      <c r="I27" s="508"/>
+      <c r="J27" s="509"/>
       <c r="K27" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15132,9 +15132,9 @@
       <c r="S27" s="204"/>
       <c r="T27" s="205"/>
       <c r="U27" s="206"/>
-      <c r="V27" s="598"/>
-      <c r="W27" s="590"/>
-      <c r="X27" s="591"/>
+      <c r="V27" s="516"/>
+      <c r="W27" s="508"/>
+      <c r="X27" s="509"/>
       <c r="Y27" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15151,9 +15151,9 @@
       <c r="E28" s="204"/>
       <c r="F28" s="205"/>
       <c r="G28" s="206"/>
-      <c r="H28" s="598"/>
-      <c r="I28" s="590"/>
-      <c r="J28" s="591"/>
+      <c r="H28" s="516"/>
+      <c r="I28" s="508"/>
+      <c r="J28" s="509"/>
       <c r="K28" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15168,9 +15168,9 @@
       <c r="S28" s="204"/>
       <c r="T28" s="205"/>
       <c r="U28" s="206"/>
-      <c r="V28" s="598"/>
-      <c r="W28" s="590"/>
-      <c r="X28" s="591"/>
+      <c r="V28" s="516"/>
+      <c r="W28" s="508"/>
+      <c r="X28" s="509"/>
       <c r="Y28" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15187,9 +15187,9 @@
       <c r="E29" s="204"/>
       <c r="F29" s="205"/>
       <c r="G29" s="206"/>
-      <c r="H29" s="598"/>
-      <c r="I29" s="590"/>
-      <c r="J29" s="591"/>
+      <c r="H29" s="516"/>
+      <c r="I29" s="508"/>
+      <c r="J29" s="509"/>
       <c r="K29" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15204,9 +15204,9 @@
       <c r="S29" s="204"/>
       <c r="T29" s="205"/>
       <c r="U29" s="206"/>
-      <c r="V29" s="598"/>
-      <c r="W29" s="590"/>
-      <c r="X29" s="591"/>
+      <c r="V29" s="516"/>
+      <c r="W29" s="508"/>
+      <c r="X29" s="509"/>
       <c r="Y29" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15223,9 +15223,9 @@
       <c r="E30" s="204"/>
       <c r="F30" s="205"/>
       <c r="G30" s="206"/>
-      <c r="H30" s="598"/>
-      <c r="I30" s="590"/>
-      <c r="J30" s="591"/>
+      <c r="H30" s="516"/>
+      <c r="I30" s="508"/>
+      <c r="J30" s="509"/>
       <c r="K30" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15240,9 +15240,9 @@
       <c r="S30" s="204"/>
       <c r="T30" s="205"/>
       <c r="U30" s="206"/>
-      <c r="V30" s="598"/>
-      <c r="W30" s="590"/>
-      <c r="X30" s="591"/>
+      <c r="V30" s="516"/>
+      <c r="W30" s="508"/>
+      <c r="X30" s="509"/>
       <c r="Y30" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15259,9 +15259,9 @@
       <c r="E31" s="204"/>
       <c r="F31" s="205"/>
       <c r="G31" s="206"/>
-      <c r="H31" s="598"/>
-      <c r="I31" s="590"/>
-      <c r="J31" s="591"/>
+      <c r="H31" s="516"/>
+      <c r="I31" s="508"/>
+      <c r="J31" s="509"/>
       <c r="K31" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15276,9 +15276,9 @@
       <c r="S31" s="204"/>
       <c r="T31" s="205"/>
       <c r="U31" s="206"/>
-      <c r="V31" s="598"/>
-      <c r="W31" s="590"/>
-      <c r="X31" s="591"/>
+      <c r="V31" s="516"/>
+      <c r="W31" s="508"/>
+      <c r="X31" s="509"/>
       <c r="Y31" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15295,9 +15295,9 @@
       <c r="E32" s="204"/>
       <c r="F32" s="205"/>
       <c r="G32" s="206"/>
-      <c r="H32" s="598"/>
-      <c r="I32" s="590"/>
-      <c r="J32" s="591"/>
+      <c r="H32" s="516"/>
+      <c r="I32" s="508"/>
+      <c r="J32" s="509"/>
       <c r="K32" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15312,9 +15312,9 @@
       <c r="S32" s="204"/>
       <c r="T32" s="205"/>
       <c r="U32" s="206"/>
-      <c r="V32" s="598"/>
-      <c r="W32" s="590"/>
-      <c r="X32" s="591"/>
+      <c r="V32" s="516"/>
+      <c r="W32" s="508"/>
+      <c r="X32" s="509"/>
       <c r="Y32" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15331,9 +15331,9 @@
       <c r="E33" s="204"/>
       <c r="F33" s="205"/>
       <c r="G33" s="206"/>
-      <c r="H33" s="598"/>
-      <c r="I33" s="590"/>
-      <c r="J33" s="591"/>
+      <c r="H33" s="516"/>
+      <c r="I33" s="508"/>
+      <c r="J33" s="509"/>
       <c r="K33" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15348,9 +15348,9 @@
       <c r="S33" s="204"/>
       <c r="T33" s="205"/>
       <c r="U33" s="206"/>
-      <c r="V33" s="598"/>
-      <c r="W33" s="590"/>
-      <c r="X33" s="591"/>
+      <c r="V33" s="516"/>
+      <c r="W33" s="508"/>
+      <c r="X33" s="509"/>
       <c r="Y33" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15367,9 +15367,9 @@
       <c r="E34" s="204"/>
       <c r="F34" s="205"/>
       <c r="G34" s="206"/>
-      <c r="H34" s="598"/>
-      <c r="I34" s="590"/>
-      <c r="J34" s="591"/>
+      <c r="H34" s="516"/>
+      <c r="I34" s="508"/>
+      <c r="J34" s="509"/>
       <c r="K34" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15384,9 +15384,9 @@
       <c r="S34" s="204"/>
       <c r="T34" s="205"/>
       <c r="U34" s="206"/>
-      <c r="V34" s="598"/>
-      <c r="W34" s="590"/>
-      <c r="X34" s="591"/>
+      <c r="V34" s="516"/>
+      <c r="W34" s="508"/>
+      <c r="X34" s="509"/>
       <c r="Y34" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15403,9 +15403,9 @@
       <c r="E35" s="204"/>
       <c r="F35" s="205"/>
       <c r="G35" s="206"/>
-      <c r="H35" s="598"/>
-      <c r="I35" s="590"/>
-      <c r="J35" s="591"/>
+      <c r="H35" s="516"/>
+      <c r="I35" s="508"/>
+      <c r="J35" s="509"/>
       <c r="K35" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15420,9 +15420,9 @@
       <c r="S35" s="204"/>
       <c r="T35" s="205"/>
       <c r="U35" s="206"/>
-      <c r="V35" s="598"/>
-      <c r="W35" s="590"/>
-      <c r="X35" s="591"/>
+      <c r="V35" s="516"/>
+      <c r="W35" s="508"/>
+      <c r="X35" s="509"/>
       <c r="Y35" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15439,9 +15439,9 @@
       <c r="E36" s="204"/>
       <c r="F36" s="205"/>
       <c r="G36" s="206"/>
-      <c r="H36" s="598"/>
-      <c r="I36" s="590"/>
-      <c r="J36" s="591"/>
+      <c r="H36" s="516"/>
+      <c r="I36" s="508"/>
+      <c r="J36" s="509"/>
       <c r="K36" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15456,9 +15456,9 @@
       <c r="S36" s="204"/>
       <c r="T36" s="205"/>
       <c r="U36" s="206"/>
-      <c r="V36" s="598"/>
-      <c r="W36" s="590"/>
-      <c r="X36" s="591"/>
+      <c r="V36" s="516"/>
+      <c r="W36" s="508"/>
+      <c r="X36" s="509"/>
       <c r="Y36" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15475,9 +15475,9 @@
       <c r="E37" s="204"/>
       <c r="F37" s="205"/>
       <c r="G37" s="206"/>
-      <c r="H37" s="598"/>
-      <c r="I37" s="590"/>
-      <c r="J37" s="591"/>
+      <c r="H37" s="516"/>
+      <c r="I37" s="508"/>
+      <c r="J37" s="509"/>
       <c r="K37" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15492,9 +15492,9 @@
       <c r="S37" s="204"/>
       <c r="T37" s="205"/>
       <c r="U37" s="206"/>
-      <c r="V37" s="598"/>
-      <c r="W37" s="590"/>
-      <c r="X37" s="591"/>
+      <c r="V37" s="516"/>
+      <c r="W37" s="508"/>
+      <c r="X37" s="509"/>
       <c r="Y37" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15511,9 +15511,9 @@
       <c r="E38" s="204"/>
       <c r="F38" s="205"/>
       <c r="G38" s="206"/>
-      <c r="H38" s="598"/>
-      <c r="I38" s="590"/>
-      <c r="J38" s="591"/>
+      <c r="H38" s="516"/>
+      <c r="I38" s="508"/>
+      <c r="J38" s="509"/>
       <c r="K38" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15528,9 +15528,9 @@
       <c r="S38" s="204"/>
       <c r="T38" s="205"/>
       <c r="U38" s="206"/>
-      <c r="V38" s="598"/>
-      <c r="W38" s="590"/>
-      <c r="X38" s="591"/>
+      <c r="V38" s="516"/>
+      <c r="W38" s="508"/>
+      <c r="X38" s="509"/>
       <c r="Y38" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15547,9 +15547,9 @@
       <c r="E39" s="204"/>
       <c r="F39" s="205"/>
       <c r="G39" s="206"/>
-      <c r="H39" s="598"/>
-      <c r="I39" s="590"/>
-      <c r="J39" s="591"/>
+      <c r="H39" s="516"/>
+      <c r="I39" s="508"/>
+      <c r="J39" s="509"/>
       <c r="K39" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15564,9 +15564,9 @@
       <c r="S39" s="204"/>
       <c r="T39" s="205"/>
       <c r="U39" s="206"/>
-      <c r="V39" s="598"/>
-      <c r="W39" s="590"/>
-      <c r="X39" s="591"/>
+      <c r="V39" s="516"/>
+      <c r="W39" s="508"/>
+      <c r="X39" s="509"/>
       <c r="Y39" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15583,9 +15583,9 @@
       <c r="E40" s="204"/>
       <c r="F40" s="205"/>
       <c r="G40" s="206"/>
-      <c r="H40" s="598"/>
-      <c r="I40" s="590"/>
-      <c r="J40" s="591"/>
+      <c r="H40" s="516"/>
+      <c r="I40" s="508"/>
+      <c r="J40" s="509"/>
       <c r="K40" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15600,9 +15600,9 @@
       <c r="S40" s="204"/>
       <c r="T40" s="205"/>
       <c r="U40" s="206"/>
-      <c r="V40" s="598"/>
-      <c r="W40" s="590"/>
-      <c r="X40" s="591"/>
+      <c r="V40" s="516"/>
+      <c r="W40" s="508"/>
+      <c r="X40" s="509"/>
       <c r="Y40" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15619,9 +15619,9 @@
       <c r="E41" s="204"/>
       <c r="F41" s="205"/>
       <c r="G41" s="206"/>
-      <c r="H41" s="598"/>
-      <c r="I41" s="590"/>
-      <c r="J41" s="591"/>
+      <c r="H41" s="516"/>
+      <c r="I41" s="508"/>
+      <c r="J41" s="509"/>
       <c r="K41" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15636,9 +15636,9 @@
       <c r="S41" s="204"/>
       <c r="T41" s="205"/>
       <c r="U41" s="206"/>
-      <c r="V41" s="598"/>
-      <c r="W41" s="590"/>
-      <c r="X41" s="591"/>
+      <c r="V41" s="516"/>
+      <c r="W41" s="508"/>
+      <c r="X41" s="509"/>
       <c r="Y41" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15655,9 +15655,9 @@
       <c r="E42" s="204"/>
       <c r="F42" s="205"/>
       <c r="G42" s="206"/>
-      <c r="H42" s="598"/>
-      <c r="I42" s="590"/>
-      <c r="J42" s="591"/>
+      <c r="H42" s="516"/>
+      <c r="I42" s="508"/>
+      <c r="J42" s="509"/>
       <c r="K42" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15672,9 +15672,9 @@
       <c r="S42" s="204"/>
       <c r="T42" s="205"/>
       <c r="U42" s="206"/>
-      <c r="V42" s="598"/>
-      <c r="W42" s="590"/>
-      <c r="X42" s="591"/>
+      <c r="V42" s="516"/>
+      <c r="W42" s="508"/>
+      <c r="X42" s="509"/>
       <c r="Y42" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15691,9 +15691,9 @@
       <c r="E43" s="204"/>
       <c r="F43" s="205"/>
       <c r="G43" s="206"/>
-      <c r="H43" s="598"/>
-      <c r="I43" s="590"/>
-      <c r="J43" s="591"/>
+      <c r="H43" s="516"/>
+      <c r="I43" s="508"/>
+      <c r="J43" s="509"/>
       <c r="K43" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15708,9 +15708,9 @@
       <c r="S43" s="204"/>
       <c r="T43" s="205"/>
       <c r="U43" s="206"/>
-      <c r="V43" s="598"/>
-      <c r="W43" s="590"/>
-      <c r="X43" s="591"/>
+      <c r="V43" s="516"/>
+      <c r="W43" s="508"/>
+      <c r="X43" s="509"/>
       <c r="Y43" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15727,9 +15727,9 @@
       <c r="E44" s="204"/>
       <c r="F44" s="205"/>
       <c r="G44" s="206"/>
-      <c r="H44" s="598"/>
-      <c r="I44" s="590"/>
-      <c r="J44" s="591"/>
+      <c r="H44" s="516"/>
+      <c r="I44" s="508"/>
+      <c r="J44" s="509"/>
       <c r="K44" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15744,9 +15744,9 @@
       <c r="S44" s="204"/>
       <c r="T44" s="205"/>
       <c r="U44" s="206"/>
-      <c r="V44" s="598"/>
-      <c r="W44" s="590"/>
-      <c r="X44" s="591"/>
+      <c r="V44" s="516"/>
+      <c r="W44" s="508"/>
+      <c r="X44" s="509"/>
       <c r="Y44" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15763,9 +15763,9 @@
       <c r="E45" s="204"/>
       <c r="F45" s="205"/>
       <c r="G45" s="206"/>
-      <c r="H45" s="598"/>
-      <c r="I45" s="590"/>
-      <c r="J45" s="591"/>
+      <c r="H45" s="516"/>
+      <c r="I45" s="508"/>
+      <c r="J45" s="509"/>
       <c r="K45" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15780,9 +15780,9 @@
       <c r="S45" s="204"/>
       <c r="T45" s="205"/>
       <c r="U45" s="206"/>
-      <c r="V45" s="598"/>
-      <c r="W45" s="590"/>
-      <c r="X45" s="591"/>
+      <c r="V45" s="516"/>
+      <c r="W45" s="508"/>
+      <c r="X45" s="509"/>
       <c r="Y45" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15799,9 +15799,9 @@
       <c r="E46" s="204"/>
       <c r="F46" s="205"/>
       <c r="G46" s="206"/>
-      <c r="H46" s="598"/>
-      <c r="I46" s="590"/>
-      <c r="J46" s="591"/>
+      <c r="H46" s="516"/>
+      <c r="I46" s="508"/>
+      <c r="J46" s="509"/>
       <c r="K46" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15816,9 +15816,9 @@
       <c r="S46" s="204"/>
       <c r="T46" s="205"/>
       <c r="U46" s="206"/>
-      <c r="V46" s="598"/>
-      <c r="W46" s="590"/>
-      <c r="X46" s="591"/>
+      <c r="V46" s="516"/>
+      <c r="W46" s="508"/>
+      <c r="X46" s="509"/>
       <c r="Y46" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15835,9 +15835,9 @@
       <c r="E47" s="204"/>
       <c r="F47" s="205"/>
       <c r="G47" s="206"/>
-      <c r="H47" s="598"/>
-      <c r="I47" s="590"/>
-      <c r="J47" s="591"/>
+      <c r="H47" s="516"/>
+      <c r="I47" s="508"/>
+      <c r="J47" s="509"/>
       <c r="K47" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15852,9 +15852,9 @@
       <c r="S47" s="204"/>
       <c r="T47" s="205"/>
       <c r="U47" s="206"/>
-      <c r="V47" s="598"/>
-      <c r="W47" s="590"/>
-      <c r="X47" s="591"/>
+      <c r="V47" s="516"/>
+      <c r="W47" s="508"/>
+      <c r="X47" s="509"/>
       <c r="Y47" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15871,9 +15871,9 @@
       <c r="E48" s="204"/>
       <c r="F48" s="205"/>
       <c r="G48" s="206"/>
-      <c r="H48" s="598"/>
-      <c r="I48" s="590"/>
-      <c r="J48" s="591"/>
+      <c r="H48" s="516"/>
+      <c r="I48" s="508"/>
+      <c r="J48" s="509"/>
       <c r="K48" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15888,9 +15888,9 @@
       <c r="S48" s="204"/>
       <c r="T48" s="205"/>
       <c r="U48" s="206"/>
-      <c r="V48" s="598"/>
-      <c r="W48" s="590"/>
-      <c r="X48" s="591"/>
+      <c r="V48" s="516"/>
+      <c r="W48" s="508"/>
+      <c r="X48" s="509"/>
       <c r="Y48" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15907,9 +15907,9 @@
       <c r="E49" s="204"/>
       <c r="F49" s="205"/>
       <c r="G49" s="206"/>
-      <c r="H49" s="598"/>
-      <c r="I49" s="590"/>
-      <c r="J49" s="591"/>
+      <c r="H49" s="516"/>
+      <c r="I49" s="508"/>
+      <c r="J49" s="509"/>
       <c r="K49" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15924,9 +15924,9 @@
       <c r="S49" s="204"/>
       <c r="T49" s="205"/>
       <c r="U49" s="206"/>
-      <c r="V49" s="598"/>
-      <c r="W49" s="590"/>
-      <c r="X49" s="591"/>
+      <c r="V49" s="516"/>
+      <c r="W49" s="508"/>
+      <c r="X49" s="509"/>
       <c r="Y49" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15943,9 +15943,9 @@
       <c r="E50" s="204"/>
       <c r="F50" s="205"/>
       <c r="G50" s="206"/>
-      <c r="H50" s="598"/>
-      <c r="I50" s="590"/>
-      <c r="J50" s="591"/>
+      <c r="H50" s="516"/>
+      <c r="I50" s="508"/>
+      <c r="J50" s="509"/>
       <c r="K50" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15960,9 +15960,9 @@
       <c r="S50" s="204"/>
       <c r="T50" s="205"/>
       <c r="U50" s="206"/>
-      <c r="V50" s="598"/>
-      <c r="W50" s="590"/>
-      <c r="X50" s="591"/>
+      <c r="V50" s="516"/>
+      <c r="W50" s="508"/>
+      <c r="X50" s="509"/>
       <c r="Y50" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15979,9 +15979,9 @@
       <c r="E51" s="204"/>
       <c r="F51" s="205"/>
       <c r="G51" s="206"/>
-      <c r="H51" s="598"/>
-      <c r="I51" s="590"/>
-      <c r="J51" s="591"/>
+      <c r="H51" s="516"/>
+      <c r="I51" s="508"/>
+      <c r="J51" s="509"/>
       <c r="K51" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15996,9 +15996,9 @@
       <c r="S51" s="204"/>
       <c r="T51" s="205"/>
       <c r="U51" s="206"/>
-      <c r="V51" s="598"/>
-      <c r="W51" s="590"/>
-      <c r="X51" s="591"/>
+      <c r="V51" s="516"/>
+      <c r="W51" s="508"/>
+      <c r="X51" s="509"/>
       <c r="Y51" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16015,9 +16015,9 @@
       <c r="E52" s="204"/>
       <c r="F52" s="205"/>
       <c r="G52" s="206"/>
-      <c r="H52" s="598"/>
-      <c r="I52" s="590"/>
-      <c r="J52" s="591"/>
+      <c r="H52" s="516"/>
+      <c r="I52" s="508"/>
+      <c r="J52" s="509"/>
       <c r="K52" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16032,9 +16032,9 @@
       <c r="S52" s="204"/>
       <c r="T52" s="205"/>
       <c r="U52" s="206"/>
-      <c r="V52" s="598"/>
-      <c r="W52" s="590"/>
-      <c r="X52" s="591"/>
+      <c r="V52" s="516"/>
+      <c r="W52" s="508"/>
+      <c r="X52" s="509"/>
       <c r="Y52" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16051,9 +16051,9 @@
       <c r="E53" s="204"/>
       <c r="F53" s="205"/>
       <c r="G53" s="206"/>
-      <c r="H53" s="598"/>
-      <c r="I53" s="590"/>
-      <c r="J53" s="591"/>
+      <c r="H53" s="516"/>
+      <c r="I53" s="508"/>
+      <c r="J53" s="509"/>
       <c r="K53" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16068,9 +16068,9 @@
       <c r="S53" s="204"/>
       <c r="T53" s="205"/>
       <c r="U53" s="206"/>
-      <c r="V53" s="598"/>
-      <c r="W53" s="590"/>
-      <c r="X53" s="591"/>
+      <c r="V53" s="516"/>
+      <c r="W53" s="508"/>
+      <c r="X53" s="509"/>
       <c r="Y53" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16087,9 +16087,9 @@
       <c r="E54" s="204"/>
       <c r="F54" s="205"/>
       <c r="G54" s="206"/>
-      <c r="H54" s="598"/>
-      <c r="I54" s="590"/>
-      <c r="J54" s="591"/>
+      <c r="H54" s="516"/>
+      <c r="I54" s="508"/>
+      <c r="J54" s="509"/>
       <c r="K54" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16104,9 +16104,9 @@
       <c r="S54" s="204"/>
       <c r="T54" s="205"/>
       <c r="U54" s="206"/>
-      <c r="V54" s="598"/>
-      <c r="W54" s="590"/>
-      <c r="X54" s="591"/>
+      <c r="V54" s="516"/>
+      <c r="W54" s="508"/>
+      <c r="X54" s="509"/>
       <c r="Y54" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16123,9 +16123,9 @@
       <c r="E55" s="204"/>
       <c r="F55" s="205"/>
       <c r="G55" s="206"/>
-      <c r="H55" s="598"/>
-      <c r="I55" s="590"/>
-      <c r="J55" s="591"/>
+      <c r="H55" s="516"/>
+      <c r="I55" s="508"/>
+      <c r="J55" s="509"/>
       <c r="K55" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16140,9 +16140,9 @@
       <c r="S55" s="204"/>
       <c r="T55" s="205"/>
       <c r="U55" s="206"/>
-      <c r="V55" s="598"/>
-      <c r="W55" s="590"/>
-      <c r="X55" s="591"/>
+      <c r="V55" s="516"/>
+      <c r="W55" s="508"/>
+      <c r="X55" s="509"/>
       <c r="Y55" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16159,9 +16159,9 @@
       <c r="E56" s="204"/>
       <c r="F56" s="205"/>
       <c r="G56" s="206"/>
-      <c r="H56" s="598"/>
-      <c r="I56" s="590"/>
-      <c r="J56" s="591"/>
+      <c r="H56" s="516"/>
+      <c r="I56" s="508"/>
+      <c r="J56" s="509"/>
       <c r="K56" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16176,9 +16176,9 @@
       <c r="S56" s="204"/>
       <c r="T56" s="205"/>
       <c r="U56" s="206"/>
-      <c r="V56" s="598"/>
-      <c r="W56" s="590"/>
-      <c r="X56" s="591"/>
+      <c r="V56" s="516"/>
+      <c r="W56" s="508"/>
+      <c r="X56" s="509"/>
       <c r="Y56" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16195,9 +16195,9 @@
       <c r="E57" s="204"/>
       <c r="F57" s="205"/>
       <c r="G57" s="206"/>
-      <c r="H57" s="598"/>
-      <c r="I57" s="590"/>
-      <c r="J57" s="591"/>
+      <c r="H57" s="516"/>
+      <c r="I57" s="508"/>
+      <c r="J57" s="509"/>
       <c r="K57" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16212,9 +16212,9 @@
       <c r="S57" s="204"/>
       <c r="T57" s="205"/>
       <c r="U57" s="206"/>
-      <c r="V57" s="598"/>
-      <c r="W57" s="590"/>
-      <c r="X57" s="591"/>
+      <c r="V57" s="516"/>
+      <c r="W57" s="508"/>
+      <c r="X57" s="509"/>
       <c r="Y57" s="212">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16514,8 +16514,8 @@
   <sheetPr codeName="工作表5"/>
   <dimension ref="A1:V439"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="F430" sqref="F430"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="F424" sqref="F424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -16536,54 +16536,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="19.5">
-      <c r="A1" s="561" t="s">
+      <c r="A1" s="582" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="561"/>
-      <c r="C1" s="561"/>
-      <c r="D1" s="561"/>
-      <c r="E1" s="561"/>
-      <c r="F1" s="561"/>
-      <c r="G1" s="561"/>
-      <c r="H1" s="561"/>
-      <c r="I1" s="561"/>
-      <c r="J1" s="561"/>
-      <c r="K1" s="561"/>
-      <c r="L1" s="561"/>
-      <c r="M1" s="561"/>
-      <c r="N1" s="561"/>
-      <c r="O1" s="561"/>
-      <c r="P1" s="561"/>
-      <c r="Q1" s="561"/>
-      <c r="R1" s="561"/>
-      <c r="S1" s="561"/>
-      <c r="T1" s="561"/>
-      <c r="U1" s="561"/>
+      <c r="B1" s="582"/>
+      <c r="C1" s="582"/>
+      <c r="D1" s="582"/>
+      <c r="E1" s="582"/>
+      <c r="F1" s="582"/>
+      <c r="G1" s="582"/>
+      <c r="H1" s="582"/>
+      <c r="I1" s="582"/>
+      <c r="J1" s="582"/>
+      <c r="K1" s="582"/>
+      <c r="L1" s="582"/>
+      <c r="M1" s="582"/>
+      <c r="N1" s="582"/>
+      <c r="O1" s="582"/>
+      <c r="P1" s="582"/>
+      <c r="Q1" s="582"/>
+      <c r="R1" s="582"/>
+      <c r="S1" s="582"/>
+      <c r="T1" s="582"/>
+      <c r="U1" s="582"/>
     </row>
     <row r="2" spans="1:22" ht="20.25" thickBot="1">
-      <c r="A2" s="561" t="s">
+      <c r="A2" s="582" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="561"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="561"/>
-      <c r="E2" s="561"/>
-      <c r="F2" s="561"/>
-      <c r="G2" s="561"/>
-      <c r="H2" s="561"/>
-      <c r="I2" s="561"/>
-      <c r="J2" s="561"/>
-      <c r="K2" s="561"/>
-      <c r="L2" s="561"/>
-      <c r="M2" s="561"/>
-      <c r="N2" s="561"/>
-      <c r="O2" s="561"/>
-      <c r="P2" s="561"/>
-      <c r="Q2" s="561"/>
-      <c r="R2" s="561"/>
-      <c r="S2" s="561"/>
-      <c r="T2" s="561"/>
-      <c r="U2" s="561"/>
+      <c r="B2" s="582"/>
+      <c r="C2" s="582"/>
+      <c r="D2" s="582"/>
+      <c r="E2" s="582"/>
+      <c r="F2" s="582"/>
+      <c r="G2" s="582"/>
+      <c r="H2" s="582"/>
+      <c r="I2" s="582"/>
+      <c r="J2" s="582"/>
+      <c r="K2" s="582"/>
+      <c r="L2" s="582"/>
+      <c r="M2" s="582"/>
+      <c r="N2" s="582"/>
+      <c r="O2" s="582"/>
+      <c r="P2" s="582"/>
+      <c r="Q2" s="582"/>
+      <c r="R2" s="582"/>
+      <c r="S2" s="582"/>
+      <c r="T2" s="582"/>
+      <c r="U2" s="582"/>
     </row>
     <row r="3" spans="1:22" ht="14.65" customHeight="1">
       <c r="C3" s="255"/>
@@ -16594,10 +16594,10 @@
         <v>102</v>
       </c>
       <c r="B4" s="254" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="257" t="s">
         <v>186</v>
-      </c>
-      <c r="C4" s="257" t="s">
-        <v>187</v>
       </c>
       <c r="E4" s="253" t="s">
         <v>103</v>
@@ -16608,44 +16608,44 @@
       <c r="T4" s="253"/>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A5" s="562" t="s">
+      <c r="A5" s="583" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="585" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="564"/>
-      <c r="D5" s="564" t="s">
+      <c r="C5" s="585"/>
+      <c r="D5" s="585" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="564"/>
-      <c r="F5" s="566" t="s">
+      <c r="E5" s="585"/>
+      <c r="F5" s="587" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="566"/>
-      <c r="H5" s="566"/>
-      <c r="I5" s="566"/>
-      <c r="J5" s="566"/>
-      <c r="K5" s="566"/>
-      <c r="L5" s="566"/>
-      <c r="M5" s="566"/>
-      <c r="N5" s="566"/>
-      <c r="O5" s="566"/>
-      <c r="P5" s="566"/>
-      <c r="Q5" s="567"/>
-      <c r="R5" s="568" t="s">
+      <c r="G5" s="587"/>
+      <c r="H5" s="587"/>
+      <c r="I5" s="587"/>
+      <c r="J5" s="587"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="587"/>
+      <c r="M5" s="587"/>
+      <c r="N5" s="587"/>
+      <c r="O5" s="587"/>
+      <c r="P5" s="587"/>
+      <c r="Q5" s="588"/>
+      <c r="R5" s="589" t="s">
         <v>109</v>
       </c>
-      <c r="S5" s="566"/>
-      <c r="T5" s="566"/>
-      <c r="U5" s="569"/>
+      <c r="S5" s="587"/>
+      <c r="T5" s="587"/>
+      <c r="U5" s="590"/>
     </row>
     <row r="6" spans="1:22" ht="29.25" thickBot="1">
-      <c r="A6" s="563"/>
-      <c r="B6" s="565"/>
-      <c r="C6" s="565"/>
-      <c r="D6" s="565"/>
-      <c r="E6" s="565"/>
+      <c r="A6" s="584"/>
+      <c r="B6" s="586"/>
+      <c r="C6" s="586"/>
+      <c r="D6" s="586"/>
+      <c r="E6" s="586"/>
       <c r="F6" s="259" t="s">
         <v>110</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="285"/>
       <c r="D14" s="279" t="s">
@@ -17063,10 +17063,10 @@
       <c r="A16" s="289"/>
       <c r="B16" s="290"/>
       <c r="C16" s="291"/>
-      <c r="D16" s="570" t="s">
+      <c r="D16" s="575" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="570"/>
+      <c r="E16" s="575"/>
       <c r="F16" s="292">
         <f t="shared" ref="F16:Q16" si="2">SUM(F7:F15)</f>
         <v>0</v>
@@ -17422,7 +17422,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" s="285"/>
       <c r="D24" s="279" t="s">
@@ -17501,10 +17501,10 @@
       <c r="A26" s="289"/>
       <c r="B26" s="297"/>
       <c r="C26" s="298"/>
-      <c r="D26" s="571" t="s">
+      <c r="D26" s="581" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="571"/>
+      <c r="E26" s="581"/>
       <c r="F26" s="292">
         <f t="shared" ref="F26:Q26" si="4">SUM(F17:F25)</f>
         <v>0</v>
@@ -17860,7 +17860,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C34" s="285"/>
       <c r="D34" s="279" t="s">
@@ -17939,10 +17939,10 @@
       <c r="A36" s="289"/>
       <c r="B36" s="290"/>
       <c r="C36" s="291"/>
-      <c r="D36" s="570" t="s">
+      <c r="D36" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="570"/>
+      <c r="E36" s="575"/>
       <c r="F36" s="292">
         <f t="shared" ref="F36:Q36" si="6">SUM(F27:F35)</f>
         <v>0</v>
@@ -18298,7 +18298,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C44" s="285"/>
       <c r="D44" s="279" t="s">
@@ -18377,10 +18377,10 @@
       <c r="A46" s="289"/>
       <c r="B46" s="290"/>
       <c r="C46" s="291"/>
-      <c r="D46" s="570" t="s">
+      <c r="D46" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E46" s="570"/>
+      <c r="E46" s="575"/>
       <c r="F46" s="292">
         <f t="shared" ref="F46:Q46" si="8">SUM(F37:F45)</f>
         <v>0</v>
@@ -18736,7 +18736,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C54" s="285"/>
       <c r="D54" s="279" t="s">
@@ -18815,10 +18815,10 @@
       <c r="A56" s="289"/>
       <c r="B56" s="290"/>
       <c r="C56" s="291"/>
-      <c r="D56" s="570" t="s">
+      <c r="D56" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="570"/>
+      <c r="E56" s="575"/>
       <c r="F56" s="292">
         <f t="shared" ref="F56:Q56" si="10">SUM(F47:F55)</f>
         <v>0</v>
@@ -19174,7 +19174,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C64" s="285"/>
       <c r="D64" s="279" t="s">
@@ -19253,10 +19253,10 @@
       <c r="A66" s="289"/>
       <c r="B66" s="290"/>
       <c r="C66" s="291"/>
-      <c r="D66" s="572" t="s">
+      <c r="D66" s="579" t="s">
         <v>168</v>
       </c>
-      <c r="E66" s="573"/>
+      <c r="E66" s="580"/>
       <c r="F66" s="292">
         <f t="shared" ref="F66:Q66" si="12">SUM(F57:F65)</f>
         <v>0</v>
@@ -19612,7 +19612,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C74" s="285"/>
       <c r="D74" s="279" t="s">
@@ -19691,10 +19691,10 @@
       <c r="A76" s="289"/>
       <c r="B76" s="297"/>
       <c r="C76" s="298"/>
-      <c r="D76" s="571" t="s">
+      <c r="D76" s="581" t="s">
         <v>168</v>
       </c>
-      <c r="E76" s="571"/>
+      <c r="E76" s="581"/>
       <c r="F76" s="292">
         <f t="shared" ref="F76:Q76" si="15">SUM(F67:F75)</f>
         <v>0</v>
@@ -20050,7 +20050,7 @@
         <v>8</v>
       </c>
       <c r="B84" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C84" s="285"/>
       <c r="D84" s="279" t="s">
@@ -20129,10 +20129,10 @@
       <c r="A86" s="289"/>
       <c r="B86" s="290"/>
       <c r="C86" s="291"/>
-      <c r="D86" s="570" t="s">
+      <c r="D86" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E86" s="570"/>
+      <c r="E86" s="575"/>
       <c r="F86" s="292">
         <f t="shared" ref="F86:Q86" si="17">SUM(F77:F85)</f>
         <v>0</v>
@@ -20488,7 +20488,7 @@
         <v>9</v>
       </c>
       <c r="B94" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C94" s="285"/>
       <c r="D94" s="279" t="s">
@@ -20567,10 +20567,10 @@
       <c r="A96" s="289"/>
       <c r="B96" s="290"/>
       <c r="C96" s="291"/>
-      <c r="D96" s="570" t="s">
+      <c r="D96" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E96" s="570"/>
+      <c r="E96" s="575"/>
       <c r="F96" s="292">
         <f t="shared" ref="F96:Q96" si="19">SUM(F87:F95)</f>
         <v>0</v>
@@ -20926,7 +20926,7 @@
         <v>10</v>
       </c>
       <c r="B104" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C104" s="285"/>
       <c r="D104" s="279" t="s">
@@ -21005,10 +21005,10 @@
       <c r="A106" s="289"/>
       <c r="B106" s="290"/>
       <c r="C106" s="291"/>
-      <c r="D106" s="570" t="s">
+      <c r="D106" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E106" s="570"/>
+      <c r="E106" s="575"/>
       <c r="F106" s="292">
         <f t="shared" ref="F106:Q106" si="21">SUM(F97:F105)</f>
         <v>0</v>
@@ -21364,7 +21364,7 @@
         <v>11</v>
       </c>
       <c r="B114" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C114" s="285"/>
       <c r="D114" s="279" t="s">
@@ -21443,10 +21443,10 @@
       <c r="A116" s="289"/>
       <c r="B116" s="297"/>
       <c r="C116" s="298"/>
-      <c r="D116" s="571" t="s">
+      <c r="D116" s="581" t="s">
         <v>168</v>
       </c>
-      <c r="E116" s="571"/>
+      <c r="E116" s="581"/>
       <c r="F116" s="292">
         <f t="shared" ref="F116:Q116" si="23">SUM(F107:F115)</f>
         <v>0</v>
@@ -21802,7 +21802,7 @@
         <v>12</v>
       </c>
       <c r="B124" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C124" s="285"/>
       <c r="D124" s="279" t="s">
@@ -21881,10 +21881,10 @@
       <c r="A126" s="289"/>
       <c r="B126" s="290"/>
       <c r="C126" s="291"/>
-      <c r="D126" s="570" t="s">
+      <c r="D126" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E126" s="570"/>
+      <c r="E126" s="575"/>
       <c r="F126" s="292">
         <f t="shared" ref="F126:Q126" si="25">SUM(F117:F125)</f>
         <v>0</v>
@@ -22240,7 +22240,7 @@
         <v>13</v>
       </c>
       <c r="B134" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C134" s="285"/>
       <c r="D134" s="279" t="s">
@@ -22319,10 +22319,10 @@
       <c r="A136" s="289"/>
       <c r="B136" s="297"/>
       <c r="C136" s="298"/>
-      <c r="D136" s="571" t="s">
+      <c r="D136" s="581" t="s">
         <v>168</v>
       </c>
-      <c r="E136" s="571"/>
+      <c r="E136" s="581"/>
       <c r="F136" s="292">
         <f t="shared" ref="F136:Q136" si="27">SUM(F127:F135)</f>
         <v>0</v>
@@ -22678,7 +22678,7 @@
         <v>14</v>
       </c>
       <c r="B144" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C144" s="285"/>
       <c r="D144" s="279" t="s">
@@ -22757,10 +22757,10 @@
       <c r="A146" s="289"/>
       <c r="B146" s="297"/>
       <c r="C146" s="298"/>
-      <c r="D146" s="571" t="s">
+      <c r="D146" s="581" t="s">
         <v>168</v>
       </c>
-      <c r="E146" s="571"/>
+      <c r="E146" s="581"/>
       <c r="F146" s="292">
         <f t="shared" ref="F146:Q146" si="30">SUM(F137:F145)</f>
         <v>0</v>
@@ -23116,7 +23116,7 @@
         <v>15</v>
       </c>
       <c r="B154" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C154" s="285"/>
       <c r="D154" s="279" t="s">
@@ -23195,10 +23195,10 @@
       <c r="A156" s="289"/>
       <c r="B156" s="290"/>
       <c r="C156" s="291"/>
-      <c r="D156" s="572" t="s">
+      <c r="D156" s="579" t="s">
         <v>168</v>
       </c>
-      <c r="E156" s="573"/>
+      <c r="E156" s="580"/>
       <c r="F156" s="292">
         <f t="shared" ref="F156:Q156" si="32">SUM(F147:F155)</f>
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>16</v>
       </c>
       <c r="B164" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C164" s="285"/>
       <c r="D164" s="279" t="s">
@@ -23633,10 +23633,10 @@
       <c r="A166" s="289"/>
       <c r="B166" s="290"/>
       <c r="C166" s="291"/>
-      <c r="D166" s="570" t="s">
+      <c r="D166" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E166" s="570"/>
+      <c r="E166" s="575"/>
       <c r="F166" s="292">
         <f t="shared" ref="F166:Q166" si="34">SUM(F157:F165)</f>
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>17</v>
       </c>
       <c r="B174" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C174" s="285"/>
       <c r="D174" s="279" t="s">
@@ -24071,10 +24071,10 @@
       <c r="A176" s="289"/>
       <c r="B176" s="290"/>
       <c r="C176" s="291"/>
-      <c r="D176" s="570" t="s">
+      <c r="D176" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E176" s="570"/>
+      <c r="E176" s="575"/>
       <c r="F176" s="292">
         <f t="shared" ref="F176:Q176" si="36">SUM(F167:F175)</f>
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>18</v>
       </c>
       <c r="B184" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C184" s="285"/>
       <c r="D184" s="279" t="s">
@@ -24509,10 +24509,10 @@
       <c r="A186" s="289"/>
       <c r="B186" s="290"/>
       <c r="C186" s="291"/>
-      <c r="D186" s="570" t="s">
+      <c r="D186" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E186" s="570"/>
+      <c r="E186" s="575"/>
       <c r="F186" s="292">
         <f t="shared" ref="F186:Q186" si="38">SUM(F177:F185)</f>
         <v>0</v>
@@ -24868,7 +24868,7 @@
         <v>19</v>
       </c>
       <c r="B194" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C194" s="285"/>
       <c r="D194" s="279" t="s">
@@ -24947,10 +24947,10 @@
       <c r="A196" s="289"/>
       <c r="B196" s="290"/>
       <c r="C196" s="291"/>
-      <c r="D196" s="570" t="s">
+      <c r="D196" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E196" s="570"/>
+      <c r="E196" s="575"/>
       <c r="F196" s="292">
         <f t="shared" ref="F196:Q196" si="40">SUM(F187:F195)</f>
         <v>0</v>
@@ -25306,7 +25306,7 @@
         <v>20</v>
       </c>
       <c r="B204" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C204" s="285"/>
       <c r="D204" s="279" t="s">
@@ -25385,10 +25385,10 @@
       <c r="A206" s="289"/>
       <c r="B206" s="290"/>
       <c r="C206" s="291"/>
-      <c r="D206" s="570" t="s">
+      <c r="D206" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E206" s="570"/>
+      <c r="E206" s="575"/>
       <c r="F206" s="292">
         <f t="shared" ref="F206:Q206" si="43">SUM(F197:F205)</f>
         <v>0</v>
@@ -25744,7 +25744,7 @@
         <v>21</v>
       </c>
       <c r="B214" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C214" s="285"/>
       <c r="D214" s="279" t="s">
@@ -25823,10 +25823,10 @@
       <c r="A216" s="289"/>
       <c r="B216" s="290"/>
       <c r="C216" s="291"/>
-      <c r="D216" s="570" t="s">
+      <c r="D216" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E216" s="570"/>
+      <c r="E216" s="575"/>
       <c r="F216" s="292">
         <f t="shared" ref="F216:O216" si="45">SUM(F207:F215)</f>
         <v>0</v>
@@ -26182,7 +26182,7 @@
         <v>22</v>
       </c>
       <c r="B224" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C224" s="285"/>
       <c r="D224" s="279" t="s">
@@ -26261,10 +26261,10 @@
       <c r="A226" s="289"/>
       <c r="B226" s="297"/>
       <c r="C226" s="298"/>
-      <c r="D226" s="571" t="s">
+      <c r="D226" s="581" t="s">
         <v>168</v>
       </c>
-      <c r="E226" s="571"/>
+      <c r="E226" s="581"/>
       <c r="F226" s="292">
         <f t="shared" ref="F226:Q226" si="48">SUM(F217:F225)</f>
         <v>0</v>
@@ -26620,7 +26620,7 @@
         <v>23</v>
       </c>
       <c r="B234" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C234" s="285"/>
       <c r="D234" s="279" t="s">
@@ -26699,10 +26699,10 @@
       <c r="A236" s="289"/>
       <c r="B236" s="290"/>
       <c r="C236" s="291"/>
-      <c r="D236" s="570" t="s">
+      <c r="D236" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E236" s="570"/>
+      <c r="E236" s="575"/>
       <c r="F236" s="292">
         <f t="shared" ref="F236:Q236" si="50">SUM(F227:F235)</f>
         <v>0</v>
@@ -27135,10 +27135,10 @@
       <c r="A246" s="289"/>
       <c r="B246" s="290"/>
       <c r="C246" s="291"/>
-      <c r="D246" s="570" t="s">
+      <c r="D246" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E246" s="570"/>
+      <c r="E246" s="575"/>
       <c r="F246" s="292">
         <f t="shared" ref="F246:Q246" si="52">SUM(F237:F245)</f>
         <v>0</v>
@@ -27494,7 +27494,7 @@
         <v>25</v>
       </c>
       <c r="B254" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C254" s="324"/>
       <c r="D254" s="279" t="s">
@@ -27573,10 +27573,10 @@
       <c r="A256" s="289"/>
       <c r="B256" s="290"/>
       <c r="C256" s="291"/>
-      <c r="D256" s="570" t="s">
+      <c r="D256" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E256" s="570"/>
+      <c r="E256" s="575"/>
       <c r="F256" s="292">
         <f t="shared" ref="F256:Q256" si="54">SUM(F247:F255)</f>
         <v>0</v>
@@ -27932,7 +27932,7 @@
         <v>26</v>
       </c>
       <c r="B264" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C264" s="324"/>
       <c r="D264" s="279" t="s">
@@ -28011,10 +28011,10 @@
       <c r="A266" s="289"/>
       <c r="B266" s="290"/>
       <c r="C266" s="291"/>
-      <c r="D266" s="572" t="s">
+      <c r="D266" s="579" t="s">
         <v>168</v>
       </c>
-      <c r="E266" s="573"/>
+      <c r="E266" s="580"/>
       <c r="F266" s="292">
         <f t="shared" ref="F266:Q266" si="56">SUM(F257:F265)</f>
         <v>0</v>
@@ -28370,7 +28370,7 @@
         <v>27</v>
       </c>
       <c r="B274" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C274" s="324"/>
       <c r="D274" s="279" t="s">
@@ -28449,10 +28449,10 @@
       <c r="A276" s="289"/>
       <c r="B276" s="297"/>
       <c r="C276" s="298"/>
-      <c r="D276" s="571" t="s">
+      <c r="D276" s="581" t="s">
         <v>168</v>
       </c>
-      <c r="E276" s="571"/>
+      <c r="E276" s="581"/>
       <c r="F276" s="292">
         <f t="shared" ref="F276:Q276" si="58">SUM(F267:F275)</f>
         <v>0</v>
@@ -28808,7 +28808,7 @@
         <v>28</v>
       </c>
       <c r="B284" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C284" s="324"/>
       <c r="D284" s="279" t="s">
@@ -28887,10 +28887,10 @@
       <c r="A286" s="289"/>
       <c r="B286" s="290"/>
       <c r="C286" s="291"/>
-      <c r="D286" s="570" t="s">
+      <c r="D286" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E286" s="570"/>
+      <c r="E286" s="575"/>
       <c r="F286" s="292">
         <f t="shared" ref="F286:Q286" si="60">SUM(F277:F285)</f>
         <v>0</v>
@@ -29246,7 +29246,7 @@
         <v>29</v>
       </c>
       <c r="B294" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C294" s="324"/>
       <c r="D294" s="279" t="s">
@@ -29325,10 +29325,10 @@
       <c r="A296" s="289"/>
       <c r="B296" s="290"/>
       <c r="C296" s="291"/>
-      <c r="D296" s="570" t="s">
+      <c r="D296" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E296" s="570"/>
+      <c r="E296" s="575"/>
       <c r="F296" s="292">
         <f t="shared" ref="F296:Q296" si="62">SUM(F287:F295)</f>
         <v>0</v>
@@ -29684,7 +29684,7 @@
         <v>30</v>
       </c>
       <c r="B304" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C304" s="324"/>
       <c r="D304" s="279" t="s">
@@ -29763,10 +29763,10 @@
       <c r="A306" s="289"/>
       <c r="B306" s="290"/>
       <c r="C306" s="291"/>
-      <c r="D306" s="570" t="s">
+      <c r="D306" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E306" s="570"/>
+      <c r="E306" s="575"/>
       <c r="F306" s="292">
         <f t="shared" ref="F306:Q306" si="64">SUM(F297:F305)</f>
         <v>0</v>
@@ -30122,7 +30122,7 @@
         <v>31</v>
       </c>
       <c r="B314" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C314" s="324"/>
       <c r="D314" s="279" t="s">
@@ -30201,10 +30201,10 @@
       <c r="A316" s="289"/>
       <c r="B316" s="297"/>
       <c r="C316" s="298"/>
-      <c r="D316" s="571" t="s">
+      <c r="D316" s="581" t="s">
         <v>168</v>
       </c>
-      <c r="E316" s="571"/>
+      <c r="E316" s="581"/>
       <c r="F316" s="292">
         <f t="shared" ref="F316:Q316" si="66">SUM(F307:F315)</f>
         <v>0</v>
@@ -30560,7 +30560,7 @@
         <v>32</v>
       </c>
       <c r="B324" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C324" s="324"/>
       <c r="D324" s="279" t="s">
@@ -30639,10 +30639,10 @@
       <c r="A326" s="289"/>
       <c r="B326" s="290"/>
       <c r="C326" s="291"/>
-      <c r="D326" s="570" t="s">
+      <c r="D326" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E326" s="570"/>
+      <c r="E326" s="575"/>
       <c r="F326" s="292">
         <f t="shared" ref="F326:Q326" si="68">SUM(F317:F325)</f>
         <v>0</v>
@@ -30998,7 +30998,7 @@
         <v>33</v>
       </c>
       <c r="B334" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C334" s="324"/>
       <c r="D334" s="279" t="s">
@@ -31077,10 +31077,10 @@
       <c r="A336" s="289"/>
       <c r="B336" s="297"/>
       <c r="C336" s="298"/>
-      <c r="D336" s="571" t="s">
+      <c r="D336" s="581" t="s">
         <v>168</v>
       </c>
-      <c r="E336" s="571"/>
+      <c r="E336" s="581"/>
       <c r="F336" s="292">
         <f t="shared" ref="F336:Q336" si="70">SUM(F327:F335)</f>
         <v>0</v>
@@ -31436,7 +31436,7 @@
         <v>34</v>
       </c>
       <c r="B344" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C344" s="324"/>
       <c r="D344" s="279" t="s">
@@ -31515,10 +31515,10 @@
       <c r="A346" s="289"/>
       <c r="B346" s="297"/>
       <c r="C346" s="298"/>
-      <c r="D346" s="571" t="s">
+      <c r="D346" s="581" t="s">
         <v>168</v>
       </c>
-      <c r="E346" s="571"/>
+      <c r="E346" s="581"/>
       <c r="F346" s="292">
         <f t="shared" ref="F346:Q346" si="72">SUM(F337:F345)</f>
         <v>0</v>
@@ -31874,7 +31874,7 @@
         <v>35</v>
       </c>
       <c r="B354" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C354" s="324"/>
       <c r="D354" s="279" t="s">
@@ -31953,10 +31953,10 @@
       <c r="A356" s="289"/>
       <c r="B356" s="290"/>
       <c r="C356" s="291"/>
-      <c r="D356" s="572" t="s">
+      <c r="D356" s="579" t="s">
         <v>168</v>
       </c>
-      <c r="E356" s="573"/>
+      <c r="E356" s="580"/>
       <c r="F356" s="292">
         <f t="shared" ref="F356:Q356" si="74">SUM(F347:F355)</f>
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>36</v>
       </c>
       <c r="B364" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C364" s="324"/>
       <c r="D364" s="279" t="s">
@@ -32391,10 +32391,10 @@
       <c r="A366" s="289"/>
       <c r="B366" s="290"/>
       <c r="C366" s="291"/>
-      <c r="D366" s="570" t="s">
+      <c r="D366" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E366" s="570"/>
+      <c r="E366" s="575"/>
       <c r="F366" s="292">
         <f t="shared" ref="F366:Q366" si="76">SUM(F357:F365)</f>
         <v>0</v>
@@ -32750,7 +32750,7 @@
         <v>37</v>
       </c>
       <c r="B374" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C374" s="324"/>
       <c r="D374" s="279" t="s">
@@ -32829,10 +32829,10 @@
       <c r="A376" s="289"/>
       <c r="B376" s="290"/>
       <c r="C376" s="291"/>
-      <c r="D376" s="570" t="s">
+      <c r="D376" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E376" s="570"/>
+      <c r="E376" s="575"/>
       <c r="F376" s="292">
         <f t="shared" ref="F376:Q376" si="78">SUM(F367:F375)</f>
         <v>0</v>
@@ -33188,7 +33188,7 @@
         <v>38</v>
       </c>
       <c r="B384" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C384" s="324"/>
       <c r="D384" s="279" t="s">
@@ -33267,10 +33267,10 @@
       <c r="A386" s="289"/>
       <c r="B386" s="290"/>
       <c r="C386" s="291"/>
-      <c r="D386" s="570" t="s">
+      <c r="D386" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E386" s="570"/>
+      <c r="E386" s="575"/>
       <c r="F386" s="292">
         <f t="shared" ref="F386:Q386" si="80">SUM(F377:F385)</f>
         <v>0</v>
@@ -33626,7 +33626,7 @@
         <v>39</v>
       </c>
       <c r="B394" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C394" s="324"/>
       <c r="D394" s="279" t="s">
@@ -33705,10 +33705,10 @@
       <c r="A396" s="289"/>
       <c r="B396" s="290"/>
       <c r="C396" s="291"/>
-      <c r="D396" s="570" t="s">
+      <c r="D396" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E396" s="570"/>
+      <c r="E396" s="575"/>
       <c r="F396" s="292">
         <f t="shared" ref="F396:Q396" si="82">SUM(F387:F395)</f>
         <v>0</v>
@@ -34064,7 +34064,7 @@
         <v>40</v>
       </c>
       <c r="B404" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C404" s="324"/>
       <c r="D404" s="279" t="s">
@@ -34143,10 +34143,10 @@
       <c r="A406" s="289"/>
       <c r="B406" s="290"/>
       <c r="C406" s="291"/>
-      <c r="D406" s="570" t="s">
+      <c r="D406" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E406" s="570"/>
+      <c r="E406" s="575"/>
       <c r="F406" s="292">
         <f t="shared" ref="F406:Q406" si="84">SUM(F397:F405)</f>
         <v>0</v>
@@ -34500,7 +34500,7 @@
         <v>170</v>
       </c>
       <c r="B414" s="277" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C414" s="324"/>
       <c r="D414" s="279" t="s">
@@ -34579,10 +34579,10 @@
       <c r="A416" s="308"/>
       <c r="B416" s="290"/>
       <c r="C416" s="291"/>
-      <c r="D416" s="570" t="s">
+      <c r="D416" s="575" t="s">
         <v>168</v>
       </c>
-      <c r="E416" s="570"/>
+      <c r="E416" s="575"/>
       <c r="F416" s="292">
         <f>SUM(F407:F415)</f>
         <v>0</v>
@@ -34650,13 +34650,13 @@
       <c r="V416" s="275"/>
     </row>
     <row r="417" spans="1:22" ht="14.65" customHeight="1" thickBot="1">
-      <c r="A417" s="578" t="s">
+      <c r="A417" s="576" t="s">
         <v>171</v>
       </c>
-      <c r="B417" s="579"/>
-      <c r="C417" s="579"/>
-      <c r="D417" s="579"/>
-      <c r="E417" s="580"/>
+      <c r="B417" s="577"/>
+      <c r="C417" s="577"/>
+      <c r="D417" s="577"/>
+      <c r="E417" s="578"/>
       <c r="F417" s="310">
         <f>SUM(F418:F426)</f>
         <v>0</v>
@@ -34723,11 +34723,11 @@
       </c>
     </row>
     <row r="418" spans="1:22" ht="14.65" customHeight="1">
-      <c r="A418" s="574" t="s">
+      <c r="A418" s="571" t="s">
         <v>172</v>
       </c>
-      <c r="B418" s="574"/>
-      <c r="C418" s="574"/>
+      <c r="B418" s="571"/>
+      <c r="C418" s="571"/>
       <c r="D418" s="268" t="s">
         <v>127</v>
       </c>
@@ -34800,9 +34800,9 @@
       </c>
     </row>
     <row r="419" spans="1:22" ht="14.65" customHeight="1">
-      <c r="A419" s="575"/>
-      <c r="B419" s="575"/>
-      <c r="C419" s="575"/>
+      <c r="A419" s="572"/>
+      <c r="B419" s="572"/>
+      <c r="C419" s="572"/>
       <c r="D419" s="279" t="s">
         <v>130</v>
       </c>
@@ -34875,9 +34875,9 @@
       </c>
     </row>
     <row r="420" spans="1:22" ht="14.65" customHeight="1">
-      <c r="A420" s="575"/>
-      <c r="B420" s="575"/>
-      <c r="C420" s="575"/>
+      <c r="A420" s="572"/>
+      <c r="B420" s="572"/>
+      <c r="C420" s="572"/>
       <c r="D420" s="279" t="s">
         <v>134</v>
       </c>
@@ -34950,9 +34950,9 @@
       </c>
     </row>
     <row r="421" spans="1:22" ht="14.65" customHeight="1">
-      <c r="A421" s="575"/>
-      <c r="B421" s="575"/>
-      <c r="C421" s="575"/>
+      <c r="A421" s="572"/>
+      <c r="B421" s="572"/>
+      <c r="C421" s="572"/>
       <c r="D421" s="279" t="s">
         <v>137</v>
       </c>
@@ -35025,9 +35025,9 @@
       </c>
     </row>
     <row r="422" spans="1:22" ht="14.65" customHeight="1">
-      <c r="A422" s="575"/>
-      <c r="B422" s="575"/>
-      <c r="C422" s="575"/>
+      <c r="A422" s="572"/>
+      <c r="B422" s="572"/>
+      <c r="C422" s="572"/>
       <c r="D422" s="279" t="s">
         <v>141</v>
       </c>
@@ -35100,9 +35100,9 @@
       </c>
     </row>
     <row r="423" spans="1:22" ht="14.65" customHeight="1">
-      <c r="A423" s="575"/>
-      <c r="B423" s="575"/>
-      <c r="C423" s="575"/>
+      <c r="A423" s="572"/>
+      <c r="B423" s="572"/>
+      <c r="C423" s="572"/>
       <c r="D423" s="279" t="s">
         <v>144</v>
       </c>
@@ -35175,14 +35175,14 @@
       </c>
     </row>
     <row r="424" spans="1:22" ht="14.65" customHeight="1">
-      <c r="A424" s="575"/>
-      <c r="B424" s="575"/>
-      <c r="C424" s="575"/>
+      <c r="A424" s="572"/>
+      <c r="B424" s="572"/>
+      <c r="C424" s="572"/>
       <c r="D424" s="279" t="s">
         <v>147</v>
       </c>
       <c r="E424" s="280" t="s">
-        <v>178</v>
+        <v>394</v>
       </c>
       <c r="F424" s="314">
         <f t="shared" si="89"/>
@@ -35250,9 +35250,9 @@
       </c>
     </row>
     <row r="425" spans="1:22" ht="15" customHeight="1">
-      <c r="A425" s="575"/>
-      <c r="B425" s="575"/>
-      <c r="C425" s="575"/>
+      <c r="A425" s="572"/>
+      <c r="B425" s="572"/>
+      <c r="C425" s="572"/>
       <c r="D425" s="279" t="s">
         <v>149</v>
       </c>
@@ -35325,14 +35325,14 @@
       </c>
     </row>
     <row r="426" spans="1:22" ht="14.65" customHeight="1">
-      <c r="A426" s="575"/>
-      <c r="B426" s="575"/>
-      <c r="C426" s="575"/>
+      <c r="A426" s="572"/>
+      <c r="B426" s="572"/>
+      <c r="C426" s="572"/>
       <c r="D426" s="279" t="s">
         <v>151</v>
       </c>
       <c r="E426" s="280" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F426" s="314">
         <f t="shared" si="89"/>
@@ -35400,13 +35400,13 @@
       </c>
     </row>
     <row r="427" spans="1:22" ht="14.65" customHeight="1">
-      <c r="A427" s="575"/>
-      <c r="B427" s="575"/>
-      <c r="C427" s="575"/>
-      <c r="D427" s="576" t="s">
-        <v>180</v>
-      </c>
-      <c r="E427" s="577"/>
+      <c r="A427" s="572"/>
+      <c r="B427" s="572"/>
+      <c r="C427" s="572"/>
+      <c r="D427" s="573" t="s">
+        <v>179</v>
+      </c>
+      <c r="E427" s="574"/>
       <c r="F427" s="318">
         <f>SUM(F418:F426)</f>
         <v>0</v>
@@ -35475,24 +35475,24 @@
     <row r="428" spans="1:22" ht="14.65" customHeight="1"/>
     <row r="429" spans="1:22" ht="14.65" customHeight="1">
       <c r="C429" s="320" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="430" spans="1:22" ht="14.65" customHeight="1"/>
     <row r="431" spans="1:22" s="321" customFormat="1" ht="14.65" customHeight="1">
       <c r="D431" s="321" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E431" s="322"/>
       <c r="F431" s="323" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G431" s="323"/>
       <c r="H431" s="323"/>
       <c r="I431" s="323"/>
       <c r="J431" s="323"/>
       <c r="K431" s="323" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L431" s="323"/>
       <c r="M431" s="323"/>
@@ -35500,7 +35500,7 @@
       <c r="O431" s="323"/>
       <c r="P431" s="323"/>
       <c r="Q431" s="323" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R431" s="323"/>
       <c r="S431" s="323"/>
@@ -35658,14 +35658,37 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A418:C427"/>
-    <mergeCell ref="D427:E427"/>
-    <mergeCell ref="D376:E376"/>
-    <mergeCell ref="D386:E386"/>
-    <mergeCell ref="D396:E396"/>
-    <mergeCell ref="D406:E406"/>
-    <mergeCell ref="D416:E416"/>
-    <mergeCell ref="A417:E417"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="D236:E236"/>
     <mergeCell ref="D366:E366"/>
     <mergeCell ref="D256:E256"/>
     <mergeCell ref="D266:E266"/>
@@ -35678,37 +35701,14 @@
     <mergeCell ref="D336:E336"/>
     <mergeCell ref="D346:E346"/>
     <mergeCell ref="D356:E356"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:Q5"/>
-    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="A418:C427"/>
+    <mergeCell ref="D427:E427"/>
+    <mergeCell ref="D376:E376"/>
+    <mergeCell ref="D386:E386"/>
+    <mergeCell ref="D396:E396"/>
+    <mergeCell ref="D406:E406"/>
+    <mergeCell ref="D416:E416"/>
+    <mergeCell ref="A417:E417"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35727,86 +35727,86 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:37" ht="19.5">
-      <c r="A1" s="584" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="584"/>
-      <c r="C1" s="584"/>
-      <c r="D1" s="584"/>
-      <c r="E1" s="584"/>
-      <c r="F1" s="584"/>
-      <c r="G1" s="584"/>
-      <c r="H1" s="584"/>
-      <c r="I1" s="584"/>
-      <c r="J1" s="584"/>
-      <c r="K1" s="584"/>
-      <c r="L1" s="584"/>
-      <c r="M1" s="584"/>
-      <c r="N1" s="584"/>
-      <c r="O1" s="584"/>
-      <c r="P1" s="584"/>
-      <c r="Q1" s="584"/>
-      <c r="R1" s="584"/>
-      <c r="S1" s="584"/>
-      <c r="T1" s="584"/>
-      <c r="U1" s="584"/>
-      <c r="V1" s="584"/>
-      <c r="W1" s="584"/>
-      <c r="X1" s="584"/>
-      <c r="Y1" s="584"/>
-      <c r="Z1" s="584"/>
-      <c r="AA1" s="584"/>
-      <c r="AB1" s="584"/>
-      <c r="AC1" s="584"/>
-      <c r="AD1" s="584"/>
-      <c r="AE1" s="584"/>
-      <c r="AF1" s="584"/>
-      <c r="AG1" s="584"/>
-      <c r="AH1" s="584"/>
-      <c r="AI1" s="584"/>
-      <c r="AJ1" s="584"/>
-      <c r="AK1" s="584"/>
+      <c r="A1" s="594" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="594"/>
+      <c r="C1" s="594"/>
+      <c r="D1" s="594"/>
+      <c r="E1" s="594"/>
+      <c r="F1" s="594"/>
+      <c r="G1" s="594"/>
+      <c r="H1" s="594"/>
+      <c r="I1" s="594"/>
+      <c r="J1" s="594"/>
+      <c r="K1" s="594"/>
+      <c r="L1" s="594"/>
+      <c r="M1" s="594"/>
+      <c r="N1" s="594"/>
+      <c r="O1" s="594"/>
+      <c r="P1" s="594"/>
+      <c r="Q1" s="594"/>
+      <c r="R1" s="594"/>
+      <c r="S1" s="594"/>
+      <c r="T1" s="594"/>
+      <c r="U1" s="594"/>
+      <c r="V1" s="594"/>
+      <c r="W1" s="594"/>
+      <c r="X1" s="594"/>
+      <c r="Y1" s="594"/>
+      <c r="Z1" s="594"/>
+      <c r="AA1" s="594"/>
+      <c r="AB1" s="594"/>
+      <c r="AC1" s="594"/>
+      <c r="AD1" s="594"/>
+      <c r="AE1" s="594"/>
+      <c r="AF1" s="594"/>
+      <c r="AG1" s="594"/>
+      <c r="AH1" s="594"/>
+      <c r="AI1" s="594"/>
+      <c r="AJ1" s="594"/>
+      <c r="AK1" s="594"/>
     </row>
     <row r="2" spans="1:37" ht="19.5">
-      <c r="A2" s="584" t="s">
+      <c r="A2" s="594" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="584"/>
-      <c r="C2" s="584"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="584"/>
-      <c r="F2" s="584"/>
-      <c r="G2" s="584"/>
-      <c r="H2" s="584"/>
-      <c r="I2" s="584"/>
-      <c r="J2" s="584"/>
-      <c r="K2" s="584"/>
-      <c r="L2" s="584"/>
-      <c r="M2" s="584"/>
-      <c r="N2" s="584"/>
-      <c r="O2" s="584"/>
-      <c r="P2" s="584"/>
-      <c r="Q2" s="584"/>
-      <c r="R2" s="584"/>
-      <c r="S2" s="584"/>
-      <c r="T2" s="584"/>
-      <c r="U2" s="584"/>
-      <c r="V2" s="584"/>
-      <c r="W2" s="584"/>
-      <c r="X2" s="584"/>
-      <c r="Y2" s="584"/>
-      <c r="Z2" s="584"/>
-      <c r="AA2" s="584"/>
-      <c r="AB2" s="584"/>
-      <c r="AC2" s="584"/>
-      <c r="AD2" s="584"/>
-      <c r="AE2" s="584"/>
-      <c r="AF2" s="584"/>
-      <c r="AG2" s="584"/>
-      <c r="AH2" s="584"/>
-      <c r="AI2" s="584"/>
-      <c r="AJ2" s="584"/>
-      <c r="AK2" s="584"/>
+      <c r="B2" s="594"/>
+      <c r="C2" s="594"/>
+      <c r="D2" s="594"/>
+      <c r="E2" s="594"/>
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="594"/>
+      <c r="I2" s="594"/>
+      <c r="J2" s="594"/>
+      <c r="K2" s="594"/>
+      <c r="L2" s="594"/>
+      <c r="M2" s="594"/>
+      <c r="N2" s="594"/>
+      <c r="O2" s="594"/>
+      <c r="P2" s="594"/>
+      <c r="Q2" s="594"/>
+      <c r="R2" s="594"/>
+      <c r="S2" s="594"/>
+      <c r="T2" s="594"/>
+      <c r="U2" s="594"/>
+      <c r="V2" s="594"/>
+      <c r="W2" s="594"/>
+      <c r="X2" s="594"/>
+      <c r="Y2" s="594"/>
+      <c r="Z2" s="594"/>
+      <c r="AA2" s="594"/>
+      <c r="AB2" s="594"/>
+      <c r="AC2" s="594"/>
+      <c r="AD2" s="594"/>
+      <c r="AE2" s="594"/>
+      <c r="AF2" s="594"/>
+      <c r="AG2" s="594"/>
+      <c r="AH2" s="594"/>
+      <c r="AI2" s="594"/>
+      <c r="AJ2" s="594"/>
+      <c r="AK2" s="594"/>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="326"/>
@@ -35849,16 +35849,16 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="326" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="254" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="257" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="327" t="s">
         <v>190</v>
-      </c>
-      <c r="B4" s="254" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="257" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="327" t="s">
-        <v>191</v>
       </c>
       <c r="E4" s="327"/>
       <c r="F4" s="327"/>
@@ -35890,7 +35890,7 @@
       <c r="AF4" s="327"/>
       <c r="AG4" s="327"/>
       <c r="AH4" s="328" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI4" s="327"/>
       <c r="AJ4" s="327"/>
@@ -35898,228 +35898,228 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="329" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="581">
+        <v>192</v>
+      </c>
+      <c r="B5" s="591">
         <v>1</v>
       </c>
-      <c r="C5" s="582">
+      <c r="C5" s="592">
         <v>1</v>
       </c>
-      <c r="D5" s="583">
+      <c r="D5" s="593">
         <v>1</v>
       </c>
-      <c r="E5" s="581">
+      <c r="E5" s="591">
         <v>2</v>
       </c>
-      <c r="F5" s="582">
+      <c r="F5" s="592">
         <v>2</v>
       </c>
-      <c r="G5" s="583">
+      <c r="G5" s="593">
         <v>2</v>
       </c>
-      <c r="H5" s="581">
+      <c r="H5" s="591">
         <v>3</v>
       </c>
-      <c r="I5" s="582">
+      <c r="I5" s="592">
         <v>3</v>
       </c>
-      <c r="J5" s="583">
+      <c r="J5" s="593">
         <v>3</v>
       </c>
-      <c r="K5" s="581">
-        <v>4</v>
-      </c>
-      <c r="L5" s="582">
-        <v>4</v>
-      </c>
-      <c r="M5" s="583">
-        <v>4</v>
-      </c>
-      <c r="N5" s="581">
+      <c r="K5" s="591">
+        <v>4</v>
+      </c>
+      <c r="L5" s="592">
+        <v>4</v>
+      </c>
+      <c r="M5" s="593">
+        <v>4</v>
+      </c>
+      <c r="N5" s="591">
         <v>5</v>
       </c>
-      <c r="O5" s="582">
+      <c r="O5" s="592">
         <v>5</v>
       </c>
-      <c r="P5" s="583">
+      <c r="P5" s="593">
         <v>5</v>
       </c>
-      <c r="Q5" s="581">
+      <c r="Q5" s="591">
         <v>6</v>
       </c>
-      <c r="R5" s="582">
+      <c r="R5" s="592">
         <v>6</v>
       </c>
-      <c r="S5" s="583">
+      <c r="S5" s="593">
         <v>6</v>
       </c>
-      <c r="T5" s="581">
+      <c r="T5" s="591">
         <v>7</v>
       </c>
-      <c r="U5" s="582">
+      <c r="U5" s="592">
         <v>7</v>
       </c>
-      <c r="V5" s="583">
+      <c r="V5" s="593">
         <v>7</v>
       </c>
-      <c r="W5" s="581">
+      <c r="W5" s="591">
         <v>8</v>
       </c>
-      <c r="X5" s="582">
+      <c r="X5" s="592">
         <v>8</v>
       </c>
-      <c r="Y5" s="583">
+      <c r="Y5" s="593">
         <v>8</v>
       </c>
-      <c r="Z5" s="581">
+      <c r="Z5" s="591">
         <v>9</v>
       </c>
-      <c r="AA5" s="582">
+      <c r="AA5" s="592">
         <v>9</v>
       </c>
-      <c r="AB5" s="583">
+      <c r="AB5" s="593">
         <v>9</v>
       </c>
-      <c r="AC5" s="581">
+      <c r="AC5" s="591">
         <v>10</v>
       </c>
-      <c r="AD5" s="582">
+      <c r="AD5" s="592">
         <v>10</v>
       </c>
-      <c r="AE5" s="583">
+      <c r="AE5" s="593">
         <v>10</v>
       </c>
-      <c r="AF5" s="581">
+      <c r="AF5" s="591">
         <v>11</v>
       </c>
-      <c r="AG5" s="582">
+      <c r="AG5" s="592">
         <v>11</v>
       </c>
-      <c r="AH5" s="583">
+      <c r="AH5" s="593">
         <v>11</v>
       </c>
-      <c r="AI5" s="581">
+      <c r="AI5" s="591">
         <v>12</v>
       </c>
-      <c r="AJ5" s="582">
+      <c r="AJ5" s="592">
         <v>12</v>
       </c>
-      <c r="AK5" s="583">
+      <c r="AK5" s="593">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="330" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="331" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="331" t="s">
+      <c r="C6" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="332" t="s">
+      <c r="D6" s="333" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="333" t="s">
-        <v>197</v>
-      </c>
       <c r="E6" s="331" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="332" t="s">
+      <c r="G6" s="333" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="333" t="s">
-        <v>197</v>
-      </c>
       <c r="H6" s="331" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="I6" s="332" t="s">
+      <c r="J6" s="333" t="s">
         <v>196</v>
       </c>
-      <c r="J6" s="333" t="s">
-        <v>197</v>
-      </c>
       <c r="K6" s="331" t="s">
+        <v>194</v>
+      </c>
+      <c r="L6" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="L6" s="332" t="s">
+      <c r="M6" s="333" t="s">
         <v>196</v>
       </c>
-      <c r="M6" s="333" t="s">
-        <v>197</v>
-      </c>
       <c r="N6" s="331" t="s">
+        <v>194</v>
+      </c>
+      <c r="O6" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="O6" s="332" t="s">
+      <c r="P6" s="333" t="s">
         <v>196</v>
       </c>
-      <c r="P6" s="333" t="s">
-        <v>197</v>
-      </c>
       <c r="Q6" s="331" t="s">
+        <v>194</v>
+      </c>
+      <c r="R6" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="R6" s="332" t="s">
+      <c r="S6" s="333" t="s">
         <v>196</v>
       </c>
-      <c r="S6" s="333" t="s">
-        <v>197</v>
-      </c>
       <c r="T6" s="331" t="s">
+        <v>194</v>
+      </c>
+      <c r="U6" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="U6" s="332" t="s">
+      <c r="V6" s="333" t="s">
         <v>196</v>
       </c>
-      <c r="V6" s="333" t="s">
-        <v>197</v>
-      </c>
       <c r="W6" s="331" t="s">
+        <v>194</v>
+      </c>
+      <c r="X6" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="X6" s="332" t="s">
+      <c r="Y6" s="333" t="s">
         <v>196</v>
       </c>
-      <c r="Y6" s="333" t="s">
-        <v>197</v>
-      </c>
       <c r="Z6" s="331" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA6" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="AA6" s="332" t="s">
+      <c r="AB6" s="333" t="s">
         <v>196</v>
       </c>
-      <c r="AB6" s="333" t="s">
-        <v>197</v>
-      </c>
       <c r="AC6" s="331" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD6" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="AD6" s="332" t="s">
+      <c r="AE6" s="333" t="s">
         <v>196</v>
       </c>
-      <c r="AE6" s="333" t="s">
-        <v>197</v>
-      </c>
       <c r="AF6" s="331" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG6" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="AG6" s="332" t="s">
+      <c r="AH6" s="333" t="s">
         <v>196</v>
       </c>
-      <c r="AH6" s="333" t="s">
-        <v>197</v>
-      </c>
       <c r="AI6" s="331" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ6" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="AJ6" s="332" t="s">
+      <c r="AK6" s="333" t="s">
         <v>196</v>
-      </c>
-      <c r="AK6" s="333" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -40164,7 +40164,7 @@
     </row>
     <row r="47" spans="1:37">
       <c r="A47" s="334" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B47" s="335"/>
       <c r="C47" s="336">
@@ -40265,7 +40265,7 @@
     </row>
     <row r="48" spans="1:37">
       <c r="A48" s="338" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B48" s="339">
         <f>SUM(B7:B47)</f>
@@ -40378,7 +40378,7 @@
     </row>
     <row r="49" spans="1:37">
       <c r="A49" s="340" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B49" s="327"/>
       <c r="C49" s="327"/>
@@ -40760,34 +40760,34 @@
     <row r="1" spans="1:19">
       <c r="A1" s="344"/>
       <c r="B1" s="344" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1" s="344"/>
       <c r="D1" s="345"/>
       <c r="E1" s="345"/>
-      <c r="F1" s="587" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="587"/>
-      <c r="H1" s="587"/>
-      <c r="I1" s="587"/>
-      <c r="J1" s="587"/>
-      <c r="K1" s="587"/>
-      <c r="L1" s="587"/>
-      <c r="M1" s="587"/>
-      <c r="N1" s="587"/>
-      <c r="O1" s="587"/>
-      <c r="P1" s="587"/>
-      <c r="Q1" s="587"/>
+      <c r="F1" s="597" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="597"/>
+      <c r="H1" s="597"/>
+      <c r="I1" s="597"/>
+      <c r="J1" s="597"/>
+      <c r="K1" s="597"/>
+      <c r="L1" s="597"/>
+      <c r="M1" s="597"/>
+      <c r="N1" s="597"/>
+      <c r="O1" s="597"/>
+      <c r="P1" s="597"/>
+      <c r="Q1" s="597"/>
       <c r="R1" s="346"/>
       <c r="S1" s="344" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="344"/>
       <c r="B2" s="344" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="344"/>
       <c r="D2" s="345"/>
@@ -40810,22 +40810,22 @@
     <row r="3" spans="1:19" ht="19.5">
       <c r="A3" s="348"/>
       <c r="B3" s="349" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="350" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="350" t="s">
+      <c r="D3" s="351" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="349" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="351" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="349" t="s">
+      <c r="F3" s="352" t="s">
         <v>207</v>
       </c>
-      <c r="F3" s="352" t="s">
+      <c r="G3" s="352" t="s">
         <v>208</v>
-      </c>
-      <c r="G3" s="352" t="s">
-        <v>209</v>
       </c>
       <c r="H3" s="352" t="s">
         <v>112</v>
@@ -40861,7 +40861,7 @@
         <v>19</v>
       </c>
       <c r="S3" s="355" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -40869,17 +40869,17 @@
         <f t="shared" ref="A4:A20" si="0">$C$1</f>
         <v>0</v>
       </c>
-      <c r="B4" s="588" t="s">
-        <v>211</v>
+      <c r="B4" s="598" t="s">
+        <v>210</v>
       </c>
       <c r="C4" s="357">
         <v>6310</v>
       </c>
       <c r="D4" s="358" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="359" t="s">
         <v>212</v>
-      </c>
-      <c r="E4" s="359" t="s">
-        <v>213</v>
       </c>
       <c r="F4" s="360"/>
       <c r="G4" s="360"/>
@@ -40904,17 +40904,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B5" s="588" t="s">
-        <v>211</v>
+      <c r="B5" s="598" t="s">
+        <v>210</v>
       </c>
       <c r="C5" s="364">
         <v>6310</v>
       </c>
       <c r="D5" s="365" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="366" t="s">
         <v>214</v>
-      </c>
-      <c r="E5" s="366" t="s">
-        <v>215</v>
       </c>
       <c r="F5" s="367"/>
       <c r="G5" s="367"/>
@@ -40933,7 +40933,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="369" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -40941,17 +40941,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B6" s="588" t="s">
-        <v>211</v>
+      <c r="B6" s="598" t="s">
+        <v>210</v>
       </c>
       <c r="C6" s="364">
         <v>6310</v>
       </c>
       <c r="D6" s="365" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="482" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F6" s="367"/>
       <c r="G6" s="367"/>
@@ -40970,7 +40970,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="483" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="42" customFormat="1">
@@ -40978,15 +40978,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B7" s="588"/>
+      <c r="B7" s="598"/>
       <c r="C7" s="364" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" s="365" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="488" t="s">
         <v>372</v>
-      </c>
-      <c r="D7" s="365" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="488" t="s">
-        <v>373</v>
       </c>
       <c r="F7" s="489"/>
       <c r="G7" s="490"/>
@@ -41005,7 +41005,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="492" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="42" customFormat="1">
@@ -41013,17 +41013,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B8" s="588" t="s">
-        <v>211</v>
+      <c r="B8" s="598" t="s">
+        <v>210</v>
       </c>
       <c r="C8" s="485" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="486" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="486" t="s">
+      <c r="E8" s="387" t="s">
         <v>219</v>
-      </c>
-      <c r="E8" s="387" t="s">
-        <v>220</v>
       </c>
       <c r="F8" s="373">
         <f>SUM(F4:F7)</f>
@@ -41084,15 +41084,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B9" s="588" t="s">
-        <v>211</v>
+      <c r="B9" s="598" t="s">
+        <v>210</v>
       </c>
       <c r="C9" s="376"/>
       <c r="D9" s="376" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="359" t="s">
         <v>221</v>
-      </c>
-      <c r="E9" s="359" t="s">
-        <v>222</v>
       </c>
       <c r="F9" s="360"/>
       <c r="G9" s="360"/>
@@ -41114,17 +41114,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B10" s="588" t="s">
+      <c r="B10" s="598" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="378" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="378" t="s">
+      <c r="D10" s="379" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="379" t="s">
+      <c r="E10" s="484" t="s">
         <v>225</v>
-      </c>
-      <c r="E10" s="484" t="s">
-        <v>226</v>
       </c>
       <c r="F10" s="367"/>
       <c r="G10" s="367"/>
@@ -41149,17 +41149,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B11" s="588" t="s">
+      <c r="B11" s="598" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="378" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="378" t="s">
+      <c r="D11" s="379" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="379" t="s">
-        <v>225</v>
-      </c>
       <c r="E11" s="359" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F11" s="360"/>
       <c r="G11" s="360"/>
@@ -41184,17 +41184,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B12" s="588" t="s">
-        <v>223</v>
+      <c r="B12" s="598" t="s">
+        <v>222</v>
       </c>
       <c r="C12" s="382" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="383" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="383" t="s">
-        <v>229</v>
-      </c>
       <c r="E12" s="372" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F12" s="373">
         <f>SUM(F10:F11)</f>
@@ -41255,17 +41255,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B13" s="588" t="s">
-        <v>211</v>
+      <c r="B13" s="598" t="s">
+        <v>210</v>
       </c>
       <c r="C13" s="385">
         <v>6331</v>
       </c>
       <c r="D13" s="386" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="387" t="s">
         <v>230</v>
-      </c>
-      <c r="E13" s="387" t="s">
-        <v>231</v>
       </c>
       <c r="F13" s="373"/>
       <c r="G13" s="373"/>
@@ -41284,7 +41284,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="384" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -41292,17 +41292,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B14" s="588" t="s">
-        <v>211</v>
+      <c r="B14" s="598" t="s">
+        <v>210</v>
       </c>
       <c r="C14" s="389">
         <v>6388.0001000000002</v>
       </c>
       <c r="D14" s="390" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="391" t="s">
         <v>233</v>
-      </c>
-      <c r="E14" s="391" t="s">
-        <v>234</v>
       </c>
       <c r="F14" s="373"/>
       <c r="G14" s="373"/>
@@ -41327,17 +41327,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B15" s="588" t="s">
-        <v>211</v>
+      <c r="B15" s="598" t="s">
+        <v>210</v>
       </c>
       <c r="C15" s="389">
         <v>6388.0005000000001</v>
       </c>
       <c r="D15" s="386" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="391" t="s">
         <v>235</v>
-      </c>
-      <c r="E15" s="391" t="s">
-        <v>236</v>
       </c>
       <c r="F15" s="373"/>
       <c r="G15" s="373"/>
@@ -41362,17 +41362,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B16" s="588" t="s">
-        <v>211</v>
+      <c r="B16" s="598" t="s">
+        <v>210</v>
       </c>
       <c r="C16" s="389">
         <v>6388.0011000000004</v>
       </c>
       <c r="D16" s="386" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="392" t="s">
         <v>237</v>
-      </c>
-      <c r="E16" s="392" t="s">
-        <v>238</v>
       </c>
       <c r="F16" s="393"/>
       <c r="G16" s="393"/>
@@ -41397,17 +41397,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B17" s="588" t="s">
-        <v>211</v>
+      <c r="B17" s="598" t="s">
+        <v>210</v>
       </c>
       <c r="C17" s="397">
         <v>6319</v>
       </c>
       <c r="D17" s="396" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="366" t="s">
         <v>239</v>
-      </c>
-      <c r="E17" s="366" t="s">
-        <v>240</v>
       </c>
       <c r="F17" s="398"/>
       <c r="G17" s="398"/>
@@ -41426,7 +41426,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="399" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -41434,17 +41434,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B18" s="588" t="s">
-        <v>211</v>
+      <c r="B18" s="598" t="s">
+        <v>210</v>
       </c>
       <c r="C18" s="364">
         <v>6319</v>
       </c>
       <c r="D18" s="363" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E18" s="366" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F18" s="398"/>
       <c r="G18" s="398"/>
@@ -41463,7 +41463,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="399" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -41471,17 +41471,17 @@
         <f>$C$1</f>
         <v>0</v>
       </c>
-      <c r="B19" s="588" t="s">
-        <v>211</v>
+      <c r="B19" s="598" t="s">
+        <v>210</v>
       </c>
       <c r="C19" s="364">
         <v>6319</v>
       </c>
       <c r="D19" s="363" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E19" s="366" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F19" s="398"/>
       <c r="G19" s="398"/>
@@ -41500,7 +41500,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="399" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -41508,15 +41508,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B20" s="588"/>
+      <c r="B20" s="598"/>
       <c r="C20" s="364" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="363" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="366" t="s">
         <v>244</v>
-      </c>
-      <c r="D20" s="363" t="s">
-        <v>239</v>
-      </c>
-      <c r="E20" s="366" t="s">
-        <v>245</v>
       </c>
       <c r="F20" s="398"/>
       <c r="G20" s="398"/>
@@ -41541,17 +41541,17 @@
         <f t="shared" ref="A21:A52" si="4">$C$1</f>
         <v>0</v>
       </c>
-      <c r="B21" s="588" t="s">
-        <v>223</v>
+      <c r="B21" s="598" t="s">
+        <v>222</v>
       </c>
       <c r="C21" s="364" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="363" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="401" t="s">
         <v>246</v>
-      </c>
-      <c r="D21" s="363" t="s">
-        <v>239</v>
-      </c>
-      <c r="E21" s="401" t="s">
-        <v>247</v>
       </c>
       <c r="F21" s="402"/>
       <c r="G21" s="402"/>
@@ -41576,14 +41576,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B22" s="588" t="s">
-        <v>223</v>
+      <c r="B22" s="598" t="s">
+        <v>222</v>
       </c>
       <c r="C22" s="371" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D22" s="370" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E22" s="387" t="s">
         <v>60</v>
@@ -41647,17 +41647,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B23" s="588" t="s">
-        <v>249</v>
+      <c r="B23" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C23" s="357">
         <v>6311</v>
       </c>
       <c r="D23" s="356" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="401" t="s">
         <v>250</v>
-      </c>
-      <c r="E23" s="401" t="s">
-        <v>251</v>
       </c>
       <c r="F23" s="402"/>
       <c r="G23" s="402"/>
@@ -41682,17 +41682,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B24" s="588" t="s">
-        <v>249</v>
+      <c r="B24" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C24" s="364">
         <v>6311</v>
       </c>
       <c r="D24" s="363" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E24" s="401" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F24" s="402"/>
       <c r="G24" s="402"/>
@@ -41717,14 +41717,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B25" s="588" t="s">
-        <v>249</v>
+      <c r="B25" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C25" s="371" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D25" s="370" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E25" s="387" t="s">
         <v>60</v>
@@ -41788,17 +41788,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B26" s="588" t="s">
-        <v>249</v>
+      <c r="B26" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C26" s="357">
         <v>6316</v>
       </c>
       <c r="D26" s="356" t="s">
+        <v>252</v>
+      </c>
+      <c r="E26" s="401" t="s">
         <v>253</v>
-      </c>
-      <c r="E26" s="401" t="s">
-        <v>254</v>
       </c>
       <c r="F26" s="402"/>
       <c r="G26" s="402"/>
@@ -41823,17 +41823,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B27" s="588" t="s">
-        <v>249</v>
+      <c r="B27" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C27" s="364">
         <v>6316</v>
       </c>
       <c r="D27" s="363" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E27" s="401" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F27" s="402"/>
       <c r="G27" s="402"/>
@@ -41858,17 +41858,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B28" s="588" t="s">
-        <v>249</v>
+      <c r="B28" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C28" s="364">
         <v>6316</v>
       </c>
       <c r="D28" s="363" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E28" s="401" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F28" s="402"/>
       <c r="G28" s="402"/>
@@ -41893,17 +41893,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B29" s="588" t="s">
-        <v>249</v>
+      <c r="B29" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C29" s="364">
         <v>6316</v>
       </c>
       <c r="D29" s="363" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E29" s="401" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F29" s="402"/>
       <c r="G29" s="402"/>
@@ -41928,14 +41928,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B30" s="588" t="s">
-        <v>249</v>
+      <c r="B30" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C30" s="371" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D30" s="370" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E30" s="387" t="s">
         <v>60</v>
@@ -41999,17 +41999,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B31" s="588" t="s">
-        <v>249</v>
+      <c r="B31" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C31" s="357">
         <v>6322</v>
       </c>
       <c r="D31" s="356" t="s">
+        <v>257</v>
+      </c>
+      <c r="E31" s="408" t="s">
         <v>258</v>
-      </c>
-      <c r="E31" s="408" t="s">
-        <v>259</v>
       </c>
       <c r="F31" s="409"/>
       <c r="G31" s="409"/>
@@ -42028,7 +42028,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="411" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -42036,17 +42036,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B32" s="588" t="s">
-        <v>249</v>
+      <c r="B32" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C32" s="364" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="363" t="s">
+        <v>257</v>
+      </c>
+      <c r="E32" s="408" t="s">
         <v>261</v>
-      </c>
-      <c r="D32" s="363" t="s">
-        <v>258</v>
-      </c>
-      <c r="E32" s="408" t="s">
-        <v>262</v>
       </c>
       <c r="F32" s="409"/>
       <c r="G32" s="409"/>
@@ -42065,7 +42065,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="411" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -42073,17 +42073,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B33" s="588" t="s">
-        <v>249</v>
+      <c r="B33" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C33" s="371" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D33" s="370" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E33" s="387" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F33" s="405">
         <f>SUM(F31:F32)</f>
@@ -42144,8 +42144,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B34" s="588" t="s">
-        <v>249</v>
+      <c r="B34" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C34" s="357">
         <v>6324</v>
@@ -42154,7 +42154,7 @@
         <v>89</v>
       </c>
       <c r="E34" s="412" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F34" s="413"/>
       <c r="G34" s="413"/>
@@ -42173,7 +42173,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="414" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -42181,17 +42181,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B35" s="588" t="s">
-        <v>249</v>
+      <c r="B35" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C35" s="364">
         <v>6324</v>
       </c>
       <c r="D35" s="363" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="366" t="s">
         <v>267</v>
-      </c>
-      <c r="E35" s="366" t="s">
-        <v>268</v>
       </c>
       <c r="F35" s="398"/>
       <c r="G35" s="398"/>
@@ -42210,7 +42210,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="399" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -42218,17 +42218,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B36" s="588" t="s">
-        <v>249</v>
+      <c r="B36" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C36" s="364">
         <v>6324</v>
       </c>
       <c r="D36" s="363" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E36" s="366" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F36" s="398"/>
       <c r="G36" s="398"/>
@@ -42247,7 +42247,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="399" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="33">
@@ -42255,14 +42255,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B37" s="588" t="s">
-        <v>249</v>
+      <c r="B37" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C37" s="371" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D37" s="370" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E37" s="387" t="s">
         <v>60</v>
@@ -42320,7 +42320,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="407" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="33">
@@ -42328,17 +42328,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B38" s="588" t="s">
-        <v>249</v>
+      <c r="B38" s="598" t="s">
+        <v>248</v>
       </c>
       <c r="C38" s="416">
         <v>6388.0003999999999</v>
       </c>
       <c r="D38" s="415" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" s="417" t="s">
         <v>274</v>
-      </c>
-      <c r="E38" s="417" t="s">
-        <v>275</v>
       </c>
       <c r="F38" s="418"/>
       <c r="G38" s="418"/>
@@ -42357,7 +42357,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="420" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -42365,17 +42365,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B39" s="588" t="s">
-        <v>277</v>
+      <c r="B39" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C39" s="357">
         <v>6312</v>
       </c>
       <c r="D39" s="421" t="s">
+        <v>277</v>
+      </c>
+      <c r="E39" s="422" t="s">
         <v>278</v>
-      </c>
-      <c r="E39" s="422" t="s">
-        <v>279</v>
       </c>
       <c r="F39" s="423"/>
       <c r="G39" s="423"/>
@@ -42400,17 +42400,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B40" s="588" t="s">
-        <v>277</v>
+      <c r="B40" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C40" s="364" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" s="425" t="s">
         <v>280</v>
       </c>
-      <c r="D40" s="425" t="s">
+      <c r="E40" s="422" t="s">
         <v>281</v>
-      </c>
-      <c r="E40" s="422" t="s">
-        <v>282</v>
       </c>
       <c r="F40" s="423"/>
       <c r="G40" s="423"/>
@@ -42435,17 +42435,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B41" s="588" t="s">
-        <v>277</v>
+      <c r="B41" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C41" s="364">
         <v>6312</v>
       </c>
       <c r="D41" s="425" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E41" s="422" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F41" s="423"/>
       <c r="G41" s="423"/>
@@ -42470,14 +42470,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B42" s="588" t="s">
-        <v>277</v>
+      <c r="B42" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C42" s="371" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D42" s="427" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E42" s="372" t="s">
         <v>60</v>
@@ -42541,17 +42541,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B43" s="588" t="s">
-        <v>277</v>
+      <c r="B43" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C43" s="416">
         <v>6313</v>
       </c>
       <c r="D43" s="430" t="s">
+        <v>283</v>
+      </c>
+      <c r="E43" s="372" t="s">
         <v>284</v>
-      </c>
-      <c r="E43" s="372" t="s">
-        <v>285</v>
       </c>
       <c r="F43" s="428"/>
       <c r="G43" s="428"/>
@@ -42570,7 +42570,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="407" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -42578,17 +42578,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B44" s="588" t="s">
-        <v>277</v>
+      <c r="B44" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C44" s="431">
         <v>6314</v>
       </c>
       <c r="D44" s="432" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E44" s="372" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F44" s="428"/>
       <c r="G44" s="428"/>
@@ -42613,17 +42613,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B45" s="588" t="s">
-        <v>277</v>
+      <c r="B45" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C45" s="433">
         <v>6315</v>
       </c>
       <c r="D45" s="421" t="s">
+        <v>287</v>
+      </c>
+      <c r="E45" s="434" t="s">
         <v>288</v>
-      </c>
-      <c r="E45" s="434" t="s">
-        <v>289</v>
       </c>
       <c r="F45" s="435"/>
       <c r="G45" s="435"/>
@@ -42642,7 +42642,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="411" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -42650,17 +42650,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B46" s="588" t="s">
-        <v>277</v>
+      <c r="B46" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C46" s="437" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" s="425" t="s">
+        <v>287</v>
+      </c>
+      <c r="E46" s="434" t="s">
         <v>291</v>
-      </c>
-      <c r="D46" s="425" t="s">
-        <v>288</v>
-      </c>
-      <c r="E46" s="434" t="s">
-        <v>292</v>
       </c>
       <c r="F46" s="435"/>
       <c r="G46" s="435"/>
@@ -42679,7 +42679,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="411" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -42687,17 +42687,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B47" s="588" t="s">
-        <v>277</v>
+      <c r="B47" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C47" s="437" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D47" s="425" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E47" s="422" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F47" s="423"/>
       <c r="G47" s="402"/>
@@ -42722,17 +42722,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B48" s="588" t="s">
-        <v>277</v>
+      <c r="B48" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C48" s="438" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D48" s="427" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E48" s="372" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F48" s="428">
         <f>SUM(F45:F47)</f>
@@ -42793,17 +42793,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B49" s="588" t="s">
-        <v>277</v>
+      <c r="B49" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C49" s="433">
         <v>6318</v>
       </c>
       <c r="D49" s="421" t="s">
+        <v>295</v>
+      </c>
+      <c r="E49" s="434" t="s">
         <v>296</v>
-      </c>
-      <c r="E49" s="434" t="s">
-        <v>297</v>
       </c>
       <c r="F49" s="435"/>
       <c r="G49" s="435"/>
@@ -42822,7 +42822,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="411" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -42830,15 +42830,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B50" s="588"/>
+      <c r="B50" s="598"/>
       <c r="C50" s="437" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="425" t="s">
         <v>298</v>
       </c>
-      <c r="D50" s="425" t="s">
+      <c r="E50" s="434" t="s">
         <v>299</v>
-      </c>
-      <c r="E50" s="434" t="s">
-        <v>300</v>
       </c>
       <c r="F50" s="435"/>
       <c r="G50" s="435"/>
@@ -42857,7 +42857,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="411" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -42865,17 +42865,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B51" s="588" t="s">
-        <v>277</v>
+      <c r="B51" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C51" s="437" t="s">
+        <v>297</v>
+      </c>
+      <c r="D51" s="425" t="s">
         <v>298</v>
       </c>
-      <c r="D51" s="425" t="s">
-        <v>299</v>
-      </c>
       <c r="E51" s="434" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F51" s="435"/>
       <c r="G51" s="409"/>
@@ -42900,17 +42900,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B52" s="588" t="s">
-        <v>277</v>
+      <c r="B52" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C52" s="438" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D52" s="427" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E52" s="372" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F52" s="428">
         <f>SUM(F49:F51)</f>
@@ -42971,17 +42971,17 @@
         <f t="shared" ref="A53:A74" si="15">$C$1</f>
         <v>0</v>
       </c>
-      <c r="B53" s="588" t="s">
-        <v>277</v>
+      <c r="B53" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C53" s="433">
         <v>6320</v>
       </c>
       <c r="D53" s="421" t="s">
+        <v>303</v>
+      </c>
+      <c r="E53" s="439" t="s">
         <v>304</v>
-      </c>
-      <c r="E53" s="439" t="s">
-        <v>305</v>
       </c>
       <c r="F53" s="440"/>
       <c r="G53" s="440"/>
@@ -43000,7 +43000,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="399" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -43008,17 +43008,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B54" s="588" t="s">
-        <v>277</v>
+      <c r="B54" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C54" s="437" t="s">
+        <v>306</v>
+      </c>
+      <c r="D54" s="425" t="s">
+        <v>303</v>
+      </c>
+      <c r="E54" s="422" t="s">
         <v>307</v>
-      </c>
-      <c r="D54" s="425" t="s">
-        <v>304</v>
-      </c>
-      <c r="E54" s="422" t="s">
-        <v>308</v>
       </c>
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
@@ -43043,17 +43043,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B55" s="588" t="s">
-        <v>277</v>
+      <c r="B55" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C55" s="438" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D55" s="427" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E55" s="372" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F55" s="428">
         <f>SUM(F53:F54)</f>
@@ -43114,17 +43114,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B56" s="588" t="s">
-        <v>277</v>
+      <c r="B56" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C56" s="433">
         <v>6325</v>
       </c>
       <c r="D56" s="421" t="s">
+        <v>309</v>
+      </c>
+      <c r="E56" s="412" t="s">
         <v>310</v>
-      </c>
-      <c r="E56" s="412" t="s">
-        <v>311</v>
       </c>
       <c r="F56" s="441"/>
       <c r="G56" s="441"/>
@@ -43143,7 +43143,7 @@
         <v>0</v>
       </c>
       <c r="S56" s="414" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -43151,17 +43151,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B57" s="588" t="s">
-        <v>277</v>
+      <c r="B57" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C57" s="437" t="s">
+        <v>312</v>
+      </c>
+      <c r="D57" s="425" t="s">
+        <v>309</v>
+      </c>
+      <c r="E57" s="366" t="s">
         <v>313</v>
-      </c>
-      <c r="D57" s="425" t="s">
-        <v>310</v>
-      </c>
-      <c r="E57" s="366" t="s">
-        <v>314</v>
       </c>
       <c r="F57" s="440"/>
       <c r="G57" s="440"/>
@@ -43180,7 +43180,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="399" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -43188,17 +43188,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B58" s="588" t="s">
-        <v>277</v>
+      <c r="B58" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C58" s="438" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D58" s="427" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E58" s="372" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F58" s="428">
         <f>SUM(F56:F57)</f>
@@ -43253,7 +43253,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="407" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -43261,17 +43261,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B59" s="588" t="s">
-        <v>277</v>
+      <c r="B59" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C59" s="376">
         <v>6388.0002999999997</v>
       </c>
       <c r="D59" s="444" t="s">
+        <v>317</v>
+      </c>
+      <c r="E59" s="359" t="s">
         <v>318</v>
-      </c>
-      <c r="E59" s="359" t="s">
-        <v>319</v>
       </c>
       <c r="F59" s="360"/>
       <c r="G59" s="360"/>
@@ -43296,17 +43296,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B60" s="588" t="s">
-        <v>277</v>
+      <c r="B60" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C60" s="378">
         <v>6388.0002999999997</v>
       </c>
       <c r="D60" s="379" t="s">
+        <v>319</v>
+      </c>
+      <c r="E60" s="445" t="s">
         <v>320</v>
-      </c>
-      <c r="E60" s="445" t="s">
-        <v>321</v>
       </c>
       <c r="F60" s="367"/>
       <c r="G60" s="367"/>
@@ -43331,17 +43331,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B61" s="588" t="s">
-        <v>277</v>
+      <c r="B61" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C61" s="378">
         <v>6388.0002999999997</v>
       </c>
       <c r="D61" s="379" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E61" s="359" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F61" s="360"/>
       <c r="G61" s="360"/>
@@ -43366,17 +43366,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B62" s="588" t="s">
-        <v>277</v>
+      <c r="B62" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C62" s="378">
         <v>6388.0002999999997</v>
       </c>
       <c r="D62" s="379" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E62" s="359" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F62" s="360"/>
       <c r="G62" s="360"/>
@@ -43401,14 +43401,14 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B63" s="588" t="s">
-        <v>277</v>
+      <c r="B63" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C63" s="446" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D63" s="383" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E63" s="372" t="s">
         <v>60</v>
@@ -43472,17 +43472,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B64" s="588" t="s">
-        <v>277</v>
+      <c r="B64" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C64" s="416">
         <v>6388.0006999999996</v>
       </c>
       <c r="D64" s="386" t="s">
+        <v>344</v>
+      </c>
+      <c r="E64" s="391" t="s">
         <v>345</v>
-      </c>
-      <c r="E64" s="391" t="s">
-        <v>346</v>
       </c>
       <c r="F64" s="373"/>
       <c r="G64" s="373"/>
@@ -43507,17 +43507,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B65" s="588" t="s">
-        <v>277</v>
+      <c r="B65" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C65" s="416">
         <v>6388.0007999999998</v>
       </c>
       <c r="D65" s="386" t="s">
+        <v>346</v>
+      </c>
+      <c r="E65" s="391" t="s">
         <v>347</v>
-      </c>
-      <c r="E65" s="391" t="s">
-        <v>348</v>
       </c>
       <c r="F65" s="447"/>
       <c r="G65" s="447"/>
@@ -43542,17 +43542,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B66" s="588" t="s">
-        <v>277</v>
+      <c r="B66" s="598" t="s">
+        <v>276</v>
       </c>
       <c r="C66" s="416">
         <v>6388.0009</v>
       </c>
       <c r="D66" s="386" t="s">
+        <v>348</v>
+      </c>
+      <c r="E66" s="391" t="s">
         <v>349</v>
-      </c>
-      <c r="E66" s="391" t="s">
-        <v>350</v>
       </c>
       <c r="F66" s="373"/>
       <c r="G66" s="373"/>
@@ -43577,17 +43577,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B67" s="588" t="s">
-        <v>324</v>
+      <c r="B67" s="598" t="s">
+        <v>323</v>
       </c>
       <c r="C67" s="416">
         <v>6321</v>
       </c>
       <c r="D67" s="449" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E67" s="450" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F67" s="451"/>
       <c r="G67" s="451"/>
@@ -43606,7 +43606,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="453" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -43614,17 +43614,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B68" s="588" t="s">
+      <c r="B68" s="598" t="s">
+        <v>326</v>
+      </c>
+      <c r="C68" s="454" t="s">
         <v>327</v>
       </c>
-      <c r="C68" s="454" t="s">
+      <c r="D68" s="455" t="s">
         <v>328</v>
       </c>
-      <c r="D68" s="455" t="s">
+      <c r="E68" s="417" t="s">
         <v>329</v>
-      </c>
-      <c r="E68" s="417" t="s">
-        <v>330</v>
       </c>
       <c r="F68" s="418"/>
       <c r="G68" s="418"/>
@@ -43649,11 +43649,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B69" s="588" t="s">
-        <v>327</v>
+      <c r="B69" s="598" t="s">
+        <v>326</v>
       </c>
       <c r="C69" s="456" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D69" s="457" t="s">
         <v>51</v>
@@ -43684,17 +43684,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B70" s="588" t="s">
-        <v>324</v>
+      <c r="B70" s="598" t="s">
+        <v>323</v>
       </c>
       <c r="C70" s="458">
         <v>6388.0099</v>
       </c>
       <c r="D70" s="379" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" s="359" t="s">
         <v>332</v>
-      </c>
-      <c r="E70" s="359" t="s">
-        <v>333</v>
       </c>
       <c r="F70" s="360"/>
       <c r="G70" s="360"/>
@@ -43719,17 +43719,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B71" s="588" t="s">
-        <v>327</v>
+      <c r="B71" s="598" t="s">
+        <v>326</v>
       </c>
       <c r="C71" s="458">
         <v>6388.0099</v>
       </c>
       <c r="D71" s="379" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E71" s="459" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F71" s="460"/>
       <c r="G71" s="460"/>
@@ -43748,7 +43748,7 @@
         <v>0</v>
       </c>
       <c r="S71" s="462" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="33">
@@ -43756,17 +43756,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B72" s="588" t="s">
-        <v>336</v>
+      <c r="B72" s="598" t="s">
+        <v>335</v>
       </c>
       <c r="C72" s="458">
         <v>6388.0099</v>
       </c>
       <c r="D72" s="379" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E72" s="359" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F72" s="463"/>
       <c r="G72" s="463"/>
@@ -43785,7 +43785,7 @@
         <v>0</v>
       </c>
       <c r="S72" s="465" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -43793,17 +43793,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B73" s="588" t="s">
-        <v>327</v>
+      <c r="B73" s="598" t="s">
+        <v>326</v>
       </c>
       <c r="C73" s="458">
         <v>6388.0099</v>
       </c>
       <c r="D73" s="379" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E73" s="359" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F73" s="360"/>
       <c r="G73" s="360"/>
@@ -43828,17 +43828,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="B74" s="588" t="s">
-        <v>324</v>
+      <c r="B74" s="598" t="s">
+        <v>323</v>
       </c>
       <c r="C74" s="466" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="467" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E74" s="372" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F74" s="373">
         <f t="shared" ref="F74:Q74" si="20">SUM(F70:F73)</f>
@@ -43896,11 +43896,11 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="468"/>
-      <c r="B75" s="585" t="s">
-        <v>340</v>
-      </c>
-      <c r="C75" s="586"/>
-      <c r="D75" s="586"/>
+      <c r="B75" s="595" t="s">
+        <v>339</v>
+      </c>
+      <c r="C75" s="596"/>
+      <c r="D75" s="596"/>
       <c r="E75" s="469"/>
       <c r="F75" s="470">
         <f>SUMIF($E4:$E74,"&lt;&gt;"&amp;"*小計*",F4:F74)</f>
@@ -43982,14 +43982,14 @@
       <c r="B77" s="475"/>
       <c r="C77" s="476"/>
       <c r="D77" s="475" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E77" s="475"/>
       <c r="F77" s="477"/>
       <c r="G77" s="477"/>
       <c r="H77" s="477"/>
       <c r="I77" s="477" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J77" s="477"/>
       <c r="K77" s="477"/>
@@ -43997,7 +43997,7 @@
       <c r="M77" s="477"/>
       <c r="N77" s="477"/>
       <c r="O77" s="477" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P77" s="477"/>
       <c r="Q77" s="477"/>
